--- a/Security-Constrained-ACDC-Planning/data/Data-Ninghai.xlsx
+++ b/Security-Constrained-ACDC-Planning/data/Data-Ninghai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liupengxiang/Documents/GitHub/Coding-Paper/Security-Constrained-ACDC-Planning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FDAB02-8472-6A42-8354-3C4BC2C71635}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422287E6-FF71-264F-AADB-E6A4EB36D29A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -278,7 +278,7 @@
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="179" formatCode="0.000_ "/>
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -418,13 +418,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1763,34 +1763,34 @@
       <c r="A2" s="15">
         <v>0</v>
       </c>
-      <c r="B2" s="24">
-        <v>0</v>
-      </c>
-      <c r="C2" s="24">
-        <v>0</v>
-      </c>
-      <c r="D2" s="24">
-        <v>0</v>
-      </c>
-      <c r="E2" s="24">
-        <v>0</v>
-      </c>
-      <c r="F2" s="24">
-        <v>0</v>
-      </c>
-      <c r="G2" s="24">
-        <v>0</v>
-      </c>
-      <c r="H2" s="24">
-        <v>0</v>
-      </c>
-      <c r="I2" s="24">
-        <v>0</v>
-      </c>
-      <c r="J2" s="24">
-        <v>0</v>
-      </c>
-      <c r="K2" s="24">
+      <c r="B2" s="23">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0</v>
+      </c>
+      <c r="F2" s="23">
+        <v>0</v>
+      </c>
+      <c r="G2" s="23">
+        <v>0</v>
+      </c>
+      <c r="H2" s="23">
+        <v>0</v>
+      </c>
+      <c r="I2" s="23">
+        <v>0</v>
+      </c>
+      <c r="J2" s="23">
+        <v>0</v>
+      </c>
+      <c r="K2" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1798,34 +1798,34 @@
       <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="24">
-        <v>0</v>
-      </c>
-      <c r="C3" s="24">
-        <v>0</v>
-      </c>
-      <c r="D3" s="24">
-        <v>0</v>
-      </c>
-      <c r="E3" s="24">
-        <v>0</v>
-      </c>
-      <c r="F3" s="24">
-        <v>0</v>
-      </c>
-      <c r="G3" s="24">
-        <v>0</v>
-      </c>
-      <c r="H3" s="24">
-        <v>0</v>
-      </c>
-      <c r="I3" s="24">
-        <v>0</v>
-      </c>
-      <c r="J3" s="24">
-        <v>0</v>
-      </c>
-      <c r="K3" s="24">
+      <c r="B3" s="23">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0</v>
+      </c>
+      <c r="F3" s="23">
+        <v>0</v>
+      </c>
+      <c r="G3" s="23">
+        <v>0</v>
+      </c>
+      <c r="H3" s="23">
+        <v>0</v>
+      </c>
+      <c r="I3" s="23">
+        <v>0</v>
+      </c>
+      <c r="J3" s="23">
+        <v>0</v>
+      </c>
+      <c r="K3" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1833,34 +1833,34 @@
       <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="24">
-        <v>0</v>
-      </c>
-      <c r="C4" s="24">
-        <v>0</v>
-      </c>
-      <c r="D4" s="24">
-        <v>0</v>
-      </c>
-      <c r="E4" s="24">
-        <v>0</v>
-      </c>
-      <c r="F4" s="24">
-        <v>0</v>
-      </c>
-      <c r="G4" s="24">
-        <v>0</v>
-      </c>
-      <c r="H4" s="24">
-        <v>0</v>
-      </c>
-      <c r="I4" s="24">
-        <v>0</v>
-      </c>
-      <c r="J4" s="24">
-        <v>0</v>
-      </c>
-      <c r="K4" s="24">
+      <c r="B4" s="23">
+        <v>0</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0</v>
+      </c>
+      <c r="J4" s="23">
+        <v>0</v>
+      </c>
+      <c r="K4" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1868,34 +1868,34 @@
       <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>64.98</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <v>68.229000000000013</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>71.640450000000016</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>75.222472500000023</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>78.983596125000034</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <v>82.932775931250035</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="23">
         <v>87.079414727812534</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="23">
         <v>91.43338546420317</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="23">
         <v>96.005054737413332</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="23">
         <v>100.80530747428401</v>
       </c>
     </row>
@@ -1903,34 +1903,34 @@
       <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>20.5</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>21.525000000000002</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>22.601250000000004</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>23.731312500000005</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>24.917878125000005</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <v>26.163772031250005</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="23">
         <v>27.471960632812507</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="23">
         <v>28.845558664453133</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="23">
         <v>30.287836597675792</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="23">
         <v>31.802228427559584</v>
       </c>
     </row>
@@ -1938,34 +1938,34 @@
       <c r="A7" s="21">
         <v>5</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>42.7</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <v>44.835000000000008</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>47.076750000000011</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>49.430587500000016</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <v>51.902116875000019</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <v>54.497222718750024</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="23">
         <v>57.222083854687526</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="23">
         <v>60.083188047421906</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="23">
         <v>63.087347449793008</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="23">
         <v>66.24171482228266</v>
       </c>
     </row>
@@ -1973,34 +1973,34 @@
       <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>13.6</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>14.28</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>14.994</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>15.7437</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="23">
         <v>16.530885000000001</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="23">
         <v>17.357429250000003</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="23">
         <v>18.225300712500005</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="23">
         <v>19.136565748125005</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="23">
         <v>20.093394035531254</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="23">
         <v>21.098063737307818</v>
       </c>
     </row>
@@ -2008,34 +2008,34 @@
       <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>57.96</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>60.858000000000004</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>63.900900000000007</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>67.095945000000015</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <v>70.450742250000019</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <v>73.973279362500023</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="23">
         <v>77.671943330625027</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="23">
         <v>81.555540497156287</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="23">
         <v>85.63331752201411</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="23">
         <v>89.914983398114813</v>
       </c>
     </row>
@@ -2043,34 +2043,34 @@
       <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>36.1</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>37.905000000000001</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>39.800250000000005</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>41.790262500000004</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="23">
         <v>43.879775625000008</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="23">
         <v>46.073764406250007</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="23">
         <v>48.377452626562508</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="23">
         <v>50.796325257890636</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="23">
         <v>53.336141520785169</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="23">
         <v>56.002948596824432</v>
       </c>
     </row>
@@ -2078,34 +2078,34 @@
       <c r="A11" s="21">
         <v>9</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <v>28.5</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>29.925000000000001</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>31.421250000000001</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>32.992312500000004</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="23">
         <v>34.641928125000007</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="23">
         <v>36.374024531250008</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="23">
         <v>38.192725757812511</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="23">
         <v>40.102362045703138</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="23">
         <v>42.107480147988298</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="23">
         <v>44.212854155387717</v>
       </c>
     </row>
@@ -2113,34 +2113,34 @@
       <c r="A12" s="21">
         <v>10</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <v>73.599999999999994</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>77.28</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <v>81.144000000000005</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>85.201200000000014</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="23">
         <v>89.461260000000024</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="23">
         <v>93.934323000000035</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="23">
         <v>98.631039150000035</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="23">
         <v>103.56259110750004</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="23">
         <v>108.74072066287505</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="23">
         <v>114.1777566960188</v>
       </c>
     </row>
@@ -2148,34 +2148,34 @@
       <c r="A13" s="21">
         <v>11</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>100</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <v>105</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <v>110.25</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>115.7625</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="23">
         <v>121.55062500000001</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="23">
         <v>127.62815625000002</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="23">
         <v>134.00956406250003</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="23">
         <v>140.71004226562505</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="23">
         <v>147.74554437890632</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="23">
         <v>155.13282159785163</v>
       </c>
     </row>
@@ -2183,34 +2183,34 @@
       <c r="A14" s="21">
         <v>12</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>32.6</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>34.230000000000004</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="23">
         <v>35.941500000000005</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>37.738575000000004</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="23">
         <v>39.625503750000007</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="23">
         <v>41.60677893750001</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="23">
         <v>43.687117884375013</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="23">
         <v>45.871473778593767</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="23">
         <v>48.165047467523458</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="23">
         <v>50.573299840899629</v>
       </c>
     </row>
@@ -2218,34 +2218,34 @@
       <c r="A15" s="21">
         <v>13</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>73.2</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <v>76.86</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="23">
         <v>80.703000000000003</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <v>84.738150000000005</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="23">
         <v>88.975057500000005</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="23">
         <v>93.423810375000016</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="23">
         <v>98.095000893750026</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="23">
         <v>102.99975093843753</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="23">
         <v>108.14973848535941</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="23">
         <v>113.55722540962738</v>
       </c>
     </row>
@@ -2253,34 +2253,34 @@
       <c r="A16" s="21">
         <v>14</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <v>71</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="23">
         <v>74.55</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="23">
         <v>78.277500000000003</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>82.191375000000008</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="23">
         <v>86.300943750000016</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="23">
         <v>90.615990937500015</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="23">
         <v>95.146790484375018</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="23">
         <v>99.904130008593768</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="23">
         <v>104.89933650902346</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="23">
         <v>110.14430333447463</v>
       </c>
     </row>
@@ -2288,34 +2288,34 @@
       <c r="A17" s="21">
         <v>15</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>18.7</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>19.635000000000002</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="23">
         <v>20.616750000000003</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <v>21.647587500000004</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="23">
         <v>22.729966875000006</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="23">
         <v>23.866465218750008</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="23">
         <v>25.059788479687509</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="23">
         <v>26.312777903671886</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="23">
         <v>27.628416798855483</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="23">
         <v>29.00983763879826</v>
       </c>
     </row>
@@ -2323,34 +2323,34 @@
       <c r="A18" s="21">
         <v>16</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>47.7</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="23">
         <v>50.085000000000008</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="23">
         <v>52.589250000000014</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <v>55.218712500000017</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="23">
         <v>57.979648125000018</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="23">
         <v>60.878630531250025</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="23">
         <v>63.922562057812527</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="23">
         <v>67.118690160703153</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="23">
         <v>70.474624668738315</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="23">
         <v>73.998355902175234</v>
       </c>
     </row>
@@ -2358,34 +2358,34 @@
       <c r="A19" s="21">
         <v>17</v>
       </c>
-      <c r="B19" s="24">
-        <v>0</v>
-      </c>
-      <c r="C19" s="24">
-        <v>0</v>
-      </c>
-      <c r="D19" s="24">
-        <v>0</v>
-      </c>
-      <c r="E19" s="24">
-        <v>0</v>
-      </c>
-      <c r="F19" s="24">
-        <v>0</v>
-      </c>
-      <c r="G19" s="24">
-        <v>0</v>
-      </c>
-      <c r="H19" s="24">
-        <v>0</v>
-      </c>
-      <c r="I19" s="24">
-        <v>0</v>
-      </c>
-      <c r="J19" s="24">
-        <v>0</v>
-      </c>
-      <c r="K19" s="24">
+      <c r="B19" s="23">
+        <v>0</v>
+      </c>
+      <c r="C19" s="23">
+        <v>0</v>
+      </c>
+      <c r="D19" s="23">
+        <v>0</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0</v>
+      </c>
+      <c r="F19" s="23">
+        <v>0</v>
+      </c>
+      <c r="G19" s="23">
+        <v>0</v>
+      </c>
+      <c r="H19" s="23">
+        <v>0</v>
+      </c>
+      <c r="I19" s="23">
+        <v>0</v>
+      </c>
+      <c r="J19" s="23">
+        <v>0</v>
+      </c>
+      <c r="K19" s="23">
         <v>0</v>
       </c>
     </row>
@@ -2393,34 +2393,34 @@
       <c r="A20" s="21">
         <v>18</v>
       </c>
-      <c r="B20" s="24">
-        <v>0</v>
-      </c>
-      <c r="C20" s="24">
-        <v>0</v>
-      </c>
-      <c r="D20" s="24">
-        <v>0</v>
-      </c>
-      <c r="E20" s="24">
-        <v>0</v>
-      </c>
-      <c r="F20" s="24">
-        <v>0</v>
-      </c>
-      <c r="G20" s="24">
-        <v>0</v>
-      </c>
-      <c r="H20" s="24">
-        <v>0</v>
-      </c>
-      <c r="I20" s="24">
-        <v>0</v>
-      </c>
-      <c r="J20" s="24">
-        <v>0</v>
-      </c>
-      <c r="K20" s="24">
+      <c r="B20" s="23">
+        <v>0</v>
+      </c>
+      <c r="C20" s="23">
+        <v>0</v>
+      </c>
+      <c r="D20" s="23">
+        <v>0</v>
+      </c>
+      <c r="E20" s="23">
+        <v>0</v>
+      </c>
+      <c r="F20" s="23">
+        <v>0</v>
+      </c>
+      <c r="G20" s="23">
+        <v>0</v>
+      </c>
+      <c r="H20" s="23">
+        <v>0</v>
+      </c>
+      <c r="I20" s="23">
+        <v>0</v>
+      </c>
+      <c r="J20" s="23">
+        <v>0</v>
+      </c>
+      <c r="K20" s="23">
         <v>0</v>
       </c>
     </row>
@@ -2428,34 +2428,34 @@
       <c r="A21" s="21">
         <v>19</v>
       </c>
-      <c r="B21" s="24">
-        <v>0</v>
-      </c>
-      <c r="C21" s="24">
-        <v>0</v>
-      </c>
-      <c r="D21" s="24">
-        <v>0</v>
-      </c>
-      <c r="E21" s="24">
-        <v>0</v>
-      </c>
-      <c r="F21" s="24">
-        <v>0</v>
-      </c>
-      <c r="G21" s="24">
-        <v>0</v>
-      </c>
-      <c r="H21" s="24">
-        <v>0</v>
-      </c>
-      <c r="I21" s="24">
-        <v>0</v>
-      </c>
-      <c r="J21" s="24">
-        <v>0</v>
-      </c>
-      <c r="K21" s="24">
+      <c r="B21" s="23">
+        <v>0</v>
+      </c>
+      <c r="C21" s="23">
+        <v>0</v>
+      </c>
+      <c r="D21" s="23">
+        <v>0</v>
+      </c>
+      <c r="E21" s="23">
+        <v>0</v>
+      </c>
+      <c r="F21" s="23">
+        <v>0</v>
+      </c>
+      <c r="G21" s="23">
+        <v>0</v>
+      </c>
+      <c r="H21" s="23">
+        <v>0</v>
+      </c>
+      <c r="I21" s="23">
+        <v>0</v>
+      </c>
+      <c r="J21" s="23">
+        <v>0</v>
+      </c>
+      <c r="K21" s="23">
         <v>0</v>
       </c>
     </row>
@@ -2463,34 +2463,34 @@
       <c r="A22" s="21">
         <v>20</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="23">
         <v>20.58</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="23">
         <v>21.608999999999998</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="23">
         <v>22.689450000000001</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <v>23.823922500000002</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="23">
         <v>25.015118625000003</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="23">
         <v>26.265874556250004</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="23">
         <v>27.579168284062504</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="23">
         <v>28.95812669826563</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="23">
         <v>30.406033033178915</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="23">
         <v>31.926334684837862</v>
       </c>
     </row>
@@ -2498,34 +2498,34 @@
       <c r="A23" s="21">
         <v>21</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="23">
         <v>18.75</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="23">
         <v>19.6875</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="23">
         <v>20.671875</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="23">
         <v>21.705468750000001</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="23">
         <v>22.790742187500001</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="23">
         <v>23.930279296875003</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="23">
         <v>25.126793261718756</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="23">
         <v>26.383132924804695</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="23">
         <v>27.702289571044929</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="23">
         <v>29.087404049597176</v>
       </c>
     </row>
@@ -2533,34 +2533,34 @@
       <c r="A24" s="21">
         <v>22</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="23">
         <v>7.62</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="23">
         <v>8.0010000000000012</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="23">
         <v>8.4010500000000015</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="23">
         <v>8.8211025000000021</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="23">
         <v>9.2621576250000022</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="23">
         <v>9.7252655062500022</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="23">
         <v>10.211528781562503</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="23">
         <v>10.722105220640628</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="23">
         <v>11.258210481672661</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="23">
         <v>11.821121005756295</v>
       </c>
     </row>
@@ -2568,34 +2568,34 @@
       <c r="A25" s="21">
         <v>23</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="23">
         <v>2.93</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="23">
         <v>3.0765000000000002</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="23">
         <v>3.2303250000000006</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="23">
         <v>3.3918412500000006</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="23">
         <v>3.5614333125000006</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="23">
         <v>3.7395049781250007</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="23">
         <v>3.9264802270312509</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="23">
         <v>4.1228042383828134</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="23">
         <v>4.3289444503019539</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="23">
         <v>4.5453916728170514</v>
       </c>
     </row>
@@ -2603,34 +2603,34 @@
       <c r="A26" s="21">
         <v>24</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="23">
         <v>7.95</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="23">
         <v>8.3475000000000001</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="23">
         <v>8.764875</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="23">
         <v>9.2031187499999998</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="23">
         <v>9.6632746874999995</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="23">
         <v>10.146438421875001</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="23">
         <v>10.65376034296875</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="23">
         <v>11.186448360117188</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="23">
         <v>11.745770778123047</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="23">
         <v>12.3330593170292</v>
       </c>
     </row>
@@ -2638,34 +2638,34 @@
       <c r="A27" s="21">
         <v>25</v>
       </c>
-      <c r="B27" s="24">
-        <v>0</v>
-      </c>
-      <c r="C27" s="24">
-        <v>0</v>
-      </c>
-      <c r="D27" s="24">
-        <v>0</v>
-      </c>
-      <c r="E27" s="24">
-        <v>0</v>
-      </c>
-      <c r="F27" s="24">
-        <v>0</v>
-      </c>
-      <c r="G27" s="24">
-        <v>0</v>
-      </c>
-      <c r="H27" s="24">
-        <v>0</v>
-      </c>
-      <c r="I27" s="24">
-        <v>0</v>
-      </c>
-      <c r="J27" s="24">
-        <v>0</v>
-      </c>
-      <c r="K27" s="24">
+      <c r="B27" s="23">
+        <v>0</v>
+      </c>
+      <c r="C27" s="23">
+        <v>0</v>
+      </c>
+      <c r="D27" s="23">
+        <v>0</v>
+      </c>
+      <c r="E27" s="23">
+        <v>0</v>
+      </c>
+      <c r="F27" s="23">
+        <v>0</v>
+      </c>
+      <c r="G27" s="23">
+        <v>0</v>
+      </c>
+      <c r="H27" s="23">
+        <v>0</v>
+      </c>
+      <c r="I27" s="23">
+        <v>0</v>
+      </c>
+      <c r="J27" s="23">
+        <v>0</v>
+      </c>
+      <c r="K27" s="23">
         <v>0</v>
       </c>
     </row>
@@ -2673,34 +2673,34 @@
       <c r="A28" s="21">
         <v>26</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="23">
         <v>3.4</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="23">
         <v>3.57</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="23">
         <v>3.7484999999999999</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="23">
         <v>3.9359250000000001</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="23">
         <v>4.1327212500000003</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="23">
         <v>4.3393573125000007</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="23">
         <v>4.5563251781250012</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="23">
         <v>4.7841414370312512</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="23">
         <v>5.0233485088828136</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="23">
         <v>5.2745159343269545</v>
       </c>
     </row>
@@ -2708,34 +2708,34 @@
       <c r="A29" s="21">
         <v>27</v>
       </c>
-      <c r="B29" s="24">
-        <v>0</v>
-      </c>
-      <c r="C29" s="24">
-        <v>0</v>
-      </c>
-      <c r="D29" s="24">
-        <v>0</v>
-      </c>
-      <c r="E29" s="24">
-        <v>0</v>
-      </c>
-      <c r="F29" s="24">
-        <v>0</v>
-      </c>
-      <c r="G29" s="24">
-        <v>0</v>
-      </c>
-      <c r="H29" s="24">
-        <v>0</v>
-      </c>
-      <c r="I29" s="24">
-        <v>0</v>
-      </c>
-      <c r="J29" s="24">
-        <v>0</v>
-      </c>
-      <c r="K29" s="24">
+      <c r="B29" s="23">
+        <v>0</v>
+      </c>
+      <c r="C29" s="23">
+        <v>0</v>
+      </c>
+      <c r="D29" s="23">
+        <v>0</v>
+      </c>
+      <c r="E29" s="23">
+        <v>0</v>
+      </c>
+      <c r="F29" s="23">
+        <v>0</v>
+      </c>
+      <c r="G29" s="23">
+        <v>0</v>
+      </c>
+      <c r="H29" s="23">
+        <v>0</v>
+      </c>
+      <c r="I29" s="23">
+        <v>0</v>
+      </c>
+      <c r="J29" s="23">
+        <v>0</v>
+      </c>
+      <c r="K29" s="23">
         <v>0</v>
       </c>
     </row>
@@ -2743,34 +2743,34 @@
       <c r="A30" s="21">
         <v>28</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="23">
         <v>19.23</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="23">
         <v>20.191500000000001</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="23">
         <v>21.201075000000003</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="23">
         <v>22.261128750000005</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="23">
         <v>23.374185187500007</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="23">
         <v>24.54289444687501</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="23">
         <v>25.770039169218762</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="23">
         <v>27.058541127679703</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="23">
         <v>28.41146818406369</v>
       </c>
-      <c r="K30" s="24">
+      <c r="K30" s="23">
         <v>29.832041593266876</v>
       </c>
     </row>
@@ -2778,34 +2778,34 @@
       <c r="A31" s="21">
         <v>29</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="23">
         <v>23.45</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="23">
         <v>24.622499999999999</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="23">
         <v>25.853625000000001</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="23">
         <v>27.146306250000002</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="23">
         <v>28.503621562500005</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="23">
         <v>29.928802640625005</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="23">
         <v>31.425242772656258</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="23">
         <v>32.996504911289072</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="23">
         <v>34.64633015685353</v>
       </c>
-      <c r="K31" s="24">
+      <c r="K31" s="23">
         <v>36.378646664696205</v>
       </c>
     </row>
@@ -2813,34 +2813,34 @@
       <c r="A32" s="21">
         <v>30</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="23">
         <v>17.510000000000002</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="23">
         <v>18.385500000000004</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="23">
         <v>19.304775000000006</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="23">
         <v>20.270013750000007</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="23">
         <v>21.28351443750001</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="23">
         <v>22.347690159375013</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="23">
         <v>23.465074667343764</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="23">
         <v>24.638328400710954</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J32" s="23">
         <v>25.870244820746503</v>
       </c>
-      <c r="K32" s="24">
+      <c r="K32" s="23">
         <v>27.16375706178383</v>
       </c>
     </row>
@@ -2848,34 +2848,34 @@
       <c r="A33" s="21">
         <v>31</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="23">
         <v>6.86</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="23">
         <v>7.2030000000000003</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="23">
         <v>7.5631500000000003</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="23">
         <v>7.9413075000000006</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="23">
         <v>8.338372875000001</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="23">
         <v>8.7552915187500009</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="23">
         <v>9.1930560946875008</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="23">
         <v>9.6527088994218762</v>
       </c>
-      <c r="J33" s="24">
+      <c r="J33" s="23">
         <v>10.135344344392971</v>
       </c>
-      <c r="K33" s="24">
+      <c r="K33" s="23">
         <v>10.642111561612619</v>
       </c>
     </row>
@@ -2883,34 +2883,34 @@
       <c r="A34" s="21">
         <v>32</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="23">
         <v>21.88</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="23">
         <v>22.974</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="23">
         <v>24.122700000000002</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="23">
         <v>25.328835000000002</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="23">
         <v>26.595276750000004</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="23">
         <v>27.925040587500003</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="23">
         <v>29.321292616875006</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="23">
         <v>30.787357247718756</v>
       </c>
-      <c r="J34" s="24">
+      <c r="J34" s="23">
         <v>32.326725110104697</v>
       </c>
-      <c r="K34" s="24">
+      <c r="K34" s="23">
         <v>33.943061365609935</v>
       </c>
     </row>
@@ -2918,34 +2918,34 @@
       <c r="A35" s="21">
         <v>33</v>
       </c>
-      <c r="B35" s="24">
-        <v>0</v>
-      </c>
-      <c r="C35" s="24">
-        <v>0</v>
-      </c>
-      <c r="D35" s="24">
-        <v>0</v>
-      </c>
-      <c r="E35" s="24">
-        <v>0</v>
-      </c>
-      <c r="F35" s="24">
-        <v>0</v>
-      </c>
-      <c r="G35" s="24">
-        <v>0</v>
-      </c>
-      <c r="H35" s="24">
-        <v>0</v>
-      </c>
-      <c r="I35" s="24">
-        <v>0</v>
-      </c>
-      <c r="J35" s="24">
-        <v>0</v>
-      </c>
-      <c r="K35" s="24">
+      <c r="B35" s="23">
+        <v>0</v>
+      </c>
+      <c r="C35" s="23">
+        <v>0</v>
+      </c>
+      <c r="D35" s="23">
+        <v>0</v>
+      </c>
+      <c r="E35" s="23">
+        <v>0</v>
+      </c>
+      <c r="F35" s="23">
+        <v>0</v>
+      </c>
+      <c r="G35" s="23">
+        <v>0</v>
+      </c>
+      <c r="H35" s="23">
+        <v>0</v>
+      </c>
+      <c r="I35" s="23">
+        <v>0</v>
+      </c>
+      <c r="J35" s="23">
+        <v>0</v>
+      </c>
+      <c r="K35" s="23">
         <v>0</v>
       </c>
     </row>
@@ -2953,34 +2953,34 @@
       <c r="A36" s="21">
         <v>34</v>
       </c>
-      <c r="B36" s="24">
-        <v>0</v>
-      </c>
-      <c r="C36" s="24">
-        <v>0</v>
-      </c>
-      <c r="D36" s="24">
-        <v>0</v>
-      </c>
-      <c r="E36" s="24">
-        <v>0</v>
-      </c>
-      <c r="F36" s="24">
-        <v>0</v>
-      </c>
-      <c r="G36" s="24">
-        <v>0</v>
-      </c>
-      <c r="H36" s="24">
-        <v>0</v>
-      </c>
-      <c r="I36" s="24">
-        <v>0</v>
-      </c>
-      <c r="J36" s="24">
-        <v>0</v>
-      </c>
-      <c r="K36" s="24">
+      <c r="B36" s="23">
+        <v>0</v>
+      </c>
+      <c r="C36" s="23">
+        <v>0</v>
+      </c>
+      <c r="D36" s="23">
+        <v>0</v>
+      </c>
+      <c r="E36" s="23">
+        <v>0</v>
+      </c>
+      <c r="F36" s="23">
+        <v>0</v>
+      </c>
+      <c r="G36" s="23">
+        <v>0</v>
+      </c>
+      <c r="H36" s="23">
+        <v>0</v>
+      </c>
+      <c r="I36" s="23">
+        <v>0</v>
+      </c>
+      <c r="J36" s="23">
+        <v>0</v>
+      </c>
+      <c r="K36" s="23">
         <v>0</v>
       </c>
     </row>
@@ -2988,34 +2988,34 @@
       <c r="A37" s="21">
         <v>35</v>
       </c>
-      <c r="B37" s="24">
-        <v>0</v>
-      </c>
-      <c r="C37" s="24">
-        <v>0</v>
-      </c>
-      <c r="D37" s="24">
-        <v>0</v>
-      </c>
-      <c r="E37" s="24">
-        <v>0</v>
-      </c>
-      <c r="F37" s="24">
-        <v>0</v>
-      </c>
-      <c r="G37" s="24">
-        <v>0</v>
-      </c>
-      <c r="H37" s="24">
-        <v>0</v>
-      </c>
-      <c r="I37" s="24">
-        <v>0</v>
-      </c>
-      <c r="J37" s="24">
-        <v>0</v>
-      </c>
-      <c r="K37" s="24">
+      <c r="B37" s="23">
+        <v>0</v>
+      </c>
+      <c r="C37" s="23">
+        <v>0</v>
+      </c>
+      <c r="D37" s="23">
+        <v>0</v>
+      </c>
+      <c r="E37" s="23">
+        <v>0</v>
+      </c>
+      <c r="F37" s="23">
+        <v>0</v>
+      </c>
+      <c r="G37" s="23">
+        <v>0</v>
+      </c>
+      <c r="H37" s="23">
+        <v>0</v>
+      </c>
+      <c r="I37" s="23">
+        <v>0</v>
+      </c>
+      <c r="J37" s="23">
+        <v>0</v>
+      </c>
+      <c r="K37" s="23">
         <v>0</v>
       </c>
     </row>
@@ -3023,34 +3023,34 @@
       <c r="A38" s="21">
         <v>36</v>
       </c>
-      <c r="B38" s="24">
-        <v>0</v>
-      </c>
-      <c r="C38" s="24">
-        <v>0</v>
-      </c>
-      <c r="D38" s="24">
-        <v>0</v>
-      </c>
-      <c r="E38" s="24">
-        <v>0</v>
-      </c>
-      <c r="F38" s="24">
-        <v>0</v>
-      </c>
-      <c r="G38" s="24">
-        <v>0</v>
-      </c>
-      <c r="H38" s="24">
-        <v>0</v>
-      </c>
-      <c r="I38" s="24">
-        <v>0</v>
-      </c>
-      <c r="J38" s="24">
-        <v>0</v>
-      </c>
-      <c r="K38" s="24">
+      <c r="B38" s="23">
+        <v>0</v>
+      </c>
+      <c r="C38" s="23">
+        <v>0</v>
+      </c>
+      <c r="D38" s="23">
+        <v>0</v>
+      </c>
+      <c r="E38" s="23">
+        <v>0</v>
+      </c>
+      <c r="F38" s="23">
+        <v>0</v>
+      </c>
+      <c r="G38" s="23">
+        <v>0</v>
+      </c>
+      <c r="H38" s="23">
+        <v>0</v>
+      </c>
+      <c r="I38" s="23">
+        <v>0</v>
+      </c>
+      <c r="J38" s="23">
+        <v>0</v>
+      </c>
+      <c r="K38" s="23">
         <v>0</v>
       </c>
     </row>
@@ -3058,34 +3058,34 @@
       <c r="A39" s="21">
         <v>37</v>
       </c>
-      <c r="B39" s="24">
-        <v>0</v>
-      </c>
-      <c r="C39" s="24">
-        <v>0</v>
-      </c>
-      <c r="D39" s="24">
-        <v>0</v>
-      </c>
-      <c r="E39" s="24">
-        <v>0</v>
-      </c>
-      <c r="F39" s="24">
-        <v>0</v>
-      </c>
-      <c r="G39" s="24">
-        <v>0</v>
-      </c>
-      <c r="H39" s="24">
-        <v>0</v>
-      </c>
-      <c r="I39" s="24">
-        <v>0</v>
-      </c>
-      <c r="J39" s="24">
-        <v>0</v>
-      </c>
-      <c r="K39" s="24">
+      <c r="B39" s="23">
+        <v>0</v>
+      </c>
+      <c r="C39" s="23">
+        <v>0</v>
+      </c>
+      <c r="D39" s="23">
+        <v>0</v>
+      </c>
+      <c r="E39" s="23">
+        <v>0</v>
+      </c>
+      <c r="F39" s="23">
+        <v>0</v>
+      </c>
+      <c r="G39" s="23">
+        <v>0</v>
+      </c>
+      <c r="H39" s="23">
+        <v>0</v>
+      </c>
+      <c r="I39" s="23">
+        <v>0</v>
+      </c>
+      <c r="J39" s="23">
+        <v>0</v>
+      </c>
+      <c r="K39" s="23">
         <v>0</v>
       </c>
     </row>
@@ -3093,34 +3093,34 @@
       <c r="A40" s="21">
         <v>38</v>
       </c>
-      <c r="B40" s="24">
-        <v>0</v>
-      </c>
-      <c r="C40" s="24">
-        <v>0</v>
-      </c>
-      <c r="D40" s="24">
-        <v>0</v>
-      </c>
-      <c r="E40" s="24">
-        <v>0</v>
-      </c>
-      <c r="F40" s="24">
-        <v>0</v>
-      </c>
-      <c r="G40" s="24">
-        <v>0</v>
-      </c>
-      <c r="H40" s="24">
-        <v>0</v>
-      </c>
-      <c r="I40" s="24">
-        <v>0</v>
-      </c>
-      <c r="J40" s="24">
-        <v>0</v>
-      </c>
-      <c r="K40" s="24">
+      <c r="B40" s="23">
+        <v>0</v>
+      </c>
+      <c r="C40" s="23">
+        <v>0</v>
+      </c>
+      <c r="D40" s="23">
+        <v>0</v>
+      </c>
+      <c r="E40" s="23">
+        <v>0</v>
+      </c>
+      <c r="F40" s="23">
+        <v>0</v>
+      </c>
+      <c r="G40" s="23">
+        <v>0</v>
+      </c>
+      <c r="H40" s="23">
+        <v>0</v>
+      </c>
+      <c r="I40" s="23">
+        <v>0</v>
+      </c>
+      <c r="J40" s="23">
+        <v>0</v>
+      </c>
+      <c r="K40" s="23">
         <v>0</v>
       </c>
     </row>
@@ -3128,34 +3128,34 @@
       <c r="A41" s="21">
         <v>39</v>
       </c>
-      <c r="B41" s="24">
-        <v>0</v>
-      </c>
-      <c r="C41" s="24">
-        <v>0</v>
-      </c>
-      <c r="D41" s="24">
-        <v>0</v>
-      </c>
-      <c r="E41" s="24">
-        <v>0</v>
-      </c>
-      <c r="F41" s="24">
-        <v>0</v>
-      </c>
-      <c r="G41" s="24">
-        <v>0</v>
-      </c>
-      <c r="H41" s="24">
-        <v>0</v>
-      </c>
-      <c r="I41" s="24">
-        <v>0</v>
-      </c>
-      <c r="J41" s="24">
-        <v>0</v>
-      </c>
-      <c r="K41" s="24">
+      <c r="B41" s="23">
+        <v>0</v>
+      </c>
+      <c r="C41" s="23">
+        <v>0</v>
+      </c>
+      <c r="D41" s="23">
+        <v>0</v>
+      </c>
+      <c r="E41" s="23">
+        <v>0</v>
+      </c>
+      <c r="F41" s="23">
+        <v>0</v>
+      </c>
+      <c r="G41" s="23">
+        <v>0</v>
+      </c>
+      <c r="H41" s="23">
+        <v>0</v>
+      </c>
+      <c r="I41" s="23">
+        <v>0</v>
+      </c>
+      <c r="J41" s="23">
+        <v>0</v>
+      </c>
+      <c r="K41" s="23">
         <v>0</v>
       </c>
     </row>
@@ -3163,34 +3163,34 @@
       <c r="A42" s="21">
         <v>40</v>
       </c>
-      <c r="B42" s="24">
-        <v>0</v>
-      </c>
-      <c r="C42" s="24">
-        <v>0</v>
-      </c>
-      <c r="D42" s="24">
-        <v>0</v>
-      </c>
-      <c r="E42" s="24">
-        <v>0</v>
-      </c>
-      <c r="F42" s="24">
-        <v>0</v>
-      </c>
-      <c r="G42" s="24">
-        <v>0</v>
-      </c>
-      <c r="H42" s="24">
-        <v>0</v>
-      </c>
-      <c r="I42" s="24">
-        <v>0</v>
-      </c>
-      <c r="J42" s="24">
-        <v>0</v>
-      </c>
-      <c r="K42" s="24">
+      <c r="B42" s="23">
+        <v>0</v>
+      </c>
+      <c r="C42" s="23">
+        <v>0</v>
+      </c>
+      <c r="D42" s="23">
+        <v>0</v>
+      </c>
+      <c r="E42" s="23">
+        <v>0</v>
+      </c>
+      <c r="F42" s="23">
+        <v>0</v>
+      </c>
+      <c r="G42" s="23">
+        <v>0</v>
+      </c>
+      <c r="H42" s="23">
+        <v>0</v>
+      </c>
+      <c r="I42" s="23">
+        <v>0</v>
+      </c>
+      <c r="J42" s="23">
+        <v>0</v>
+      </c>
+      <c r="K42" s="23">
         <v>0</v>
       </c>
     </row>
@@ -3198,34 +3198,34 @@
       <c r="A43" s="21">
         <v>41</v>
       </c>
-      <c r="B43" s="24">
-        <v>0</v>
-      </c>
-      <c r="C43" s="24">
-        <v>0</v>
-      </c>
-      <c r="D43" s="24">
-        <v>0</v>
-      </c>
-      <c r="E43" s="24">
-        <v>0</v>
-      </c>
-      <c r="F43" s="24">
-        <v>0</v>
-      </c>
-      <c r="G43" s="24">
-        <v>0</v>
-      </c>
-      <c r="H43" s="24">
-        <v>0</v>
-      </c>
-      <c r="I43" s="24">
-        <v>0</v>
-      </c>
-      <c r="J43" s="24">
-        <v>0</v>
-      </c>
-      <c r="K43" s="24">
+      <c r="B43" s="23">
+        <v>0</v>
+      </c>
+      <c r="C43" s="23">
+        <v>0</v>
+      </c>
+      <c r="D43" s="23">
+        <v>0</v>
+      </c>
+      <c r="E43" s="23">
+        <v>0</v>
+      </c>
+      <c r="F43" s="23">
+        <v>0</v>
+      </c>
+      <c r="G43" s="23">
+        <v>0</v>
+      </c>
+      <c r="H43" s="23">
+        <v>0</v>
+      </c>
+      <c r="I43" s="23">
+        <v>0</v>
+      </c>
+      <c r="J43" s="23">
+        <v>0</v>
+      </c>
+      <c r="K43" s="23">
         <v>0</v>
       </c>
     </row>
@@ -3233,34 +3233,34 @@
       <c r="A44" s="21">
         <v>42</v>
       </c>
-      <c r="B44" s="24">
-        <v>0</v>
-      </c>
-      <c r="C44" s="24">
-        <v>0</v>
-      </c>
-      <c r="D44" s="24">
-        <v>0</v>
-      </c>
-      <c r="E44" s="24">
-        <v>0</v>
-      </c>
-      <c r="F44" s="24">
-        <v>0</v>
-      </c>
-      <c r="G44" s="24">
-        <v>0</v>
-      </c>
-      <c r="H44" s="24">
-        <v>0</v>
-      </c>
-      <c r="I44" s="24">
-        <v>0</v>
-      </c>
-      <c r="J44" s="24">
-        <v>0</v>
-      </c>
-      <c r="K44" s="24">
+      <c r="B44" s="23">
+        <v>0</v>
+      </c>
+      <c r="C44" s="23">
+        <v>0</v>
+      </c>
+      <c r="D44" s="23">
+        <v>0</v>
+      </c>
+      <c r="E44" s="23">
+        <v>0</v>
+      </c>
+      <c r="F44" s="23">
+        <v>0</v>
+      </c>
+      <c r="G44" s="23">
+        <v>0</v>
+      </c>
+      <c r="H44" s="23">
+        <v>0</v>
+      </c>
+      <c r="I44" s="23">
+        <v>0</v>
+      </c>
+      <c r="J44" s="23">
+        <v>0</v>
+      </c>
+      <c r="K44" s="23">
         <v>0</v>
       </c>
     </row>
@@ -3268,34 +3268,34 @@
       <c r="A45" s="21">
         <v>43</v>
       </c>
-      <c r="B45" s="24">
-        <v>0</v>
-      </c>
-      <c r="C45" s="24">
-        <v>0</v>
-      </c>
-      <c r="D45" s="24">
-        <v>0</v>
-      </c>
-      <c r="E45" s="24">
-        <v>0</v>
-      </c>
-      <c r="F45" s="24">
-        <v>0</v>
-      </c>
-      <c r="G45" s="24">
-        <v>0</v>
-      </c>
-      <c r="H45" s="24">
-        <v>0</v>
-      </c>
-      <c r="I45" s="24">
-        <v>0</v>
-      </c>
-      <c r="J45" s="24">
-        <v>0</v>
-      </c>
-      <c r="K45" s="24">
+      <c r="B45" s="23">
+        <v>0</v>
+      </c>
+      <c r="C45" s="23">
+        <v>0</v>
+      </c>
+      <c r="D45" s="23">
+        <v>0</v>
+      </c>
+      <c r="E45" s="23">
+        <v>0</v>
+      </c>
+      <c r="F45" s="23">
+        <v>0</v>
+      </c>
+      <c r="G45" s="23">
+        <v>0</v>
+      </c>
+      <c r="H45" s="23">
+        <v>0</v>
+      </c>
+      <c r="I45" s="23">
+        <v>0</v>
+      </c>
+      <c r="J45" s="23">
+        <v>0</v>
+      </c>
+      <c r="K45" s="23">
         <v>0</v>
       </c>
     </row>
@@ -3303,34 +3303,34 @@
       <c r="A46" s="21">
         <v>44</v>
       </c>
-      <c r="B46" s="24">
-        <v>0</v>
-      </c>
-      <c r="C46" s="24">
-        <v>0</v>
-      </c>
-      <c r="D46" s="24">
-        <v>0</v>
-      </c>
-      <c r="E46" s="24">
-        <v>0</v>
-      </c>
-      <c r="F46" s="24">
-        <v>0</v>
-      </c>
-      <c r="G46" s="24">
-        <v>0</v>
-      </c>
-      <c r="H46" s="24">
-        <v>0</v>
-      </c>
-      <c r="I46" s="24">
-        <v>0</v>
-      </c>
-      <c r="J46" s="24">
-        <v>0</v>
-      </c>
-      <c r="K46" s="24">
+      <c r="B46" s="23">
+        <v>0</v>
+      </c>
+      <c r="C46" s="23">
+        <v>0</v>
+      </c>
+      <c r="D46" s="23">
+        <v>0</v>
+      </c>
+      <c r="E46" s="23">
+        <v>0</v>
+      </c>
+      <c r="F46" s="23">
+        <v>0</v>
+      </c>
+      <c r="G46" s="23">
+        <v>0</v>
+      </c>
+      <c r="H46" s="23">
+        <v>0</v>
+      </c>
+      <c r="I46" s="23">
+        <v>0</v>
+      </c>
+      <c r="J46" s="23">
+        <v>0</v>
+      </c>
+      <c r="K46" s="23">
         <v>0</v>
       </c>
     </row>
@@ -3338,34 +3338,34 @@
       <c r="A47" s="21">
         <v>45</v>
       </c>
-      <c r="B47" s="24">
+      <c r="B47" s="23">
         <v>18</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="23">
         <v>18.900000000000002</v>
       </c>
-      <c r="D47" s="24">
+      <c r="D47" s="23">
         <v>19.845000000000002</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="23">
         <v>20.837250000000004</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="23">
         <v>21.879112500000005</v>
       </c>
-      <c r="G47" s="24">
+      <c r="G47" s="23">
         <v>22.973068125000005</v>
       </c>
-      <c r="H47" s="24">
+      <c r="H47" s="23">
         <v>24.121721531250007</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I47" s="23">
         <v>25.32780760781251</v>
       </c>
-      <c r="J47" s="24">
+      <c r="J47" s="23">
         <v>26.594197988203135</v>
       </c>
-      <c r="K47" s="24">
+      <c r="K47" s="23">
         <v>27.923907887613293</v>
       </c>
     </row>
@@ -3373,34 +3373,34 @@
       <c r="A48" s="21">
         <v>46</v>
       </c>
-      <c r="B48" s="24">
+      <c r="B48" s="23">
         <v>20</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="23">
         <v>21</v>
       </c>
-      <c r="D48" s="24">
+      <c r="D48" s="23">
         <v>22.05</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="23">
         <v>23.152500000000003</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F48" s="23">
         <v>24.310125000000003</v>
       </c>
-      <c r="G48" s="24">
+      <c r="G48" s="23">
         <v>25.525631250000004</v>
       </c>
-      <c r="H48" s="24">
+      <c r="H48" s="23">
         <v>26.801912812500007</v>
       </c>
-      <c r="I48" s="24">
+      <c r="I48" s="23">
         <v>28.142008453125008</v>
       </c>
-      <c r="J48" s="24">
+      <c r="J48" s="23">
         <v>29.549108875781261</v>
       </c>
-      <c r="K48" s="24">
+      <c r="K48" s="23">
         <v>31.026564319570326</v>
       </c>
     </row>
@@ -3408,34 +3408,34 @@
       <c r="A49" s="21">
         <v>47</v>
       </c>
-      <c r="B49" s="24">
+      <c r="B49" s="23">
         <v>14.61</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="23">
         <v>15.3405</v>
       </c>
-      <c r="D49" s="24">
+      <c r="D49" s="23">
         <v>16.107525000000003</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="23">
         <v>16.912901250000004</v>
       </c>
-      <c r="F49" s="24">
+      <c r="F49" s="23">
         <v>17.758546312500005</v>
       </c>
-      <c r="G49" s="24">
+      <c r="G49" s="23">
         <v>18.646473628125005</v>
       </c>
-      <c r="H49" s="24">
+      <c r="H49" s="23">
         <v>19.578797309531257</v>
       </c>
-      <c r="I49" s="24">
+      <c r="I49" s="23">
         <v>20.557737175007819</v>
       </c>
-      <c r="J49" s="24">
+      <c r="J49" s="23">
         <v>21.585624033758211</v>
       </c>
-      <c r="K49" s="24">
+      <c r="K49" s="23">
         <v>22.664905235446124</v>
       </c>
     </row>
@@ -3443,34 +3443,34 @@
       <c r="A50" s="21">
         <v>48</v>
       </c>
-      <c r="B50" s="24">
+      <c r="B50" s="23">
         <v>20.2</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="23">
         <v>21.21</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D50" s="23">
         <v>22.270500000000002</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="23">
         <v>23.384025000000005</v>
       </c>
-      <c r="F50" s="24">
+      <c r="F50" s="23">
         <v>24.553226250000005</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G50" s="23">
         <v>25.780887562500006</v>
       </c>
-      <c r="H50" s="24">
+      <c r="H50" s="23">
         <v>27.069931940625008</v>
       </c>
-      <c r="I50" s="24">
+      <c r="I50" s="23">
         <v>28.42342853765626</v>
       </c>
-      <c r="J50" s="24">
+      <c r="J50" s="23">
         <v>29.844599964539075</v>
       </c>
-      <c r="K50" s="24">
+      <c r="K50" s="23">
         <v>31.336829962766029</v>
       </c>
     </row>
@@ -3478,34 +3478,34 @@
       <c r="A51" s="21">
         <v>49</v>
       </c>
-      <c r="B51" s="24">
-        <v>0</v>
-      </c>
-      <c r="C51" s="24">
-        <v>0</v>
-      </c>
-      <c r="D51" s="24">
-        <v>0</v>
-      </c>
-      <c r="E51" s="24">
-        <v>0</v>
-      </c>
-      <c r="F51" s="24">
-        <v>0</v>
-      </c>
-      <c r="G51" s="24">
-        <v>0</v>
-      </c>
-      <c r="H51" s="24">
-        <v>0</v>
-      </c>
-      <c r="I51" s="24">
-        <v>0</v>
-      </c>
-      <c r="J51" s="24">
-        <v>0</v>
-      </c>
-      <c r="K51" s="24">
+      <c r="B51" s="23">
+        <v>0</v>
+      </c>
+      <c r="C51" s="23">
+        <v>0</v>
+      </c>
+      <c r="D51" s="23">
+        <v>0</v>
+      </c>
+      <c r="E51" s="23">
+        <v>0</v>
+      </c>
+      <c r="F51" s="23">
+        <v>0</v>
+      </c>
+      <c r="G51" s="23">
+        <v>0</v>
+      </c>
+      <c r="H51" s="23">
+        <v>0</v>
+      </c>
+      <c r="I51" s="23">
+        <v>0</v>
+      </c>
+      <c r="J51" s="23">
+        <v>0</v>
+      </c>
+      <c r="K51" s="23">
         <v>0</v>
       </c>
     </row>
@@ -3513,34 +3513,34 @@
       <c r="A52" s="21">
         <v>50</v>
       </c>
-      <c r="B52" s="24">
+      <c r="B52" s="23">
         <v>14.2</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="23">
         <v>14.91</v>
       </c>
-      <c r="D52" s="24">
+      <c r="D52" s="23">
         <v>15.6555</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="23">
         <v>16.438275000000001</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="23">
         <v>17.260188750000001</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G52" s="23">
         <v>18.123198187500002</v>
       </c>
-      <c r="H52" s="24">
+      <c r="H52" s="23">
         <v>19.029358096875004</v>
       </c>
-      <c r="I52" s="24">
+      <c r="I52" s="23">
         <v>19.980826001718754</v>
       </c>
-      <c r="J52" s="24">
+      <c r="J52" s="23">
         <v>20.979867301804692</v>
       </c>
-      <c r="K52" s="24">
+      <c r="K52" s="23">
         <v>22.028860666894928</v>
       </c>
     </row>
@@ -3548,34 +3548,34 @@
       <c r="A53" s="21">
         <v>51</v>
       </c>
-      <c r="B53" s="24">
+      <c r="B53" s="23">
         <v>12</v>
       </c>
-      <c r="C53" s="24">
+      <c r="C53" s="23">
         <v>12.600000000000001</v>
       </c>
-      <c r="D53" s="24">
+      <c r="D53" s="23">
         <v>13.230000000000002</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E53" s="23">
         <v>13.891500000000002</v>
       </c>
-      <c r="F53" s="24">
+      <c r="F53" s="23">
         <v>14.586075000000003</v>
       </c>
-      <c r="G53" s="24">
+      <c r="G53" s="23">
         <v>15.315378750000004</v>
       </c>
-      <c r="H53" s="24">
+      <c r="H53" s="23">
         <v>16.081147687500007</v>
       </c>
-      <c r="I53" s="24">
+      <c r="I53" s="23">
         <v>16.885205071875006</v>
       </c>
-      <c r="J53" s="24">
+      <c r="J53" s="23">
         <v>17.729465325468759</v>
       </c>
-      <c r="K53" s="24">
+      <c r="K53" s="23">
         <v>18.615938591742196</v>
       </c>
     </row>
@@ -3583,34 +3583,34 @@
       <c r="A54" s="21">
         <v>52</v>
       </c>
-      <c r="B54" s="24">
-        <v>0</v>
-      </c>
-      <c r="C54" s="24">
-        <v>0</v>
-      </c>
-      <c r="D54" s="24">
-        <v>0</v>
-      </c>
-      <c r="E54" s="24">
-        <v>0</v>
-      </c>
-      <c r="F54" s="24">
-        <v>0</v>
-      </c>
-      <c r="G54" s="24">
-        <v>0</v>
-      </c>
-      <c r="H54" s="24">
-        <v>0</v>
-      </c>
-      <c r="I54" s="24">
-        <v>0</v>
-      </c>
-      <c r="J54" s="24">
-        <v>0</v>
-      </c>
-      <c r="K54" s="24">
+      <c r="B54" s="23">
+        <v>0</v>
+      </c>
+      <c r="C54" s="23">
+        <v>0</v>
+      </c>
+      <c r="D54" s="23">
+        <v>0</v>
+      </c>
+      <c r="E54" s="23">
+        <v>0</v>
+      </c>
+      <c r="F54" s="23">
+        <v>0</v>
+      </c>
+      <c r="G54" s="23">
+        <v>0</v>
+      </c>
+      <c r="H54" s="23">
+        <v>0</v>
+      </c>
+      <c r="I54" s="23">
+        <v>0</v>
+      </c>
+      <c r="J54" s="23">
+        <v>0</v>
+      </c>
+      <c r="K54" s="23">
         <v>0</v>
       </c>
     </row>
@@ -3618,34 +3618,34 @@
       <c r="A55" s="21">
         <v>53</v>
       </c>
-      <c r="B55" s="24">
+      <c r="B55" s="23">
         <v>10</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="23">
         <v>10.5</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="23">
         <v>11.025</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="23">
         <v>11.576250000000002</v>
       </c>
-      <c r="F55" s="24">
+      <c r="F55" s="23">
         <v>12.155062500000001</v>
       </c>
-      <c r="G55" s="24">
+      <c r="G55" s="23">
         <v>12.762815625000002</v>
       </c>
-      <c r="H55" s="24">
+      <c r="H55" s="23">
         <v>13.400956406250003</v>
       </c>
-      <c r="I55" s="24">
+      <c r="I55" s="23">
         <v>14.071004226562504</v>
       </c>
-      <c r="J55" s="24">
+      <c r="J55" s="23">
         <v>14.774554437890631</v>
       </c>
-      <c r="K55" s="24">
+      <c r="K55" s="23">
         <v>15.513282159785163</v>
       </c>
     </row>
@@ -3653,34 +3653,34 @@
       <c r="A56" s="21">
         <v>54</v>
       </c>
-      <c r="B56" s="24">
+      <c r="B56" s="23">
         <v>5</v>
       </c>
-      <c r="C56" s="24">
+      <c r="C56" s="23">
         <v>5.25</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D56" s="23">
         <v>5.5125000000000002</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E56" s="23">
         <v>5.7881250000000009</v>
       </c>
-      <c r="F56" s="24">
+      <c r="F56" s="23">
         <v>6.0775312500000007</v>
       </c>
-      <c r="G56" s="24">
+      <c r="G56" s="23">
         <v>6.3814078125000009</v>
       </c>
-      <c r="H56" s="24">
+      <c r="H56" s="23">
         <v>6.7004782031250016</v>
       </c>
-      <c r="I56" s="24">
+      <c r="I56" s="23">
         <v>7.0355021132812521</v>
       </c>
-      <c r="J56" s="24">
+      <c r="J56" s="23">
         <v>7.3872772189453153</v>
       </c>
-      <c r="K56" s="24">
+      <c r="K56" s="23">
         <v>7.7566410798925816</v>
       </c>
     </row>
@@ -3688,34 +3688,34 @@
       <c r="A57" s="21">
         <v>55</v>
       </c>
-      <c r="B57" s="24">
+      <c r="B57" s="23">
         <v>5</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="23">
         <v>5.25</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="23">
         <v>5.5125000000000002</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="23">
         <v>5.7881250000000009</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="23">
         <v>6.0775312500000007</v>
       </c>
-      <c r="G57" s="24">
+      <c r="G57" s="23">
         <v>6.3814078125000009</v>
       </c>
-      <c r="H57" s="24">
+      <c r="H57" s="23">
         <v>6.7004782031250016</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="23">
         <v>7.0355021132812521</v>
       </c>
-      <c r="J57" s="24">
+      <c r="J57" s="23">
         <v>7.3872772189453153</v>
       </c>
-      <c r="K57" s="24">
+      <c r="K57" s="23">
         <v>7.7566410798925816</v>
       </c>
     </row>
@@ -3723,34 +3723,34 @@
       <c r="A58" s="21">
         <v>56</v>
       </c>
-      <c r="B58" s="24">
+      <c r="B58" s="23">
         <v>5</v>
       </c>
-      <c r="C58" s="24">
+      <c r="C58" s="23">
         <v>5.25</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D58" s="23">
         <v>5.5125000000000002</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E58" s="23">
         <v>5.7881250000000009</v>
       </c>
-      <c r="F58" s="24">
+      <c r="F58" s="23">
         <v>6.0775312500000007</v>
       </c>
-      <c r="G58" s="24">
+      <c r="G58" s="23">
         <v>6.3814078125000009</v>
       </c>
-      <c r="H58" s="24">
+      <c r="H58" s="23">
         <v>6.7004782031250016</v>
       </c>
-      <c r="I58" s="24">
+      <c r="I58" s="23">
         <v>7.0355021132812521</v>
       </c>
-      <c r="J58" s="24">
+      <c r="J58" s="23">
         <v>7.3872772189453153</v>
       </c>
-      <c r="K58" s="24">
+      <c r="K58" s="23">
         <v>7.7566410798925816</v>
       </c>
     </row>
@@ -3768,7 +3768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -6915,8 +6915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -6925,30 +6925,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="10" t="s">
@@ -8301,289 +8301,289 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="26">
-        <v>0</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="24">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="24">
         <v>120</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="24">
         <v>0.35799999999999998</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="24">
         <v>0.13</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="24">
         <v>129232</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="26">
+      <c r="B5" s="24">
         <v>1</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="24">
         <v>30</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="24">
         <v>0.373</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="24">
         <v>0.21</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="24">
         <v>38524</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="26">
+      <c r="B6" s="24">
         <v>2</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="24">
         <v>90</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="24">
         <v>0.36499999999999999</v>
       </c>
-      <c r="F6" s="26">
-        <v>0</v>
-      </c>
-      <c r="G6" s="26">
+      <c r="F6" s="24">
+        <v>0</v>
+      </c>
+      <c r="G6" s="24">
         <v>70286</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="26">
-        <v>0</v>
-      </c>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="24">
+        <v>0</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="24">
         <v>100</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="24">
         <v>0.64</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="24">
         <v>152767</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="26">
+      <c r="B11" s="24">
         <v>1</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="24">
         <v>50</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="24">
         <v>0.64</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="24">
         <v>152767</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="26">
-        <v>0</v>
-      </c>
-      <c r="C15" s="26" t="s">
+      <c r="B15" s="24">
+        <v>0</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="24">
         <v>120</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="24">
         <v>83</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="24">
         <v>36934</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="26">
+      <c r="B16" s="24">
         <v>1</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="24">
         <v>60</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="24">
         <v>83</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="24">
         <v>36934</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="26">
-        <v>0</v>
-      </c>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="24">
+        <v>0</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="24">
         <v>32.799999999999997</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="24">
         <v>119378</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="26">
+      <c r="B21" s="24">
         <v>1</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="24">
         <v>15.9</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="24">
         <v>105511</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="26">
+      <c r="B22" s="24">
         <v>2</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="24">
         <v>99.7</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="24">
         <v>98733</v>
       </c>
     </row>

--- a/Security-Constrained-ACDC-Planning/data/Data-Ninghai.xlsx
+++ b/Security-Constrained-ACDC-Planning/data/Data-Ninghai.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liupengxiang/Documents/GitHub/Coding-Paper/Security-Constrained-ACDC-Planning/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22017\Documents\GitHub\Coding-Paper\Security-Constrained-ACDC-Planning\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422287E6-FF71-264F-AADB-E6A4EB36D29A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19020"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Para" sheetId="9" r:id="rId8"/>
     <sheet name="备注" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="59">
   <si>
     <t>万元</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
@@ -348,7 +347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -422,6 +421,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -709,16 +711,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="16384" width="10.77734375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -751,8 +753,8 @@
       <c r="D2" s="8">
         <v>160.19999999999999</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
+      <c r="E2" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -768,8 +770,8 @@
       <c r="D3" s="8">
         <v>231</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>7</v>
+      <c r="E3" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -785,8 +787,8 @@
       <c r="D4" s="8">
         <v>140.9</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>7</v>
+      <c r="E4" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -802,8 +804,8 @@
       <c r="D5" s="8">
         <v>268.2</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>7</v>
+      <c r="E5" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -819,8 +821,8 @@
       <c r="D6" s="8">
         <v>250</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>7</v>
+      <c r="E6" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -836,8 +838,8 @@
       <c r="D7" s="8">
         <v>255</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>7</v>
+      <c r="E7" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -853,8 +855,8 @@
       <c r="D8" s="8">
         <v>226.2</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>7</v>
+      <c r="E8" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -870,8 +872,8 @@
       <c r="D9" s="8">
         <v>208.2</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>7</v>
+      <c r="E9" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -887,8 +889,8 @@
       <c r="D10" s="8">
         <v>197.1</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>7</v>
+      <c r="E10" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -904,8 +906,8 @@
       <c r="D11" s="8">
         <v>177.5</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>7</v>
+      <c r="E11" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -921,8 +923,8 @@
       <c r="D12" s="8">
         <v>181.8</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>7</v>
+      <c r="E12" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -938,8 +940,8 @@
       <c r="D13" s="8">
         <v>167.8</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>7</v>
+      <c r="E13" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -955,8 +957,8 @@
       <c r="D14" s="8">
         <v>140.5</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>7</v>
+      <c r="E14" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -972,8 +974,8 @@
       <c r="D15" s="8">
         <v>147.4</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>7</v>
+      <c r="E15" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -989,8 +991,8 @@
       <c r="D16" s="8">
         <v>145</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>7</v>
+      <c r="E16" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1006,8 +1008,8 @@
       <c r="D17" s="8">
         <v>147.1</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>7</v>
+      <c r="E17" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1023,8 +1025,8 @@
       <c r="D18" s="8">
         <v>161.1</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>7</v>
+      <c r="E18" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1040,8 +1042,8 @@
       <c r="D19" s="8">
         <v>71.900000000000006</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>7</v>
+      <c r="E19" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1057,8 +1059,8 @@
       <c r="D20" s="8">
         <v>56</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>7</v>
+      <c r="E20" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1074,8 +1076,8 @@
       <c r="D21" s="8">
         <v>204</v>
       </c>
-      <c r="E21" s="19" t="s">
-        <v>7</v>
+      <c r="E21" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1091,8 +1093,8 @@
       <c r="D22" s="8">
         <v>224.5</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>7</v>
+      <c r="E22" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1108,8 +1110,8 @@
       <c r="D23" s="8">
         <v>268.8</v>
       </c>
-      <c r="E23" s="19" t="s">
-        <v>7</v>
+      <c r="E23" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1125,8 +1127,8 @@
       <c r="D24" s="8">
         <v>184.8</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>7</v>
+      <c r="E24" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1142,8 +1144,8 @@
       <c r="D25" s="8">
         <v>192</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>7</v>
+      <c r="E25" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1159,8 +1161,8 @@
       <c r="D26" s="8">
         <v>128.19999999999999</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>7</v>
+      <c r="E26" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1176,8 +1178,8 @@
       <c r="D27" s="8">
         <v>150.9</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>7</v>
+      <c r="E27" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1193,8 +1195,8 @@
       <c r="D28" s="8">
         <v>118</v>
       </c>
-      <c r="E28" s="19" t="s">
-        <v>7</v>
+      <c r="E28" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1210,8 +1212,8 @@
       <c r="D29" s="8">
         <v>72</v>
       </c>
-      <c r="E29" s="19" t="s">
-        <v>7</v>
+      <c r="E29" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1227,8 +1229,8 @@
       <c r="D30" s="8">
         <v>78.2</v>
       </c>
-      <c r="E30" s="19" t="s">
-        <v>7</v>
+      <c r="E30" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1244,8 +1246,8 @@
       <c r="D31" s="8">
         <v>67.5</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>7</v>
+      <c r="E31" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1261,8 +1263,8 @@
       <c r="D32" s="8">
         <v>90</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>7</v>
+      <c r="E32" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1278,8 +1280,8 @@
       <c r="D33" s="8">
         <v>110</v>
       </c>
-      <c r="E33" s="19" t="s">
-        <v>7</v>
+      <c r="E33" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1295,8 +1297,8 @@
       <c r="D34" s="8">
         <v>112.5</v>
       </c>
-      <c r="E34" s="19" t="s">
-        <v>7</v>
+      <c r="E34" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1312,8 +1314,8 @@
       <c r="D35" s="8">
         <v>73.599999999999994</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>7</v>
+      <c r="E35" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1329,8 +1331,8 @@
       <c r="D36" s="8">
         <v>115.8</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>8</v>
+      <c r="E36" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1346,8 +1348,8 @@
       <c r="D37" s="8">
         <v>95</v>
       </c>
-      <c r="E37" s="19" t="s">
-        <v>8</v>
+      <c r="E37" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1363,8 +1365,8 @@
       <c r="D38" s="8">
         <v>49.7</v>
       </c>
-      <c r="E38" s="19" t="s">
-        <v>8</v>
+      <c r="E38" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1380,8 +1382,8 @@
       <c r="D39" s="8">
         <v>77.5</v>
       </c>
-      <c r="E39" s="19" t="s">
-        <v>8</v>
+      <c r="E39" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1397,8 +1399,8 @@
       <c r="D40" s="8">
         <v>66.8</v>
       </c>
-      <c r="E40" s="19" t="s">
-        <v>8</v>
+      <c r="E40" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1414,8 +1416,8 @@
       <c r="D41" s="8">
         <v>80.2</v>
       </c>
-      <c r="E41" s="19" t="s">
-        <v>8</v>
+      <c r="E41" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1431,8 +1433,8 @@
       <c r="D42" s="8">
         <v>64.2</v>
       </c>
-      <c r="E42" s="19" t="s">
-        <v>8</v>
+      <c r="E42" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1448,8 +1450,8 @@
       <c r="D43" s="8">
         <v>49.6</v>
       </c>
-      <c r="E43" s="19" t="s">
-        <v>8</v>
+      <c r="E43" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1465,8 +1467,8 @@
       <c r="D44" s="8">
         <v>71.8</v>
       </c>
-      <c r="E44" s="19" t="s">
-        <v>8</v>
+      <c r="E44" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1482,8 +1484,8 @@
       <c r="D45" s="8">
         <v>57.5</v>
       </c>
-      <c r="E45" s="19" t="s">
-        <v>8</v>
+      <c r="E45" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1499,8 +1501,8 @@
       <c r="D46" s="8">
         <v>87.5</v>
       </c>
-      <c r="E46" s="19" t="s">
-        <v>8</v>
+      <c r="E46" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1516,8 +1518,8 @@
       <c r="D47" s="8">
         <v>160.19999999999999</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>8</v>
+      <c r="E47" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1533,8 +1535,8 @@
       <c r="D48" s="8">
         <v>140.9</v>
       </c>
-      <c r="E48" s="19" t="s">
-        <v>8</v>
+      <c r="E48" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1550,8 +1552,8 @@
       <c r="D49" s="8">
         <v>181.8</v>
       </c>
-      <c r="E49" s="19" t="s">
-        <v>8</v>
+      <c r="E49" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1567,8 +1569,8 @@
       <c r="D50" s="8">
         <v>167.8</v>
       </c>
-      <c r="E50" s="19" t="s">
-        <v>8</v>
+      <c r="E50" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1584,8 +1586,8 @@
       <c r="D51" s="8">
         <v>147.4</v>
       </c>
-      <c r="E51" s="19" t="s">
-        <v>8</v>
+      <c r="E51" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1601,8 +1603,8 @@
       <c r="D52" s="8">
         <v>145</v>
       </c>
-      <c r="E52" s="19" t="s">
-        <v>8</v>
+      <c r="E52" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1618,8 +1620,8 @@
       <c r="D53" s="8">
         <v>161.1</v>
       </c>
-      <c r="E53" s="19" t="s">
-        <v>8</v>
+      <c r="E53" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1635,8 +1637,8 @@
       <c r="D54" s="8">
         <v>56</v>
       </c>
-      <c r="E54" s="19" t="s">
-        <v>8</v>
+      <c r="E54" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1652,8 +1654,8 @@
       <c r="D55" s="8">
         <v>67.5</v>
       </c>
-      <c r="E55" s="19" t="s">
-        <v>8</v>
+      <c r="E55" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1669,8 +1671,8 @@
       <c r="D56" s="8">
         <v>90</v>
       </c>
-      <c r="E56" s="19" t="s">
-        <v>8</v>
+      <c r="E56" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1686,8 +1688,8 @@
       <c r="D57" s="8">
         <v>110</v>
       </c>
-      <c r="E57" s="19" t="s">
-        <v>8</v>
+      <c r="E57" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1703,8 +1705,8 @@
       <c r="D58" s="8">
         <v>112.5</v>
       </c>
-      <c r="E58" s="19" t="s">
-        <v>8</v>
+      <c r="E58" s="25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1715,14 +1717,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="15" t="s">
@@ -3765,18 +3767,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45:G79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="9" width="10.83203125" style="3"/>
-    <col min="12" max="12" width="10.83203125" style="3"/>
-    <col min="14" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="9" width="10.77734375" style="3"/>
+    <col min="12" max="12" width="10.77734375" style="3"/>
+    <col min="14" max="16384" width="10.77734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -3826,8 +3828,8 @@
       <c r="F2" s="14">
         <v>1</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>7</v>
+      <c r="G2" s="14">
+        <v>0</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="4"/>
@@ -3855,8 +3857,8 @@
       <c r="F3" s="14">
         <v>1</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>7</v>
+      <c r="G3" s="25">
+        <v>0</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="4"/>
@@ -3886,8 +3888,8 @@
       <c r="F4" s="14">
         <v>2</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>7</v>
+      <c r="G4" s="25">
+        <v>0</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="4"/>
@@ -3917,8 +3919,8 @@
       <c r="F5" s="14">
         <v>2</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>7</v>
+      <c r="G5" s="25">
+        <v>0</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="4"/>
@@ -3948,8 +3950,8 @@
       <c r="F6" s="14">
         <v>2</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>7</v>
+      <c r="G6" s="25">
+        <v>0</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="4"/>
@@ -3979,8 +3981,8 @@
       <c r="F7" s="14">
         <v>2</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>7</v>
+      <c r="G7" s="25">
+        <v>0</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="4"/>
@@ -4010,8 +4012,8 @@
       <c r="F8" s="14">
         <v>1</v>
       </c>
-      <c r="G8" s="21" t="s">
-        <v>7</v>
+      <c r="G8" s="25">
+        <v>0</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="4"/>
@@ -4041,8 +4043,8 @@
       <c r="F9" s="14">
         <v>1</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>7</v>
+      <c r="G9" s="25">
+        <v>0</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="4"/>
@@ -4072,8 +4074,8 @@
       <c r="F10" s="14">
         <v>1</v>
       </c>
-      <c r="G10" s="21" t="s">
-        <v>7</v>
+      <c r="G10" s="25">
+        <v>0</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="4"/>
@@ -4103,8 +4105,8 @@
       <c r="F11" s="14">
         <v>1</v>
       </c>
-      <c r="G11" s="21" t="s">
-        <v>7</v>
+      <c r="G11" s="25">
+        <v>0</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="4"/>
@@ -4134,8 +4136,8 @@
       <c r="F12" s="14">
         <v>1</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>7</v>
+      <c r="G12" s="25">
+        <v>0</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="4"/>
@@ -4165,8 +4167,8 @@
       <c r="F13" s="14">
         <v>1</v>
       </c>
-      <c r="G13" s="21" t="s">
-        <v>7</v>
+      <c r="G13" s="25">
+        <v>0</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="4"/>
@@ -4196,8 +4198,8 @@
       <c r="F14" s="14">
         <v>2</v>
       </c>
-      <c r="G14" s="21" t="s">
-        <v>7</v>
+      <c r="G14" s="25">
+        <v>0</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="4"/>
@@ -4227,8 +4229,8 @@
       <c r="F15" s="14">
         <v>2</v>
       </c>
-      <c r="G15" s="21" t="s">
-        <v>7</v>
+      <c r="G15" s="25">
+        <v>0</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="4"/>
@@ -4258,8 +4260,8 @@
       <c r="F16" s="14">
         <v>2</v>
       </c>
-      <c r="G16" s="21" t="s">
-        <v>7</v>
+      <c r="G16" s="25">
+        <v>0</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="4"/>
@@ -4289,8 +4291,8 @@
       <c r="F17" s="14">
         <v>2</v>
       </c>
-      <c r="G17" s="21" t="s">
-        <v>7</v>
+      <c r="G17" s="25">
+        <v>0</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="4"/>
@@ -4320,8 +4322,8 @@
       <c r="F18" s="14">
         <v>2</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>7</v>
+      <c r="G18" s="25">
+        <v>0</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="4"/>
@@ -4351,8 +4353,8 @@
       <c r="F19" s="14">
         <v>1</v>
       </c>
-      <c r="G19" s="21" t="s">
-        <v>7</v>
+      <c r="G19" s="25">
+        <v>0</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="4"/>
@@ -4382,8 +4384,8 @@
       <c r="F20" s="14">
         <v>1</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>7</v>
+      <c r="G20" s="25">
+        <v>0</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="4"/>
@@ -4413,8 +4415,8 @@
       <c r="F21" s="14">
         <v>1</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>7</v>
+      <c r="G21" s="25">
+        <v>0</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="4"/>
@@ -4444,8 +4446,8 @@
       <c r="F22" s="14">
         <v>2</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>7</v>
+      <c r="G22" s="25">
+        <v>0</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="4"/>
@@ -4475,8 +4477,8 @@
       <c r="F23" s="14">
         <v>2</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>7</v>
+      <c r="G23" s="25">
+        <v>0</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="4"/>
@@ -4506,8 +4508,8 @@
       <c r="F24" s="14">
         <v>1</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>7</v>
+      <c r="G24" s="25">
+        <v>0</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="4"/>
@@ -4537,8 +4539,8 @@
       <c r="F25" s="14">
         <v>1</v>
       </c>
-      <c r="G25" s="21" t="s">
-        <v>7</v>
+      <c r="G25" s="25">
+        <v>0</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="4"/>
@@ -4568,8 +4570,8 @@
       <c r="F26" s="14">
         <v>1</v>
       </c>
-      <c r="G26" s="21" t="s">
-        <v>7</v>
+      <c r="G26" s="25">
+        <v>0</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="4"/>
@@ -4599,8 +4601,8 @@
       <c r="F27" s="14">
         <v>0</v>
       </c>
-      <c r="G27" s="21" t="s">
-        <v>7</v>
+      <c r="G27" s="25">
+        <v>0</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="4"/>
@@ -4630,8 +4632,8 @@
       <c r="F28" s="14">
         <v>1</v>
       </c>
-      <c r="G28" s="21" t="s">
-        <v>7</v>
+      <c r="G28" s="25">
+        <v>0</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="4"/>
@@ -4661,8 +4663,8 @@
       <c r="F29" s="14">
         <v>1</v>
       </c>
-      <c r="G29" s="21" t="s">
-        <v>7</v>
+      <c r="G29" s="25">
+        <v>0</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="4"/>
@@ -4692,8 +4694,8 @@
       <c r="F30" s="14">
         <v>2</v>
       </c>
-      <c r="G30" s="21" t="s">
-        <v>7</v>
+      <c r="G30" s="25">
+        <v>0</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="4"/>
@@ -4723,8 +4725,8 @@
       <c r="F31" s="14">
         <v>1</v>
       </c>
-      <c r="G31" s="21" t="s">
-        <v>7</v>
+      <c r="G31" s="25">
+        <v>0</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="4"/>
@@ -4754,8 +4756,8 @@
       <c r="F32" s="14">
         <v>1</v>
       </c>
-      <c r="G32" s="21" t="s">
-        <v>7</v>
+      <c r="G32" s="25">
+        <v>0</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="4"/>
@@ -4785,8 +4787,8 @@
       <c r="F33" s="14">
         <v>1</v>
       </c>
-      <c r="G33" s="21" t="s">
-        <v>7</v>
+      <c r="G33" s="25">
+        <v>0</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="4"/>
@@ -4816,8 +4818,8 @@
       <c r="F34" s="14">
         <v>1</v>
       </c>
-      <c r="G34" s="21" t="s">
-        <v>7</v>
+      <c r="G34" s="25">
+        <v>0</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="4"/>
@@ -4847,8 +4849,8 @@
       <c r="F35" s="14">
         <v>0</v>
       </c>
-      <c r="G35" s="21" t="s">
-        <v>7</v>
+      <c r="G35" s="25">
+        <v>0</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="4"/>
@@ -4878,8 +4880,8 @@
       <c r="F36" s="14">
         <v>1</v>
       </c>
-      <c r="G36" s="21" t="s">
-        <v>7</v>
+      <c r="G36" s="25">
+        <v>0</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="4"/>
@@ -4909,8 +4911,8 @@
       <c r="F37" s="14">
         <v>1</v>
       </c>
-      <c r="G37" s="21" t="s">
-        <v>7</v>
+      <c r="G37" s="25">
+        <v>0</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="4"/>
@@ -4940,8 +4942,8 @@
       <c r="F38" s="3">
         <v>0</v>
       </c>
-      <c r="G38" s="21" t="s">
-        <v>7</v>
+      <c r="G38" s="25">
+        <v>0</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="4"/>
@@ -4969,8 +4971,8 @@
       <c r="F39" s="14">
         <v>0</v>
       </c>
-      <c r="G39" s="21" t="s">
-        <v>7</v>
+      <c r="G39" s="25">
+        <v>0</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="4"/>
@@ -5000,8 +5002,8 @@
       <c r="F40" s="14">
         <v>1</v>
       </c>
-      <c r="G40" s="21" t="s">
-        <v>7</v>
+      <c r="G40" s="25">
+        <v>0</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="4"/>
@@ -5031,8 +5033,8 @@
       <c r="F41" s="14">
         <v>1</v>
       </c>
-      <c r="G41" s="21" t="s">
-        <v>7</v>
+      <c r="G41" s="25">
+        <v>0</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="4"/>
@@ -5062,8 +5064,8 @@
       <c r="F42" s="14">
         <v>1</v>
       </c>
-      <c r="G42" s="21" t="s">
-        <v>7</v>
+      <c r="G42" s="25">
+        <v>0</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="4"/>
@@ -5093,8 +5095,8 @@
       <c r="F43" s="14">
         <v>1</v>
       </c>
-      <c r="G43" s="21" t="s">
-        <v>7</v>
+      <c r="G43" s="25">
+        <v>0</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="4"/>
@@ -5124,8 +5126,8 @@
       <c r="F44" s="14">
         <v>0</v>
       </c>
-      <c r="G44" s="21" t="s">
-        <v>7</v>
+      <c r="G44" s="25">
+        <v>0</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="4"/>
@@ -5155,8 +5157,8 @@
       <c r="F45" s="14">
         <v>0</v>
       </c>
-      <c r="G45" s="14" t="s">
-        <v>8</v>
+      <c r="G45" s="14">
+        <v>1</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="4"/>
@@ -5186,8 +5188,8 @@
       <c r="F46" s="14">
         <v>0</v>
       </c>
-      <c r="G46" s="21" t="s">
-        <v>8</v>
+      <c r="G46" s="25">
+        <v>1</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="4"/>
@@ -5217,8 +5219,8 @@
       <c r="F47" s="14">
         <v>0</v>
       </c>
-      <c r="G47" s="21" t="s">
-        <v>8</v>
+      <c r="G47" s="25">
+        <v>1</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="4"/>
@@ -5248,8 +5250,8 @@
       <c r="F48" s="14">
         <v>0</v>
       </c>
-      <c r="G48" s="21" t="s">
-        <v>8</v>
+      <c r="G48" s="25">
+        <v>1</v>
       </c>
       <c r="H48" s="14"/>
       <c r="I48" s="4"/>
@@ -5279,8 +5281,8 @@
       <c r="F49" s="14">
         <v>0</v>
       </c>
-      <c r="G49" s="21" t="s">
-        <v>8</v>
+      <c r="G49" s="25">
+        <v>1</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="4"/>
@@ -5310,8 +5312,8 @@
       <c r="F50" s="14">
         <v>0</v>
       </c>
-      <c r="G50" s="21" t="s">
-        <v>8</v>
+      <c r="G50" s="25">
+        <v>1</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="4"/>
@@ -5341,8 +5343,8 @@
       <c r="F51" s="14">
         <v>0</v>
       </c>
-      <c r="G51" s="21" t="s">
-        <v>8</v>
+      <c r="G51" s="25">
+        <v>1</v>
       </c>
       <c r="H51" s="14"/>
       <c r="I51" s="4"/>
@@ -5372,8 +5374,8 @@
       <c r="F52" s="14">
         <v>0</v>
       </c>
-      <c r="G52" s="21" t="s">
-        <v>8</v>
+      <c r="G52" s="25">
+        <v>1</v>
       </c>
       <c r="H52" s="14"/>
       <c r="I52" s="4"/>
@@ -5403,8 +5405,8 @@
       <c r="F53" s="14">
         <v>0</v>
       </c>
-      <c r="G53" s="21" t="s">
-        <v>8</v>
+      <c r="G53" s="25">
+        <v>1</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="4"/>
@@ -5434,8 +5436,8 @@
       <c r="F54" s="14">
         <v>0</v>
       </c>
-      <c r="G54" s="21" t="s">
-        <v>8</v>
+      <c r="G54" s="25">
+        <v>1</v>
       </c>
       <c r="H54" s="14"/>
       <c r="I54" s="4"/>
@@ -5465,8 +5467,8 @@
       <c r="F55" s="14">
         <v>0</v>
       </c>
-      <c r="G55" s="21" t="s">
-        <v>8</v>
+      <c r="G55" s="25">
+        <v>1</v>
       </c>
       <c r="H55" s="14"/>
       <c r="I55" s="4"/>
@@ -5496,8 +5498,8 @@
       <c r="F56" s="14">
         <v>0</v>
       </c>
-      <c r="G56" s="21" t="s">
-        <v>8</v>
+      <c r="G56" s="25">
+        <v>1</v>
       </c>
       <c r="H56" s="14"/>
       <c r="I56" s="4"/>
@@ -5527,8 +5529,8 @@
       <c r="F57" s="14">
         <v>0</v>
       </c>
-      <c r="G57" s="21" t="s">
-        <v>8</v>
+      <c r="G57" s="25">
+        <v>1</v>
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="4"/>
@@ -5558,8 +5560,8 @@
       <c r="F58" s="14">
         <v>0</v>
       </c>
-      <c r="G58" s="21" t="s">
-        <v>8</v>
+      <c r="G58" s="25">
+        <v>1</v>
       </c>
       <c r="H58" s="14"/>
       <c r="I58" s="4"/>
@@ -5589,8 +5591,8 @@
       <c r="F59" s="14">
         <v>0</v>
       </c>
-      <c r="G59" s="21" t="s">
-        <v>8</v>
+      <c r="G59" s="25">
+        <v>1</v>
       </c>
       <c r="H59" s="14"/>
       <c r="I59" s="4"/>
@@ -5620,8 +5622,8 @@
       <c r="F60" s="14">
         <v>0</v>
       </c>
-      <c r="G60" s="21" t="s">
-        <v>8</v>
+      <c r="G60" s="25">
+        <v>1</v>
       </c>
       <c r="H60" s="14"/>
       <c r="I60" s="4"/>
@@ -5651,8 +5653,8 @@
       <c r="F61" s="14">
         <v>0</v>
       </c>
-      <c r="G61" s="21" t="s">
-        <v>8</v>
+      <c r="G61" s="25">
+        <v>1</v>
       </c>
       <c r="H61" s="14"/>
       <c r="I61" s="4"/>
@@ -5682,8 +5684,8 @@
       <c r="F62" s="14">
         <v>0</v>
       </c>
-      <c r="G62" s="21" t="s">
-        <v>8</v>
+      <c r="G62" s="25">
+        <v>1</v>
       </c>
       <c r="H62" s="14"/>
       <c r="I62" s="4"/>
@@ -5713,8 +5715,8 @@
       <c r="F63" s="14">
         <v>0</v>
       </c>
-      <c r="G63" s="21" t="s">
-        <v>8</v>
+      <c r="G63" s="25">
+        <v>1</v>
       </c>
       <c r="H63" s="14"/>
       <c r="I63" s="4"/>
@@ -5744,8 +5746,8 @@
       <c r="F64" s="14">
         <v>0</v>
       </c>
-      <c r="G64" s="21" t="s">
-        <v>8</v>
+      <c r="G64" s="25">
+        <v>1</v>
       </c>
       <c r="H64" s="14"/>
       <c r="I64" s="4"/>
@@ -5775,8 +5777,8 @@
       <c r="F65" s="14">
         <v>0</v>
       </c>
-      <c r="G65" s="21" t="s">
-        <v>8</v>
+      <c r="G65" s="25">
+        <v>1</v>
       </c>
       <c r="H65" s="14"/>
       <c r="I65" s="4"/>
@@ -5806,8 +5808,8 @@
       <c r="F66" s="14">
         <v>0</v>
       </c>
-      <c r="G66" s="21" t="s">
-        <v>8</v>
+      <c r="G66" s="25">
+        <v>1</v>
       </c>
       <c r="H66" s="14"/>
       <c r="I66" s="4"/>
@@ -5837,8 +5839,8 @@
       <c r="F67" s="14">
         <v>0</v>
       </c>
-      <c r="G67" s="21" t="s">
-        <v>8</v>
+      <c r="G67" s="25">
+        <v>1</v>
       </c>
       <c r="H67" s="14"/>
       <c r="I67" s="4"/>
@@ -5868,8 +5870,8 @@
       <c r="F68" s="14">
         <v>0</v>
       </c>
-      <c r="G68" s="21" t="s">
-        <v>8</v>
+      <c r="G68" s="25">
+        <v>1</v>
       </c>
       <c r="H68" s="14"/>
       <c r="I68" s="4"/>
@@ -5899,8 +5901,8 @@
       <c r="F69" s="14">
         <v>0</v>
       </c>
-      <c r="G69" s="21" t="s">
-        <v>8</v>
+      <c r="G69" s="25">
+        <v>1</v>
       </c>
       <c r="H69" s="14"/>
       <c r="I69" s="4"/>
@@ -5930,8 +5932,8 @@
       <c r="F70" s="14">
         <v>0</v>
       </c>
-      <c r="G70" s="21" t="s">
-        <v>8</v>
+      <c r="G70" s="25">
+        <v>1</v>
       </c>
       <c r="H70" s="14"/>
       <c r="I70" s="4"/>
@@ -5961,8 +5963,8 @@
       <c r="F71" s="14">
         <v>0</v>
       </c>
-      <c r="G71" s="21" t="s">
-        <v>8</v>
+      <c r="G71" s="25">
+        <v>1</v>
       </c>
       <c r="H71" s="14"/>
       <c r="I71" s="4"/>
@@ -5992,8 +5994,8 @@
       <c r="F72" s="14">
         <v>0</v>
       </c>
-      <c r="G72" s="21" t="s">
-        <v>8</v>
+      <c r="G72" s="25">
+        <v>1</v>
       </c>
       <c r="H72" s="14"/>
       <c r="I72" s="4"/>
@@ -6023,8 +6025,8 @@
       <c r="F73" s="14">
         <v>0</v>
       </c>
-      <c r="G73" s="21" t="s">
-        <v>8</v>
+      <c r="G73" s="25">
+        <v>1</v>
       </c>
       <c r="H73" s="14"/>
       <c r="I73" s="4"/>
@@ -6054,8 +6056,8 @@
       <c r="F74" s="14">
         <v>0</v>
       </c>
-      <c r="G74" s="21" t="s">
-        <v>8</v>
+      <c r="G74" s="25">
+        <v>1</v>
       </c>
       <c r="H74" s="14"/>
       <c r="I74" s="4"/>
@@ -6085,8 +6087,8 @@
       <c r="F75" s="14">
         <v>0</v>
       </c>
-      <c r="G75" s="21" t="s">
-        <v>8</v>
+      <c r="G75" s="25">
+        <v>1</v>
       </c>
       <c r="H75" s="14"/>
       <c r="I75" s="4"/>
@@ -6116,8 +6118,8 @@
       <c r="F76" s="14">
         <v>0</v>
       </c>
-      <c r="G76" s="21" t="s">
-        <v>8</v>
+      <c r="G76" s="25">
+        <v>1</v>
       </c>
       <c r="H76" s="14"/>
       <c r="I76" s="4"/>
@@ -6147,8 +6149,8 @@
       <c r="F77" s="14">
         <v>0</v>
       </c>
-      <c r="G77" s="21" t="s">
-        <v>8</v>
+      <c r="G77" s="25">
+        <v>1</v>
       </c>
       <c r="H77" s="14"/>
       <c r="I77" s="4"/>
@@ -6178,8 +6180,8 @@
       <c r="F78" s="14">
         <v>0</v>
       </c>
-      <c r="G78" s="21" t="s">
-        <v>8</v>
+      <c r="G78" s="25">
+        <v>1</v>
       </c>
       <c r="H78" s="14"/>
       <c r="I78" s="4"/>
@@ -6209,8 +6211,8 @@
       <c r="F79" s="14">
         <v>0</v>
       </c>
-      <c r="G79" s="21" t="s">
-        <v>8</v>
+      <c r="G79" s="25">
+        <v>1</v>
       </c>
       <c r="H79" s="14"/>
       <c r="I79" s="4"/>
@@ -6242,14 +6244,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
@@ -6503,14 +6505,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -6583,17 +6585,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="10.77734375" style="1"/>
+    <col min="5" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6624,8 +6626,8 @@
       <c r="C2" s="1">
         <v>48</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
+      <c r="D2" s="1">
+        <v>0</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -6640,8 +6642,8 @@
       <c r="C3" s="1">
         <v>99</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
+      <c r="D3" s="1">
+        <v>1</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="15"/>
@@ -6658,8 +6660,8 @@
       <c r="C4" s="1">
         <v>58.5</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>30</v>
+      <c r="D4" s="21">
+        <v>0</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="15"/>
@@ -6676,8 +6678,8 @@
       <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
+      <c r="D5" s="1">
+        <v>2</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="15"/>
@@ -6694,8 +6696,8 @@
       <c r="C6" s="1">
         <v>18</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>32</v>
+      <c r="D6" s="21">
+        <v>2</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
@@ -6711,8 +6713,8 @@
       <c r="C7" s="1">
         <v>55</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>32</v>
+      <c r="D7" s="21">
+        <v>2</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -6728,8 +6730,8 @@
       <c r="C8" s="1">
         <v>20</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>31</v>
+      <c r="D8" s="21">
+        <v>1</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -6745,8 +6747,8 @@
       <c r="C9" s="1">
         <v>20</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>31</v>
+      <c r="D9" s="21">
+        <v>1</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -6762,8 +6764,8 @@
       <c r="C10" s="1">
         <v>80</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>31</v>
+      <c r="D10" s="21">
+        <v>1</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -6779,8 +6781,8 @@
       <c r="C11" s="1">
         <v>35</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>30</v>
+      <c r="D11" s="21">
+        <v>0</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -6796,8 +6798,8 @@
       <c r="C12" s="1">
         <v>30</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>31</v>
+      <c r="D12" s="21">
+        <v>1</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -6813,8 +6815,8 @@
       <c r="C13" s="1">
         <v>30</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>31</v>
+      <c r="D13" s="21">
+        <v>1</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -6830,8 +6832,8 @@
       <c r="C14" s="1">
         <v>45</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>31</v>
+      <c r="D14" s="21">
+        <v>1</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -6847,8 +6849,8 @@
       <c r="C15" s="1">
         <v>25</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>30</v>
+      <c r="D15" s="21">
+        <v>0</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -6864,8 +6866,8 @@
       <c r="C16" s="1">
         <v>45</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>31</v>
+      <c r="D16" s="21">
+        <v>1</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -6881,8 +6883,8 @@
       <c r="C17" s="1">
         <v>25</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>30</v>
+      <c r="D17" s="21">
+        <v>0</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -6898,8 +6900,8 @@
       <c r="C18" s="1">
         <v>30</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>31</v>
+      <c r="D18" s="21">
+        <v>1</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
@@ -6912,43 +6914,43 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="16384" width="10.77734375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25" t="s">
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="10" t="s">
@@ -8288,28 +8290,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B775CB8-5D1A-2E40-ACDF-218851E954FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="21"/>
+    <col min="1" max="16384" width="10.77734375" style="21"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="24" t="s">
@@ -8404,13 +8406,13 @@
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="24" t="s">
@@ -8464,13 +8466,13 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="24" t="s">
@@ -8524,12 +8526,12 @@
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="24" t="s">
@@ -8600,14 +8602,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="15"/>

--- a/Security-Constrained-ACDC-Planning/data/Data-Ninghai.xlsx
+++ b/Security-Constrained-ACDC-Planning/data/Data-Ninghai.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22017\Documents\GitHub\Coding-Paper\Security-Constrained-ACDC-Planning\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liupengxiang/Documents/GitHub/Coding-Paper/Security-Constrained-ACDC-Planning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66057648-7502-A64F-9014-5C6DDB83EDA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19020"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -20,53 +21,18 @@
     <sheet name="Gen" sheetId="4" r:id="rId6"/>
     <sheet name="Day" sheetId="5" r:id="rId7"/>
     <sheet name="Para" sheetId="9" r:id="rId8"/>
-    <sheet name="备注" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="59">
-  <si>
-    <t>万元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基准值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>AC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,21 +77,6 @@
   </si>
   <si>
     <t>Year-5</t>
-  </si>
-  <si>
-    <t>Year-6</t>
-  </si>
-  <si>
-    <t>Year-7</t>
-  </si>
-  <si>
-    <t>Year-8</t>
-  </si>
-  <si>
-    <t>Year-9</t>
-  </si>
-  <si>
-    <t>Year-10</t>
   </si>
   <si>
     <t>Tail Bus</t>
@@ -271,7 +222,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
@@ -318,27 +269,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -347,7 +283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -420,7 +356,7 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -429,7 +365,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,33 +650,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="10.77734375" style="7"/>
+    <col min="1" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -770,7 +709,7 @@
       <c r="D3" s="8">
         <v>231</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="24">
         <v>0</v>
       </c>
     </row>
@@ -787,7 +726,7 @@
       <c r="D4" s="8">
         <v>140.9</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>0</v>
       </c>
     </row>
@@ -804,7 +743,7 @@
       <c r="D5" s="8">
         <v>268.2</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>0</v>
       </c>
     </row>
@@ -821,7 +760,7 @@
       <c r="D6" s="8">
         <v>250</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>0</v>
       </c>
     </row>
@@ -838,7 +777,7 @@
       <c r="D7" s="8">
         <v>255</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <v>0</v>
       </c>
     </row>
@@ -855,7 +794,7 @@
       <c r="D8" s="8">
         <v>226.2</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <v>0</v>
       </c>
     </row>
@@ -872,7 +811,7 @@
       <c r="D9" s="8">
         <v>208.2</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="24">
         <v>0</v>
       </c>
     </row>
@@ -889,7 +828,7 @@
       <c r="D10" s="8">
         <v>197.1</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <v>0</v>
       </c>
     </row>
@@ -906,7 +845,7 @@
       <c r="D11" s="8">
         <v>177.5</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="24">
         <v>0</v>
       </c>
     </row>
@@ -923,7 +862,7 @@
       <c r="D12" s="8">
         <v>181.8</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="24">
         <v>0</v>
       </c>
     </row>
@@ -940,7 +879,7 @@
       <c r="D13" s="8">
         <v>167.8</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="24">
         <v>0</v>
       </c>
     </row>
@@ -957,7 +896,7 @@
       <c r="D14" s="8">
         <v>140.5</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="24">
         <v>0</v>
       </c>
     </row>
@@ -974,7 +913,7 @@
       <c r="D15" s="8">
         <v>147.4</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="24">
         <v>0</v>
       </c>
     </row>
@@ -991,7 +930,7 @@
       <c r="D16" s="8">
         <v>145</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1008,7 +947,7 @@
       <c r="D17" s="8">
         <v>147.1</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1025,7 +964,7 @@
       <c r="D18" s="8">
         <v>161.1</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1042,7 +981,7 @@
       <c r="D19" s="8">
         <v>71.900000000000006</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1059,7 +998,7 @@
       <c r="D20" s="8">
         <v>56</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1076,7 +1015,7 @@
       <c r="D21" s="8">
         <v>204</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1093,7 +1032,7 @@
       <c r="D22" s="8">
         <v>224.5</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1110,7 +1049,7 @@
       <c r="D23" s="8">
         <v>268.8</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1127,7 +1066,7 @@
       <c r="D24" s="8">
         <v>184.8</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1144,7 +1083,7 @@
       <c r="D25" s="8">
         <v>192</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1161,7 +1100,7 @@
       <c r="D26" s="8">
         <v>128.19999999999999</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1178,7 +1117,7 @@
       <c r="D27" s="8">
         <v>150.9</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1195,7 +1134,7 @@
       <c r="D28" s="8">
         <v>118</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1212,7 +1151,7 @@
       <c r="D29" s="8">
         <v>72</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1229,7 +1168,7 @@
       <c r="D30" s="8">
         <v>78.2</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1246,7 +1185,7 @@
       <c r="D31" s="8">
         <v>67.5</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1263,7 +1202,7 @@
       <c r="D32" s="8">
         <v>90</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1280,7 +1219,7 @@
       <c r="D33" s="8">
         <v>110</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1297,7 +1236,7 @@
       <c r="D34" s="8">
         <v>112.5</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1314,7 +1253,7 @@
       <c r="D35" s="8">
         <v>73.599999999999994</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1348,7 +1287,7 @@
       <c r="D37" s="8">
         <v>95</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1365,7 +1304,7 @@
       <c r="D38" s="8">
         <v>49.7</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1382,7 +1321,7 @@
       <c r="D39" s="8">
         <v>77.5</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E39" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1399,7 +1338,7 @@
       <c r="D40" s="8">
         <v>66.8</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1416,7 +1355,7 @@
       <c r="D41" s="8">
         <v>80.2</v>
       </c>
-      <c r="E41" s="25">
+      <c r="E41" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1433,7 +1372,7 @@
       <c r="D42" s="8">
         <v>64.2</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1450,7 +1389,7 @@
       <c r="D43" s="8">
         <v>49.6</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1467,7 +1406,7 @@
       <c r="D44" s="8">
         <v>71.8</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E44" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1484,7 +1423,7 @@
       <c r="D45" s="8">
         <v>57.5</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1501,7 +1440,7 @@
       <c r="D46" s="8">
         <v>87.5</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E46" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1518,7 +1457,7 @@
       <c r="D47" s="8">
         <v>160.19999999999999</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E47" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1535,7 +1474,7 @@
       <c r="D48" s="8">
         <v>140.9</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E48" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1552,7 +1491,7 @@
       <c r="D49" s="8">
         <v>181.8</v>
       </c>
-      <c r="E49" s="25">
+      <c r="E49" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1569,7 +1508,7 @@
       <c r="D50" s="8">
         <v>167.8</v>
       </c>
-      <c r="E50" s="25">
+      <c r="E50" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1586,7 +1525,7 @@
       <c r="D51" s="8">
         <v>147.4</v>
       </c>
-      <c r="E51" s="25">
+      <c r="E51" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1603,7 +1542,7 @@
       <c r="D52" s="8">
         <v>145</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E52" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1620,7 +1559,7 @@
       <c r="D53" s="8">
         <v>161.1</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E53" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1637,7 +1576,7 @@
       <c r="D54" s="8">
         <v>56</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E54" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1654,7 +1593,7 @@
       <c r="D55" s="8">
         <v>67.5</v>
       </c>
-      <c r="E55" s="25">
+      <c r="E55" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1671,7 +1610,7 @@
       <c r="D56" s="8">
         <v>90</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E56" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1688,7 +1627,7 @@
       <c r="D57" s="8">
         <v>110</v>
       </c>
-      <c r="E57" s="25">
+      <c r="E57" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1705,7 +1644,7 @@
       <c r="D58" s="8">
         <v>112.5</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E58" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1717,49 +1656,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>16</v>
-      </c>
       <c r="E1" s="21" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>23</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="15">
@@ -1780,21 +1709,11 @@
       <c r="F2" s="23">
         <v>0</v>
       </c>
-      <c r="G2" s="23">
-        <v>0</v>
-      </c>
-      <c r="H2" s="23">
-        <v>0</v>
-      </c>
-      <c r="I2" s="23">
-        <v>0</v>
-      </c>
-      <c r="J2" s="23">
-        <v>0</v>
-      </c>
-      <c r="K2" s="23">
-        <v>0</v>
-      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="15">
@@ -1815,21 +1734,11 @@
       <c r="F3" s="23">
         <v>0</v>
       </c>
-      <c r="G3" s="23">
-        <v>0</v>
-      </c>
-      <c r="H3" s="23">
-        <v>0</v>
-      </c>
-      <c r="I3" s="23">
-        <v>0</v>
-      </c>
-      <c r="J3" s="23">
-        <v>0</v>
-      </c>
-      <c r="K3" s="23">
-        <v>0</v>
-      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="21">
@@ -1850,21 +1759,11 @@
       <c r="F4" s="23">
         <v>0</v>
       </c>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
-      <c r="H4" s="23">
-        <v>0</v>
-      </c>
-      <c r="I4" s="23">
-        <v>0</v>
-      </c>
-      <c r="J4" s="23">
-        <v>0</v>
-      </c>
-      <c r="K4" s="23">
-        <v>0</v>
-      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="21">
@@ -1885,21 +1784,11 @@
       <c r="F5" s="23">
         <v>78.983596125000034</v>
       </c>
-      <c r="G5" s="23">
-        <v>82.932775931250035</v>
-      </c>
-      <c r="H5" s="23">
-        <v>87.079414727812534</v>
-      </c>
-      <c r="I5" s="23">
-        <v>91.43338546420317</v>
-      </c>
-      <c r="J5" s="23">
-        <v>96.005054737413332</v>
-      </c>
-      <c r="K5" s="23">
-        <v>100.80530747428401</v>
-      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="21">
@@ -1920,21 +1809,11 @@
       <c r="F6" s="23">
         <v>24.917878125000005</v>
       </c>
-      <c r="G6" s="23">
-        <v>26.163772031250005</v>
-      </c>
-      <c r="H6" s="23">
-        <v>27.471960632812507</v>
-      </c>
-      <c r="I6" s="23">
-        <v>28.845558664453133</v>
-      </c>
-      <c r="J6" s="23">
-        <v>30.287836597675792</v>
-      </c>
-      <c r="K6" s="23">
-        <v>31.802228427559584</v>
-      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="21">
@@ -1955,21 +1834,11 @@
       <c r="F7" s="23">
         <v>51.902116875000019</v>
       </c>
-      <c r="G7" s="23">
-        <v>54.497222718750024</v>
-      </c>
-      <c r="H7" s="23">
-        <v>57.222083854687526</v>
-      </c>
-      <c r="I7" s="23">
-        <v>60.083188047421906</v>
-      </c>
-      <c r="J7" s="23">
-        <v>63.087347449793008</v>
-      </c>
-      <c r="K7" s="23">
-        <v>66.24171482228266</v>
-      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="21">
@@ -1990,21 +1859,11 @@
       <c r="F8" s="23">
         <v>16.530885000000001</v>
       </c>
-      <c r="G8" s="23">
-        <v>17.357429250000003</v>
-      </c>
-      <c r="H8" s="23">
-        <v>18.225300712500005</v>
-      </c>
-      <c r="I8" s="23">
-        <v>19.136565748125005</v>
-      </c>
-      <c r="J8" s="23">
-        <v>20.093394035531254</v>
-      </c>
-      <c r="K8" s="23">
-        <v>21.098063737307818</v>
-      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="21">
@@ -2025,21 +1884,11 @@
       <c r="F9" s="23">
         <v>70.450742250000019</v>
       </c>
-      <c r="G9" s="23">
-        <v>73.973279362500023</v>
-      </c>
-      <c r="H9" s="23">
-        <v>77.671943330625027</v>
-      </c>
-      <c r="I9" s="23">
-        <v>81.555540497156287</v>
-      </c>
-      <c r="J9" s="23">
-        <v>85.63331752201411</v>
-      </c>
-      <c r="K9" s="23">
-        <v>89.914983398114813</v>
-      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="21">
@@ -2060,21 +1909,11 @@
       <c r="F10" s="23">
         <v>43.879775625000008</v>
       </c>
-      <c r="G10" s="23">
-        <v>46.073764406250007</v>
-      </c>
-      <c r="H10" s="23">
-        <v>48.377452626562508</v>
-      </c>
-      <c r="I10" s="23">
-        <v>50.796325257890636</v>
-      </c>
-      <c r="J10" s="23">
-        <v>53.336141520785169</v>
-      </c>
-      <c r="K10" s="23">
-        <v>56.002948596824432</v>
-      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="21">
@@ -2095,21 +1934,11 @@
       <c r="F11" s="23">
         <v>34.641928125000007</v>
       </c>
-      <c r="G11" s="23">
-        <v>36.374024531250008</v>
-      </c>
-      <c r="H11" s="23">
-        <v>38.192725757812511</v>
-      </c>
-      <c r="I11" s="23">
-        <v>40.102362045703138</v>
-      </c>
-      <c r="J11" s="23">
-        <v>42.107480147988298</v>
-      </c>
-      <c r="K11" s="23">
-        <v>44.212854155387717</v>
-      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="21">
@@ -2130,21 +1959,11 @@
       <c r="F12" s="23">
         <v>89.461260000000024</v>
       </c>
-      <c r="G12" s="23">
-        <v>93.934323000000035</v>
-      </c>
-      <c r="H12" s="23">
-        <v>98.631039150000035</v>
-      </c>
-      <c r="I12" s="23">
-        <v>103.56259110750004</v>
-      </c>
-      <c r="J12" s="23">
-        <v>108.74072066287505</v>
-      </c>
-      <c r="K12" s="23">
-        <v>114.1777566960188</v>
-      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="21">
@@ -2165,21 +1984,11 @@
       <c r="F13" s="23">
         <v>121.55062500000001</v>
       </c>
-      <c r="G13" s="23">
-        <v>127.62815625000002</v>
-      </c>
-      <c r="H13" s="23">
-        <v>134.00956406250003</v>
-      </c>
-      <c r="I13" s="23">
-        <v>140.71004226562505</v>
-      </c>
-      <c r="J13" s="23">
-        <v>147.74554437890632</v>
-      </c>
-      <c r="K13" s="23">
-        <v>155.13282159785163</v>
-      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="21">
@@ -2200,21 +2009,11 @@
       <c r="F14" s="23">
         <v>39.625503750000007</v>
       </c>
-      <c r="G14" s="23">
-        <v>41.60677893750001</v>
-      </c>
-      <c r="H14" s="23">
-        <v>43.687117884375013</v>
-      </c>
-      <c r="I14" s="23">
-        <v>45.871473778593767</v>
-      </c>
-      <c r="J14" s="23">
-        <v>48.165047467523458</v>
-      </c>
-      <c r="K14" s="23">
-        <v>50.573299840899629</v>
-      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="21">
@@ -2235,21 +2034,11 @@
       <c r="F15" s="23">
         <v>88.975057500000005</v>
       </c>
-      <c r="G15" s="23">
-        <v>93.423810375000016</v>
-      </c>
-      <c r="H15" s="23">
-        <v>98.095000893750026</v>
-      </c>
-      <c r="I15" s="23">
-        <v>102.99975093843753</v>
-      </c>
-      <c r="J15" s="23">
-        <v>108.14973848535941</v>
-      </c>
-      <c r="K15" s="23">
-        <v>113.55722540962738</v>
-      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="21">
@@ -2270,21 +2059,11 @@
       <c r="F16" s="23">
         <v>86.300943750000016</v>
       </c>
-      <c r="G16" s="23">
-        <v>90.615990937500015</v>
-      </c>
-      <c r="H16" s="23">
-        <v>95.146790484375018</v>
-      </c>
-      <c r="I16" s="23">
-        <v>99.904130008593768</v>
-      </c>
-      <c r="J16" s="23">
-        <v>104.89933650902346</v>
-      </c>
-      <c r="K16" s="23">
-        <v>110.14430333447463</v>
-      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="21">
@@ -2305,21 +2084,11 @@
       <c r="F17" s="23">
         <v>22.729966875000006</v>
       </c>
-      <c r="G17" s="23">
-        <v>23.866465218750008</v>
-      </c>
-      <c r="H17" s="23">
-        <v>25.059788479687509</v>
-      </c>
-      <c r="I17" s="23">
-        <v>26.312777903671886</v>
-      </c>
-      <c r="J17" s="23">
-        <v>27.628416798855483</v>
-      </c>
-      <c r="K17" s="23">
-        <v>29.00983763879826</v>
-      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="21">
@@ -2340,21 +2109,11 @@
       <c r="F18" s="23">
         <v>57.979648125000018</v>
       </c>
-      <c r="G18" s="23">
-        <v>60.878630531250025</v>
-      </c>
-      <c r="H18" s="23">
-        <v>63.922562057812527</v>
-      </c>
-      <c r="I18" s="23">
-        <v>67.118690160703153</v>
-      </c>
-      <c r="J18" s="23">
-        <v>70.474624668738315</v>
-      </c>
-      <c r="K18" s="23">
-        <v>73.998355902175234</v>
-      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="21">
@@ -2375,21 +2134,11 @@
       <c r="F19" s="23">
         <v>0</v>
       </c>
-      <c r="G19" s="23">
-        <v>0</v>
-      </c>
-      <c r="H19" s="23">
-        <v>0</v>
-      </c>
-      <c r="I19" s="23">
-        <v>0</v>
-      </c>
-      <c r="J19" s="23">
-        <v>0</v>
-      </c>
-      <c r="K19" s="23">
-        <v>0</v>
-      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="21">
@@ -2410,21 +2159,11 @@
       <c r="F20" s="23">
         <v>0</v>
       </c>
-      <c r="G20" s="23">
-        <v>0</v>
-      </c>
-      <c r="H20" s="23">
-        <v>0</v>
-      </c>
-      <c r="I20" s="23">
-        <v>0</v>
-      </c>
-      <c r="J20" s="23">
-        <v>0</v>
-      </c>
-      <c r="K20" s="23">
-        <v>0</v>
-      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="21">
@@ -2445,21 +2184,11 @@
       <c r="F21" s="23">
         <v>0</v>
       </c>
-      <c r="G21" s="23">
-        <v>0</v>
-      </c>
-      <c r="H21" s="23">
-        <v>0</v>
-      </c>
-      <c r="I21" s="23">
-        <v>0</v>
-      </c>
-      <c r="J21" s="23">
-        <v>0</v>
-      </c>
-      <c r="K21" s="23">
-        <v>0</v>
-      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="21">
@@ -2480,21 +2209,11 @@
       <c r="F22" s="23">
         <v>25.015118625000003</v>
       </c>
-      <c r="G22" s="23">
-        <v>26.265874556250004</v>
-      </c>
-      <c r="H22" s="23">
-        <v>27.579168284062504</v>
-      </c>
-      <c r="I22" s="23">
-        <v>28.95812669826563</v>
-      </c>
-      <c r="J22" s="23">
-        <v>30.406033033178915</v>
-      </c>
-      <c r="K22" s="23">
-        <v>31.926334684837862</v>
-      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="21">
@@ -2515,21 +2234,11 @@
       <c r="F23" s="23">
         <v>22.790742187500001</v>
       </c>
-      <c r="G23" s="23">
-        <v>23.930279296875003</v>
-      </c>
-      <c r="H23" s="23">
-        <v>25.126793261718756</v>
-      </c>
-      <c r="I23" s="23">
-        <v>26.383132924804695</v>
-      </c>
-      <c r="J23" s="23">
-        <v>27.702289571044929</v>
-      </c>
-      <c r="K23" s="23">
-        <v>29.087404049597176</v>
-      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="21">
@@ -2550,21 +2259,11 @@
       <c r="F24" s="23">
         <v>9.2621576250000022</v>
       </c>
-      <c r="G24" s="23">
-        <v>9.7252655062500022</v>
-      </c>
-      <c r="H24" s="23">
-        <v>10.211528781562503</v>
-      </c>
-      <c r="I24" s="23">
-        <v>10.722105220640628</v>
-      </c>
-      <c r="J24" s="23">
-        <v>11.258210481672661</v>
-      </c>
-      <c r="K24" s="23">
-        <v>11.821121005756295</v>
-      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="21">
@@ -2585,21 +2284,11 @@
       <c r="F25" s="23">
         <v>3.5614333125000006</v>
       </c>
-      <c r="G25" s="23">
-        <v>3.7395049781250007</v>
-      </c>
-      <c r="H25" s="23">
-        <v>3.9264802270312509</v>
-      </c>
-      <c r="I25" s="23">
-        <v>4.1228042383828134</v>
-      </c>
-      <c r="J25" s="23">
-        <v>4.3289444503019539</v>
-      </c>
-      <c r="K25" s="23">
-        <v>4.5453916728170514</v>
-      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="21">
@@ -2620,21 +2309,11 @@
       <c r="F26" s="23">
         <v>9.6632746874999995</v>
       </c>
-      <c r="G26" s="23">
-        <v>10.146438421875001</v>
-      </c>
-      <c r="H26" s="23">
-        <v>10.65376034296875</v>
-      </c>
-      <c r="I26" s="23">
-        <v>11.186448360117188</v>
-      </c>
-      <c r="J26" s="23">
-        <v>11.745770778123047</v>
-      </c>
-      <c r="K26" s="23">
-        <v>12.3330593170292</v>
-      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="21">
@@ -2655,21 +2334,11 @@
       <c r="F27" s="23">
         <v>0</v>
       </c>
-      <c r="G27" s="23">
-        <v>0</v>
-      </c>
-      <c r="H27" s="23">
-        <v>0</v>
-      </c>
-      <c r="I27" s="23">
-        <v>0</v>
-      </c>
-      <c r="J27" s="23">
-        <v>0</v>
-      </c>
-      <c r="K27" s="23">
-        <v>0</v>
-      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="21">
@@ -2690,21 +2359,11 @@
       <c r="F28" s="23">
         <v>4.1327212500000003</v>
       </c>
-      <c r="G28" s="23">
-        <v>4.3393573125000007</v>
-      </c>
-      <c r="H28" s="23">
-        <v>4.5563251781250012</v>
-      </c>
-      <c r="I28" s="23">
-        <v>4.7841414370312512</v>
-      </c>
-      <c r="J28" s="23">
-        <v>5.0233485088828136</v>
-      </c>
-      <c r="K28" s="23">
-        <v>5.2745159343269545</v>
-      </c>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="21">
@@ -2725,21 +2384,11 @@
       <c r="F29" s="23">
         <v>0</v>
       </c>
-      <c r="G29" s="23">
-        <v>0</v>
-      </c>
-      <c r="H29" s="23">
-        <v>0</v>
-      </c>
-      <c r="I29" s="23">
-        <v>0</v>
-      </c>
-      <c r="J29" s="23">
-        <v>0</v>
-      </c>
-      <c r="K29" s="23">
-        <v>0</v>
-      </c>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="21">
@@ -2760,21 +2409,11 @@
       <c r="F30" s="23">
         <v>23.374185187500007</v>
       </c>
-      <c r="G30" s="23">
-        <v>24.54289444687501</v>
-      </c>
-      <c r="H30" s="23">
-        <v>25.770039169218762</v>
-      </c>
-      <c r="I30" s="23">
-        <v>27.058541127679703</v>
-      </c>
-      <c r="J30" s="23">
-        <v>28.41146818406369</v>
-      </c>
-      <c r="K30" s="23">
-        <v>29.832041593266876</v>
-      </c>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="21">
@@ -2795,21 +2434,11 @@
       <c r="F31" s="23">
         <v>28.503621562500005</v>
       </c>
-      <c r="G31" s="23">
-        <v>29.928802640625005</v>
-      </c>
-      <c r="H31" s="23">
-        <v>31.425242772656258</v>
-      </c>
-      <c r="I31" s="23">
-        <v>32.996504911289072</v>
-      </c>
-      <c r="J31" s="23">
-        <v>34.64633015685353</v>
-      </c>
-      <c r="K31" s="23">
-        <v>36.378646664696205</v>
-      </c>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="21">
@@ -2830,21 +2459,11 @@
       <c r="F32" s="23">
         <v>21.28351443750001</v>
       </c>
-      <c r="G32" s="23">
-        <v>22.347690159375013</v>
-      </c>
-      <c r="H32" s="23">
-        <v>23.465074667343764</v>
-      </c>
-      <c r="I32" s="23">
-        <v>24.638328400710954</v>
-      </c>
-      <c r="J32" s="23">
-        <v>25.870244820746503</v>
-      </c>
-      <c r="K32" s="23">
-        <v>27.16375706178383</v>
-      </c>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="21">
@@ -2865,21 +2484,11 @@
       <c r="F33" s="23">
         <v>8.338372875000001</v>
       </c>
-      <c r="G33" s="23">
-        <v>8.7552915187500009</v>
-      </c>
-      <c r="H33" s="23">
-        <v>9.1930560946875008</v>
-      </c>
-      <c r="I33" s="23">
-        <v>9.6527088994218762</v>
-      </c>
-      <c r="J33" s="23">
-        <v>10.135344344392971</v>
-      </c>
-      <c r="K33" s="23">
-        <v>10.642111561612619</v>
-      </c>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="21">
@@ -2900,21 +2509,11 @@
       <c r="F34" s="23">
         <v>26.595276750000004</v>
       </c>
-      <c r="G34" s="23">
-        <v>27.925040587500003</v>
-      </c>
-      <c r="H34" s="23">
-        <v>29.321292616875006</v>
-      </c>
-      <c r="I34" s="23">
-        <v>30.787357247718756</v>
-      </c>
-      <c r="J34" s="23">
-        <v>32.326725110104697</v>
-      </c>
-      <c r="K34" s="23">
-        <v>33.943061365609935</v>
-      </c>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="21">
@@ -2935,21 +2534,11 @@
       <c r="F35" s="23">
         <v>0</v>
       </c>
-      <c r="G35" s="23">
-        <v>0</v>
-      </c>
-      <c r="H35" s="23">
-        <v>0</v>
-      </c>
-      <c r="I35" s="23">
-        <v>0</v>
-      </c>
-      <c r="J35" s="23">
-        <v>0</v>
-      </c>
-      <c r="K35" s="23">
-        <v>0</v>
-      </c>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="21">
@@ -2970,21 +2559,11 @@
       <c r="F36" s="23">
         <v>0</v>
       </c>
-      <c r="G36" s="23">
-        <v>0</v>
-      </c>
-      <c r="H36" s="23">
-        <v>0</v>
-      </c>
-      <c r="I36" s="23">
-        <v>0</v>
-      </c>
-      <c r="J36" s="23">
-        <v>0</v>
-      </c>
-      <c r="K36" s="23">
-        <v>0</v>
-      </c>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="21">
@@ -3005,21 +2584,11 @@
       <c r="F37" s="23">
         <v>0</v>
       </c>
-      <c r="G37" s="23">
-        <v>0</v>
-      </c>
-      <c r="H37" s="23">
-        <v>0</v>
-      </c>
-      <c r="I37" s="23">
-        <v>0</v>
-      </c>
-      <c r="J37" s="23">
-        <v>0</v>
-      </c>
-      <c r="K37" s="23">
-        <v>0</v>
-      </c>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="21">
@@ -3040,21 +2609,11 @@
       <c r="F38" s="23">
         <v>0</v>
       </c>
-      <c r="G38" s="23">
-        <v>0</v>
-      </c>
-      <c r="H38" s="23">
-        <v>0</v>
-      </c>
-      <c r="I38" s="23">
-        <v>0</v>
-      </c>
-      <c r="J38" s="23">
-        <v>0</v>
-      </c>
-      <c r="K38" s="23">
-        <v>0</v>
-      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="21">
@@ -3075,21 +2634,11 @@
       <c r="F39" s="23">
         <v>0</v>
       </c>
-      <c r="G39" s="23">
-        <v>0</v>
-      </c>
-      <c r="H39" s="23">
-        <v>0</v>
-      </c>
-      <c r="I39" s="23">
-        <v>0</v>
-      </c>
-      <c r="J39" s="23">
-        <v>0</v>
-      </c>
-      <c r="K39" s="23">
-        <v>0</v>
-      </c>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="21">
@@ -3110,21 +2659,11 @@
       <c r="F40" s="23">
         <v>0</v>
       </c>
-      <c r="G40" s="23">
-        <v>0</v>
-      </c>
-      <c r="H40" s="23">
-        <v>0</v>
-      </c>
-      <c r="I40" s="23">
-        <v>0</v>
-      </c>
-      <c r="J40" s="23">
-        <v>0</v>
-      </c>
-      <c r="K40" s="23">
-        <v>0</v>
-      </c>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="21">
@@ -3145,21 +2684,11 @@
       <c r="F41" s="23">
         <v>0</v>
       </c>
-      <c r="G41" s="23">
-        <v>0</v>
-      </c>
-      <c r="H41" s="23">
-        <v>0</v>
-      </c>
-      <c r="I41" s="23">
-        <v>0</v>
-      </c>
-      <c r="J41" s="23">
-        <v>0</v>
-      </c>
-      <c r="K41" s="23">
-        <v>0</v>
-      </c>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="21">
@@ -3180,21 +2709,11 @@
       <c r="F42" s="23">
         <v>0</v>
       </c>
-      <c r="G42" s="23">
-        <v>0</v>
-      </c>
-      <c r="H42" s="23">
-        <v>0</v>
-      </c>
-      <c r="I42" s="23">
-        <v>0</v>
-      </c>
-      <c r="J42" s="23">
-        <v>0</v>
-      </c>
-      <c r="K42" s="23">
-        <v>0</v>
-      </c>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="21">
@@ -3215,21 +2734,11 @@
       <c r="F43" s="23">
         <v>0</v>
       </c>
-      <c r="G43" s="23">
-        <v>0</v>
-      </c>
-      <c r="H43" s="23">
-        <v>0</v>
-      </c>
-      <c r="I43" s="23">
-        <v>0</v>
-      </c>
-      <c r="J43" s="23">
-        <v>0</v>
-      </c>
-      <c r="K43" s="23">
-        <v>0</v>
-      </c>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="21">
@@ -3250,21 +2759,11 @@
       <c r="F44" s="23">
         <v>0</v>
       </c>
-      <c r="G44" s="23">
-        <v>0</v>
-      </c>
-      <c r="H44" s="23">
-        <v>0</v>
-      </c>
-      <c r="I44" s="23">
-        <v>0</v>
-      </c>
-      <c r="J44" s="23">
-        <v>0</v>
-      </c>
-      <c r="K44" s="23">
-        <v>0</v>
-      </c>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="21">
@@ -3285,21 +2784,11 @@
       <c r="F45" s="23">
         <v>0</v>
       </c>
-      <c r="G45" s="23">
-        <v>0</v>
-      </c>
-      <c r="H45" s="23">
-        <v>0</v>
-      </c>
-      <c r="I45" s="23">
-        <v>0</v>
-      </c>
-      <c r="J45" s="23">
-        <v>0</v>
-      </c>
-      <c r="K45" s="23">
-        <v>0</v>
-      </c>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="21">
@@ -3320,21 +2809,11 @@
       <c r="F46" s="23">
         <v>0</v>
       </c>
-      <c r="G46" s="23">
-        <v>0</v>
-      </c>
-      <c r="H46" s="23">
-        <v>0</v>
-      </c>
-      <c r="I46" s="23">
-        <v>0</v>
-      </c>
-      <c r="J46" s="23">
-        <v>0</v>
-      </c>
-      <c r="K46" s="23">
-        <v>0</v>
-      </c>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="21">
@@ -3355,21 +2834,11 @@
       <c r="F47" s="23">
         <v>21.879112500000005</v>
       </c>
-      <c r="G47" s="23">
-        <v>22.973068125000005</v>
-      </c>
-      <c r="H47" s="23">
-        <v>24.121721531250007</v>
-      </c>
-      <c r="I47" s="23">
-        <v>25.32780760781251</v>
-      </c>
-      <c r="J47" s="23">
-        <v>26.594197988203135</v>
-      </c>
-      <c r="K47" s="23">
-        <v>27.923907887613293</v>
-      </c>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="21">
@@ -3390,21 +2859,11 @@
       <c r="F48" s="23">
         <v>24.310125000000003</v>
       </c>
-      <c r="G48" s="23">
-        <v>25.525631250000004</v>
-      </c>
-      <c r="H48" s="23">
-        <v>26.801912812500007</v>
-      </c>
-      <c r="I48" s="23">
-        <v>28.142008453125008</v>
-      </c>
-      <c r="J48" s="23">
-        <v>29.549108875781261</v>
-      </c>
-      <c r="K48" s="23">
-        <v>31.026564319570326</v>
-      </c>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="21">
@@ -3425,21 +2884,11 @@
       <c r="F49" s="23">
         <v>17.758546312500005</v>
       </c>
-      <c r="G49" s="23">
-        <v>18.646473628125005</v>
-      </c>
-      <c r="H49" s="23">
-        <v>19.578797309531257</v>
-      </c>
-      <c r="I49" s="23">
-        <v>20.557737175007819</v>
-      </c>
-      <c r="J49" s="23">
-        <v>21.585624033758211</v>
-      </c>
-      <c r="K49" s="23">
-        <v>22.664905235446124</v>
-      </c>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="21">
@@ -3460,21 +2909,11 @@
       <c r="F50" s="23">
         <v>24.553226250000005</v>
       </c>
-      <c r="G50" s="23">
-        <v>25.780887562500006</v>
-      </c>
-      <c r="H50" s="23">
-        <v>27.069931940625008</v>
-      </c>
-      <c r="I50" s="23">
-        <v>28.42342853765626</v>
-      </c>
-      <c r="J50" s="23">
-        <v>29.844599964539075</v>
-      </c>
-      <c r="K50" s="23">
-        <v>31.336829962766029</v>
-      </c>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="21">
@@ -3495,21 +2934,11 @@
       <c r="F51" s="23">
         <v>0</v>
       </c>
-      <c r="G51" s="23">
-        <v>0</v>
-      </c>
-      <c r="H51" s="23">
-        <v>0</v>
-      </c>
-      <c r="I51" s="23">
-        <v>0</v>
-      </c>
-      <c r="J51" s="23">
-        <v>0</v>
-      </c>
-      <c r="K51" s="23">
-        <v>0</v>
-      </c>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="21">
@@ -3530,21 +2959,11 @@
       <c r="F52" s="23">
         <v>17.260188750000001</v>
       </c>
-      <c r="G52" s="23">
-        <v>18.123198187500002</v>
-      </c>
-      <c r="H52" s="23">
-        <v>19.029358096875004</v>
-      </c>
-      <c r="I52" s="23">
-        <v>19.980826001718754</v>
-      </c>
-      <c r="J52" s="23">
-        <v>20.979867301804692</v>
-      </c>
-      <c r="K52" s="23">
-        <v>22.028860666894928</v>
-      </c>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="21">
@@ -3565,21 +2984,11 @@
       <c r="F53" s="23">
         <v>14.586075000000003</v>
       </c>
-      <c r="G53" s="23">
-        <v>15.315378750000004</v>
-      </c>
-      <c r="H53" s="23">
-        <v>16.081147687500007</v>
-      </c>
-      <c r="I53" s="23">
-        <v>16.885205071875006</v>
-      </c>
-      <c r="J53" s="23">
-        <v>17.729465325468759</v>
-      </c>
-      <c r="K53" s="23">
-        <v>18.615938591742196</v>
-      </c>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="21">
@@ -3600,21 +3009,11 @@
       <c r="F54" s="23">
         <v>0</v>
       </c>
-      <c r="G54" s="23">
-        <v>0</v>
-      </c>
-      <c r="H54" s="23">
-        <v>0</v>
-      </c>
-      <c r="I54" s="23">
-        <v>0</v>
-      </c>
-      <c r="J54" s="23">
-        <v>0</v>
-      </c>
-      <c r="K54" s="23">
-        <v>0</v>
-      </c>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="21">
@@ -3635,21 +3034,11 @@
       <c r="F55" s="23">
         <v>12.155062500000001</v>
       </c>
-      <c r="G55" s="23">
-        <v>12.762815625000002</v>
-      </c>
-      <c r="H55" s="23">
-        <v>13.400956406250003</v>
-      </c>
-      <c r="I55" s="23">
-        <v>14.071004226562504</v>
-      </c>
-      <c r="J55" s="23">
-        <v>14.774554437890631</v>
-      </c>
-      <c r="K55" s="23">
-        <v>15.513282159785163</v>
-      </c>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="21">
@@ -3670,21 +3059,11 @@
       <c r="F56" s="23">
         <v>6.0775312500000007</v>
       </c>
-      <c r="G56" s="23">
-        <v>6.3814078125000009</v>
-      </c>
-      <c r="H56" s="23">
-        <v>6.7004782031250016</v>
-      </c>
-      <c r="I56" s="23">
-        <v>7.0355021132812521</v>
-      </c>
-      <c r="J56" s="23">
-        <v>7.3872772189453153</v>
-      </c>
-      <c r="K56" s="23">
-        <v>7.7566410798925816</v>
-      </c>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="21">
@@ -3705,21 +3084,11 @@
       <c r="F57" s="23">
         <v>6.0775312500000007</v>
       </c>
-      <c r="G57" s="23">
-        <v>6.3814078125000009</v>
-      </c>
-      <c r="H57" s="23">
-        <v>6.7004782031250016</v>
-      </c>
-      <c r="I57" s="23">
-        <v>7.0355021132812521</v>
-      </c>
-      <c r="J57" s="23">
-        <v>7.3872772189453153</v>
-      </c>
-      <c r="K57" s="23">
-        <v>7.7566410798925816</v>
-      </c>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="21">
@@ -3740,21 +3109,11 @@
       <c r="F58" s="23">
         <v>6.0775312500000007</v>
       </c>
-      <c r="G58" s="23">
-        <v>6.3814078125000009</v>
-      </c>
-      <c r="H58" s="23">
-        <v>6.7004782031250016</v>
-      </c>
-      <c r="I58" s="23">
-        <v>7.0355021132812521</v>
-      </c>
-      <c r="J58" s="23">
-        <v>7.3872772189453153</v>
-      </c>
-      <c r="K58" s="23">
-        <v>7.7566410798925816</v>
-      </c>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
     </row>
     <row r="59" spans="1:11">
       <c r="B59" s="20"/>
@@ -3767,41 +3126,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45:G79"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="9" width="10.77734375" style="3"/>
-    <col min="12" max="12" width="10.77734375" style="3"/>
-    <col min="14" max="16384" width="10.77734375" style="3"/>
+    <col min="1" max="9" width="10.83203125" style="3"/>
+    <col min="12" max="12" width="10.83203125" style="3"/>
+    <col min="14" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H1" s="9"/>
       <c r="J1" s="3"/>
@@ -3857,7 +3216,7 @@
       <c r="F3" s="14">
         <v>1</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="24">
         <v>0</v>
       </c>
       <c r="H3" s="14"/>
@@ -3888,7 +3247,7 @@
       <c r="F4" s="14">
         <v>2</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>0</v>
       </c>
       <c r="H4" s="14"/>
@@ -3919,7 +3278,7 @@
       <c r="F5" s="14">
         <v>2</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="24">
         <v>0</v>
       </c>
       <c r="H5" s="14"/>
@@ -3950,7 +3309,7 @@
       <c r="F6" s="14">
         <v>2</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="24">
         <v>0</v>
       </c>
       <c r="H6" s="14"/>
@@ -3981,7 +3340,7 @@
       <c r="F7" s="14">
         <v>2</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <v>0</v>
       </c>
       <c r="H7" s="14"/>
@@ -4012,7 +3371,7 @@
       <c r="F8" s="14">
         <v>1</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <v>0</v>
       </c>
       <c r="H8" s="14"/>
@@ -4043,7 +3402,7 @@
       <c r="F9" s="14">
         <v>1</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="24">
         <v>0</v>
       </c>
       <c r="H9" s="14"/>
@@ -4074,7 +3433,7 @@
       <c r="F10" s="14">
         <v>1</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="24">
         <v>0</v>
       </c>
       <c r="H10" s="14"/>
@@ -4105,7 +3464,7 @@
       <c r="F11" s="14">
         <v>1</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="24">
         <v>0</v>
       </c>
       <c r="H11" s="14"/>
@@ -4136,7 +3495,7 @@
       <c r="F12" s="14">
         <v>1</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="24">
         <v>0</v>
       </c>
       <c r="H12" s="14"/>
@@ -4167,7 +3526,7 @@
       <c r="F13" s="14">
         <v>1</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="24">
         <v>0</v>
       </c>
       <c r="H13" s="14"/>
@@ -4198,7 +3557,7 @@
       <c r="F14" s="14">
         <v>2</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <v>0</v>
       </c>
       <c r="H14" s="14"/>
@@ -4229,7 +3588,7 @@
       <c r="F15" s="14">
         <v>2</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="24">
         <v>0</v>
       </c>
       <c r="H15" s="14"/>
@@ -4260,7 +3619,7 @@
       <c r="F16" s="14">
         <v>2</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="24">
         <v>0</v>
       </c>
       <c r="H16" s="14"/>
@@ -4291,7 +3650,7 @@
       <c r="F17" s="14">
         <v>2</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="24">
         <v>0</v>
       </c>
       <c r="H17" s="14"/>
@@ -4322,7 +3681,7 @@
       <c r="F18" s="14">
         <v>2</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="24">
         <v>0</v>
       </c>
       <c r="H18" s="14"/>
@@ -4353,7 +3712,7 @@
       <c r="F19" s="14">
         <v>1</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="24">
         <v>0</v>
       </c>
       <c r="H19" s="14"/>
@@ -4384,7 +3743,7 @@
       <c r="F20" s="14">
         <v>1</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="24">
         <v>0</v>
       </c>
       <c r="H20" s="14"/>
@@ -4415,7 +3774,7 @@
       <c r="F21" s="14">
         <v>1</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="24">
         <v>0</v>
       </c>
       <c r="H21" s="14"/>
@@ -4446,7 +3805,7 @@
       <c r="F22" s="14">
         <v>2</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="24">
         <v>0</v>
       </c>
       <c r="H22" s="14"/>
@@ -4477,7 +3836,7 @@
       <c r="F23" s="14">
         <v>2</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="24">
         <v>0</v>
       </c>
       <c r="H23" s="14"/>
@@ -4508,7 +3867,7 @@
       <c r="F24" s="14">
         <v>1</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="24">
         <v>0</v>
       </c>
       <c r="H24" s="14"/>
@@ -4539,7 +3898,7 @@
       <c r="F25" s="14">
         <v>1</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="24">
         <v>0</v>
       </c>
       <c r="H25" s="14"/>
@@ -4570,7 +3929,7 @@
       <c r="F26" s="14">
         <v>1</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="24">
         <v>0</v>
       </c>
       <c r="H26" s="14"/>
@@ -4601,7 +3960,7 @@
       <c r="F27" s="14">
         <v>0</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="24">
         <v>0</v>
       </c>
       <c r="H27" s="14"/>
@@ -4632,7 +3991,7 @@
       <c r="F28" s="14">
         <v>1</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="24">
         <v>0</v>
       </c>
       <c r="H28" s="14"/>
@@ -4663,7 +4022,7 @@
       <c r="F29" s="14">
         <v>1</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="24">
         <v>0</v>
       </c>
       <c r="H29" s="14"/>
@@ -4694,7 +4053,7 @@
       <c r="F30" s="14">
         <v>2</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="24">
         <v>0</v>
       </c>
       <c r="H30" s="14"/>
@@ -4725,7 +4084,7 @@
       <c r="F31" s="14">
         <v>1</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="24">
         <v>0</v>
       </c>
       <c r="H31" s="14"/>
@@ -4756,7 +4115,7 @@
       <c r="F32" s="14">
         <v>1</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="24">
         <v>0</v>
       </c>
       <c r="H32" s="14"/>
@@ -4787,7 +4146,7 @@
       <c r="F33" s="14">
         <v>1</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="24">
         <v>0</v>
       </c>
       <c r="H33" s="14"/>
@@ -4818,7 +4177,7 @@
       <c r="F34" s="14">
         <v>1</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="24">
         <v>0</v>
       </c>
       <c r="H34" s="14"/>
@@ -4849,7 +4208,7 @@
       <c r="F35" s="14">
         <v>0</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="24">
         <v>0</v>
       </c>
       <c r="H35" s="14"/>
@@ -4880,7 +4239,7 @@
       <c r="F36" s="14">
         <v>1</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="24">
         <v>0</v>
       </c>
       <c r="H36" s="14"/>
@@ -4911,7 +4270,7 @@
       <c r="F37" s="14">
         <v>1</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="24">
         <v>0</v>
       </c>
       <c r="H37" s="14"/>
@@ -4942,7 +4301,7 @@
       <c r="F38" s="3">
         <v>0</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="24">
         <v>0</v>
       </c>
       <c r="H38" s="17"/>
@@ -4971,7 +4330,7 @@
       <c r="F39" s="14">
         <v>0</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G39" s="24">
         <v>0</v>
       </c>
       <c r="H39" s="14"/>
@@ -5002,7 +4361,7 @@
       <c r="F40" s="14">
         <v>1</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G40" s="24">
         <v>0</v>
       </c>
       <c r="H40" s="14"/>
@@ -5033,7 +4392,7 @@
       <c r="F41" s="14">
         <v>1</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G41" s="24">
         <v>0</v>
       </c>
       <c r="H41" s="14"/>
@@ -5064,7 +4423,7 @@
       <c r="F42" s="14">
         <v>1</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G42" s="24">
         <v>0</v>
       </c>
       <c r="H42" s="14"/>
@@ -5095,7 +4454,7 @@
       <c r="F43" s="14">
         <v>1</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G43" s="24">
         <v>0</v>
       </c>
       <c r="H43" s="14"/>
@@ -5126,7 +4485,7 @@
       <c r="F44" s="14">
         <v>0</v>
       </c>
-      <c r="G44" s="25">
+      <c r="G44" s="24">
         <v>0</v>
       </c>
       <c r="H44" s="14"/>
@@ -5188,7 +4547,7 @@
       <c r="F46" s="14">
         <v>0</v>
       </c>
-      <c r="G46" s="25">
+      <c r="G46" s="24">
         <v>1</v>
       </c>
       <c r="H46" s="14"/>
@@ -5219,7 +4578,7 @@
       <c r="F47" s="14">
         <v>0</v>
       </c>
-      <c r="G47" s="25">
+      <c r="G47" s="24">
         <v>1</v>
       </c>
       <c r="H47" s="14"/>
@@ -5250,7 +4609,7 @@
       <c r="F48" s="14">
         <v>0</v>
       </c>
-      <c r="G48" s="25">
+      <c r="G48" s="24">
         <v>1</v>
       </c>
       <c r="H48" s="14"/>
@@ -5281,7 +4640,7 @@
       <c r="F49" s="14">
         <v>0</v>
       </c>
-      <c r="G49" s="25">
+      <c r="G49" s="24">
         <v>1</v>
       </c>
       <c r="H49" s="14"/>
@@ -5312,7 +4671,7 @@
       <c r="F50" s="14">
         <v>0</v>
       </c>
-      <c r="G50" s="25">
+      <c r="G50" s="24">
         <v>1</v>
       </c>
       <c r="H50" s="14"/>
@@ -5343,7 +4702,7 @@
       <c r="F51" s="14">
         <v>0</v>
       </c>
-      <c r="G51" s="25">
+      <c r="G51" s="24">
         <v>1</v>
       </c>
       <c r="H51" s="14"/>
@@ -5374,7 +4733,7 @@
       <c r="F52" s="14">
         <v>0</v>
       </c>
-      <c r="G52" s="25">
+      <c r="G52" s="24">
         <v>1</v>
       </c>
       <c r="H52" s="14"/>
@@ -5405,7 +4764,7 @@
       <c r="F53" s="14">
         <v>0</v>
       </c>
-      <c r="G53" s="25">
+      <c r="G53" s="24">
         <v>1</v>
       </c>
       <c r="H53" s="14"/>
@@ -5436,7 +4795,7 @@
       <c r="F54" s="14">
         <v>0</v>
       </c>
-      <c r="G54" s="25">
+      <c r="G54" s="24">
         <v>1</v>
       </c>
       <c r="H54" s="14"/>
@@ -5467,7 +4826,7 @@
       <c r="F55" s="14">
         <v>0</v>
       </c>
-      <c r="G55" s="25">
+      <c r="G55" s="24">
         <v>1</v>
       </c>
       <c r="H55" s="14"/>
@@ -5498,7 +4857,7 @@
       <c r="F56" s="14">
         <v>0</v>
       </c>
-      <c r="G56" s="25">
+      <c r="G56" s="24">
         <v>1</v>
       </c>
       <c r="H56" s="14"/>
@@ -5529,7 +4888,7 @@
       <c r="F57" s="14">
         <v>0</v>
       </c>
-      <c r="G57" s="25">
+      <c r="G57" s="24">
         <v>1</v>
       </c>
       <c r="H57" s="14"/>
@@ -5560,7 +4919,7 @@
       <c r="F58" s="14">
         <v>0</v>
       </c>
-      <c r="G58" s="25">
+      <c r="G58" s="24">
         <v>1</v>
       </c>
       <c r="H58" s="14"/>
@@ -5591,7 +4950,7 @@
       <c r="F59" s="14">
         <v>0</v>
       </c>
-      <c r="G59" s="25">
+      <c r="G59" s="24">
         <v>1</v>
       </c>
       <c r="H59" s="14"/>
@@ -5622,7 +4981,7 @@
       <c r="F60" s="14">
         <v>0</v>
       </c>
-      <c r="G60" s="25">
+      <c r="G60" s="24">
         <v>1</v>
       </c>
       <c r="H60" s="14"/>
@@ -5653,7 +5012,7 @@
       <c r="F61" s="14">
         <v>0</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G61" s="24">
         <v>1</v>
       </c>
       <c r="H61" s="14"/>
@@ -5684,7 +5043,7 @@
       <c r="F62" s="14">
         <v>0</v>
       </c>
-      <c r="G62" s="25">
+      <c r="G62" s="24">
         <v>1</v>
       </c>
       <c r="H62" s="14"/>
@@ -5715,7 +5074,7 @@
       <c r="F63" s="14">
         <v>0</v>
       </c>
-      <c r="G63" s="25">
+      <c r="G63" s="24">
         <v>1</v>
       </c>
       <c r="H63" s="14"/>
@@ -5746,7 +5105,7 @@
       <c r="F64" s="14">
         <v>0</v>
       </c>
-      <c r="G64" s="25">
+      <c r="G64" s="24">
         <v>1</v>
       </c>
       <c r="H64" s="14"/>
@@ -5777,7 +5136,7 @@
       <c r="F65" s="14">
         <v>0</v>
       </c>
-      <c r="G65" s="25">
+      <c r="G65" s="24">
         <v>1</v>
       </c>
       <c r="H65" s="14"/>
@@ -5808,7 +5167,7 @@
       <c r="F66" s="14">
         <v>0</v>
       </c>
-      <c r="G66" s="25">
+      <c r="G66" s="24">
         <v>1</v>
       </c>
       <c r="H66" s="14"/>
@@ -5839,7 +5198,7 @@
       <c r="F67" s="14">
         <v>0</v>
       </c>
-      <c r="G67" s="25">
+      <c r="G67" s="24">
         <v>1</v>
       </c>
       <c r="H67" s="14"/>
@@ -5870,7 +5229,7 @@
       <c r="F68" s="14">
         <v>0</v>
       </c>
-      <c r="G68" s="25">
+      <c r="G68" s="24">
         <v>1</v>
       </c>
       <c r="H68" s="14"/>
@@ -5901,7 +5260,7 @@
       <c r="F69" s="14">
         <v>0</v>
       </c>
-      <c r="G69" s="25">
+      <c r="G69" s="24">
         <v>1</v>
       </c>
       <c r="H69" s="14"/>
@@ -5932,7 +5291,7 @@
       <c r="F70" s="14">
         <v>0</v>
       </c>
-      <c r="G70" s="25">
+      <c r="G70" s="24">
         <v>1</v>
       </c>
       <c r="H70" s="14"/>
@@ -5963,7 +5322,7 @@
       <c r="F71" s="14">
         <v>0</v>
       </c>
-      <c r="G71" s="25">
+      <c r="G71" s="24">
         <v>1</v>
       </c>
       <c r="H71" s="14"/>
@@ -5994,7 +5353,7 @@
       <c r="F72" s="14">
         <v>0</v>
       </c>
-      <c r="G72" s="25">
+      <c r="G72" s="24">
         <v>1</v>
       </c>
       <c r="H72" s="14"/>
@@ -6025,7 +5384,7 @@
       <c r="F73" s="14">
         <v>0</v>
       </c>
-      <c r="G73" s="25">
+      <c r="G73" s="24">
         <v>1</v>
       </c>
       <c r="H73" s="14"/>
@@ -6056,7 +5415,7 @@
       <c r="F74" s="14">
         <v>0</v>
       </c>
-      <c r="G74" s="25">
+      <c r="G74" s="24">
         <v>1</v>
       </c>
       <c r="H74" s="14"/>
@@ -6087,7 +5446,7 @@
       <c r="F75" s="14">
         <v>0</v>
       </c>
-      <c r="G75" s="25">
+      <c r="G75" s="24">
         <v>1</v>
       </c>
       <c r="H75" s="14"/>
@@ -6118,7 +5477,7 @@
       <c r="F76" s="14">
         <v>0</v>
       </c>
-      <c r="G76" s="25">
+      <c r="G76" s="24">
         <v>1</v>
       </c>
       <c r="H76" s="14"/>
@@ -6149,7 +5508,7 @@
       <c r="F77" s="14">
         <v>0</v>
       </c>
-      <c r="G77" s="25">
+      <c r="G77" s="24">
         <v>1</v>
       </c>
       <c r="H77" s="14"/>
@@ -6180,7 +5539,7 @@
       <c r="F78" s="14">
         <v>0</v>
       </c>
-      <c r="G78" s="25">
+      <c r="G78" s="24">
         <v>1</v>
       </c>
       <c r="H78" s="14"/>
@@ -6211,7 +5570,7 @@
       <c r="F79" s="14">
         <v>0</v>
       </c>
-      <c r="G79" s="25">
+      <c r="G79" s="24">
         <v>1</v>
       </c>
       <c r="H79" s="14"/>
@@ -6244,24 +5603,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -6505,24 +5864,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -6585,31 +5944,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="10.77734375" style="1"/>
-    <col min="5" max="16384" width="10.77734375" style="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="22"/>
@@ -6914,39 +6273,39 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="10.77734375" style="10"/>
+    <col min="1" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1">
       <c r="B1" s="26" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
       <c r="F1" s="26" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
       <c r="J1" s="26" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="O1" s="26"/>
       <c r="P1" s="26"/>
@@ -6954,55 +6313,55 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -8290,359 +7649,380 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="10.77734375" style="21"/>
+    <col min="1" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="1" spans="1:7">
+      <c r="A1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="24">
-        <v>0</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="F2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="27">
+        <v>0</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="27">
+        <v>120</v>
+      </c>
+      <c r="D3" s="27">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="E3" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="F3" s="27">
+        <v>129232</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="27">
+        <v>1</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="27">
+        <v>30</v>
+      </c>
+      <c r="D4" s="27">
+        <v>0.373</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0.21</v>
+      </c>
+      <c r="F4" s="27">
+        <v>38524</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="27">
+        <v>2</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="27">
+        <v>90</v>
+      </c>
+      <c r="D5" s="27">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0</v>
+      </c>
+      <c r="F5" s="27">
+        <v>70286</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="27">
+        <v>0</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="27">
+        <v>100</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0.64</v>
+      </c>
+      <c r="E9" s="27">
+        <v>152767</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="27">
+        <v>1</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="27">
+        <v>50</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0.64</v>
+      </c>
+      <c r="E10" s="27">
+        <v>152767</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="27">
+        <v>0</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="27">
+        <v>120</v>
+      </c>
+      <c r="D14" s="27">
+        <v>83</v>
+      </c>
+      <c r="E14" s="27">
+        <v>36934</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="27">
+        <v>1</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="27">
+        <v>60</v>
+      </c>
+      <c r="D15" s="27">
+        <v>83</v>
+      </c>
+      <c r="E15" s="27">
+        <v>36934</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="24">
-        <v>120</v>
-      </c>
-      <c r="E4" s="24">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="F4" s="24">
-        <v>0.13</v>
-      </c>
-      <c r="G4" s="24">
-        <v>129232</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="24">
-        <v>1</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="24">
-        <v>30</v>
-      </c>
-      <c r="E5" s="24">
-        <v>0.373</v>
-      </c>
-      <c r="F5" s="24">
-        <v>0.21</v>
-      </c>
-      <c r="G5" s="24">
-        <v>38524</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="24">
+      <c r="D18" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="27">
+        <v>0</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="27">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D19" s="27">
+        <v>119378</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="27">
+        <v>1</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="27">
+        <v>15.9</v>
+      </c>
+      <c r="D20" s="27">
+        <v>105511</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="27">
         <v>2</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="24">
-        <v>90</v>
-      </c>
-      <c r="E6" s="24">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="F6" s="24">
-        <v>0</v>
-      </c>
-      <c r="G6" s="24">
-        <v>70286</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="24">
-        <v>0</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="24">
-        <v>100</v>
-      </c>
-      <c r="E10" s="24">
-        <v>0.64</v>
-      </c>
-      <c r="F10" s="24">
-        <v>152767</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="24">
-        <v>1</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="24">
-        <v>50</v>
-      </c>
-      <c r="E11" s="24">
-        <v>0.64</v>
-      </c>
-      <c r="F11" s="24">
-        <v>152767</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="24">
-        <v>0</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="24">
-        <v>120</v>
-      </c>
-      <c r="E15" s="24">
-        <v>83</v>
-      </c>
-      <c r="F15" s="24">
-        <v>36934</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="24">
-        <v>1</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="24">
-        <v>60</v>
-      </c>
-      <c r="E16" s="24">
-        <v>83</v>
-      </c>
-      <c r="F16" s="24">
-        <v>36934</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="24">
-        <v>0</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="24">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="E20" s="24">
-        <v>119378</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="24">
-        <v>1</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="24">
-        <v>15.9</v>
-      </c>
-      <c r="E21" s="24">
-        <v>105511</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="24">
-        <v>2</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="24">
+      <c r="B21" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="27">
         <v>99.7</v>
       </c>
-      <c r="E22" s="24">
+      <c r="D21" s="27">
         <v>98733</v>
       </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Security-Constrained-ACDC-Planning/data/Data-Ninghai.xlsx
+++ b/Security-Constrained-ACDC-Planning/data/Data-Ninghai.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liupengxiang/Documents/GitHub/Coding-Paper/Security-Constrained-ACDC-Planning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66057648-7502-A64F-9014-5C6DDB83EDA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8962EA6F-BD2E-2444-947E-4C2B119C8980}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,16 @@
     <sheet name="Day" sheetId="5" r:id="rId7"/>
     <sheet name="Para" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -341,9 +347,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -366,6 +369,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -709,12 +715,12 @@
       <c r="D3" s="8">
         <v>231</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="19">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
       <c r="B4" s="7">
@@ -726,12 +732,12 @@
       <c r="D4" s="8">
         <v>140.9</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
       <c r="B5" s="7">
@@ -743,12 +749,12 @@
       <c r="D5" s="8">
         <v>268.2</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="19">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
       <c r="B6" s="7">
@@ -760,12 +766,12 @@
       <c r="D6" s="8">
         <v>250</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
       <c r="B7" s="7">
@@ -777,12 +783,12 @@
       <c r="D7" s="8">
         <v>255</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
       <c r="B8" s="7">
@@ -794,12 +800,12 @@
       <c r="D8" s="8">
         <v>226.2</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="19">
+      <c r="A9" s="18">
         <v>7</v>
       </c>
       <c r="B9" s="7">
@@ -811,12 +817,12 @@
       <c r="D9" s="8">
         <v>208.2</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <v>8</v>
       </c>
       <c r="B10" s="7">
@@ -828,12 +834,12 @@
       <c r="D10" s="8">
         <v>197.1</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>9</v>
       </c>
       <c r="B11" s="7">
@@ -845,12 +851,12 @@
       <c r="D11" s="8">
         <v>177.5</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>10</v>
       </c>
       <c r="B12" s="7">
@@ -862,12 +868,12 @@
       <c r="D12" s="8">
         <v>181.8</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>11</v>
       </c>
       <c r="B13" s="7">
@@ -879,12 +885,12 @@
       <c r="D13" s="8">
         <v>167.8</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>12</v>
       </c>
       <c r="B14" s="7">
@@ -896,12 +902,12 @@
       <c r="D14" s="8">
         <v>140.5</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>13</v>
       </c>
       <c r="B15" s="7">
@@ -913,12 +919,12 @@
       <c r="D15" s="8">
         <v>147.4</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="19">
+      <c r="A16" s="18">
         <v>14</v>
       </c>
       <c r="B16" s="7">
@@ -930,12 +936,12 @@
       <c r="D16" s="8">
         <v>145</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <v>15</v>
       </c>
       <c r="B17" s="7">
@@ -947,12 +953,12 @@
       <c r="D17" s="8">
         <v>147.1</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="19">
+      <c r="A18" s="18">
         <v>16</v>
       </c>
       <c r="B18" s="7">
@@ -964,12 +970,12 @@
       <c r="D18" s="8">
         <v>161.1</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <v>17</v>
       </c>
       <c r="B19" s="7">
@@ -981,12 +987,12 @@
       <c r="D19" s="8">
         <v>71.900000000000006</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="19">
+      <c r="A20" s="18">
         <v>18</v>
       </c>
       <c r="B20" s="7">
@@ -998,12 +1004,12 @@
       <c r="D20" s="8">
         <v>56</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>19</v>
       </c>
       <c r="B21" s="7">
@@ -1015,12 +1021,12 @@
       <c r="D21" s="8">
         <v>204</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="19">
+      <c r="A22" s="18">
         <v>20</v>
       </c>
       <c r="B22" s="7">
@@ -1032,12 +1038,12 @@
       <c r="D22" s="8">
         <v>224.5</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="19">
+      <c r="A23" s="18">
         <v>21</v>
       </c>
       <c r="B23" s="7">
@@ -1049,12 +1055,12 @@
       <c r="D23" s="8">
         <v>268.8</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="19">
+      <c r="A24" s="18">
         <v>22</v>
       </c>
       <c r="B24" s="7">
@@ -1066,12 +1072,12 @@
       <c r="D24" s="8">
         <v>184.8</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="19">
+      <c r="A25" s="18">
         <v>23</v>
       </c>
       <c r="B25" s="7">
@@ -1083,12 +1089,12 @@
       <c r="D25" s="8">
         <v>192</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="19">
+      <c r="A26" s="18">
         <v>24</v>
       </c>
       <c r="B26" s="7">
@@ -1100,12 +1106,12 @@
       <c r="D26" s="8">
         <v>128.19999999999999</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="19">
+      <c r="A27" s="18">
         <v>25</v>
       </c>
       <c r="B27" s="7">
@@ -1117,12 +1123,12 @@
       <c r="D27" s="8">
         <v>150.9</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="19">
+      <c r="A28" s="18">
         <v>26</v>
       </c>
       <c r="B28" s="7">
@@ -1134,12 +1140,12 @@
       <c r="D28" s="8">
         <v>118</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="19">
+      <c r="A29" s="18">
         <v>27</v>
       </c>
       <c r="B29" s="7">
@@ -1151,12 +1157,12 @@
       <c r="D29" s="8">
         <v>72</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="19">
+      <c r="A30" s="18">
         <v>28</v>
       </c>
       <c r="B30" s="7">
@@ -1168,12 +1174,12 @@
       <c r="D30" s="8">
         <v>78.2</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="19">
+      <c r="A31" s="18">
         <v>29</v>
       </c>
       <c r="B31" s="7">
@@ -1185,12 +1191,12 @@
       <c r="D31" s="8">
         <v>67.5</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="19">
+      <c r="A32" s="18">
         <v>30</v>
       </c>
       <c r="B32" s="7">
@@ -1202,12 +1208,12 @@
       <c r="D32" s="8">
         <v>90</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="19">
+      <c r="A33" s="18">
         <v>31</v>
       </c>
       <c r="B33" s="7">
@@ -1219,12 +1225,12 @@
       <c r="D33" s="8">
         <v>110</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="19">
+      <c r="A34" s="18">
         <v>32</v>
       </c>
       <c r="B34" s="7">
@@ -1236,12 +1242,12 @@
       <c r="D34" s="8">
         <v>112.5</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="19">
+      <c r="A35" s="18">
         <v>33</v>
       </c>
       <c r="B35" s="7">
@@ -1253,12 +1259,12 @@
       <c r="D35" s="8">
         <v>73.599999999999994</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="19">
+      <c r="A36" s="18">
         <v>34</v>
       </c>
       <c r="B36" s="7">
@@ -1275,7 +1281,7 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="19">
+      <c r="A37" s="18">
         <v>35</v>
       </c>
       <c r="B37" s="7">
@@ -1287,12 +1293,12 @@
       <c r="D37" s="8">
         <v>95</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="19">
+      <c r="A38" s="18">
         <v>36</v>
       </c>
       <c r="B38" s="7">
@@ -1304,12 +1310,12 @@
       <c r="D38" s="8">
         <v>49.7</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="19">
+      <c r="A39" s="18">
         <v>37</v>
       </c>
       <c r="B39" s="7">
@@ -1321,12 +1327,12 @@
       <c r="D39" s="8">
         <v>77.5</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="19">
+      <c r="A40" s="18">
         <v>38</v>
       </c>
       <c r="B40" s="7">
@@ -1338,12 +1344,12 @@
       <c r="D40" s="8">
         <v>66.8</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="19">
+      <c r="A41" s="18">
         <v>39</v>
       </c>
       <c r="B41" s="7">
@@ -1355,12 +1361,12 @@
       <c r="D41" s="8">
         <v>80.2</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="19">
+      <c r="A42" s="18">
         <v>40</v>
       </c>
       <c r="B42" s="7">
@@ -1372,12 +1378,12 @@
       <c r="D42" s="8">
         <v>64.2</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="19">
+      <c r="A43" s="18">
         <v>41</v>
       </c>
       <c r="B43" s="7">
@@ -1389,12 +1395,12 @@
       <c r="D43" s="8">
         <v>49.6</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="19">
+      <c r="A44" s="18">
         <v>42</v>
       </c>
       <c r="B44" s="7">
@@ -1406,12 +1412,12 @@
       <c r="D44" s="8">
         <v>71.8</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="19">
+      <c r="A45" s="18">
         <v>43</v>
       </c>
       <c r="B45" s="7">
@@ -1423,12 +1429,12 @@
       <c r="D45" s="8">
         <v>57.5</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="19">
+      <c r="A46" s="18">
         <v>44</v>
       </c>
       <c r="B46" s="7">
@@ -1440,12 +1446,12 @@
       <c r="D46" s="8">
         <v>87.5</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="19">
+      <c r="A47" s="18">
         <v>45</v>
       </c>
       <c r="B47" s="7">
@@ -1457,12 +1463,12 @@
       <c r="D47" s="8">
         <v>160.19999999999999</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="19">
+      <c r="A48" s="18">
         <v>46</v>
       </c>
       <c r="B48" s="7">
@@ -1474,12 +1480,12 @@
       <c r="D48" s="8">
         <v>140.9</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="19">
+      <c r="A49" s="18">
         <v>47</v>
       </c>
       <c r="B49" s="7">
@@ -1491,12 +1497,12 @@
       <c r="D49" s="8">
         <v>181.8</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="19">
+      <c r="A50" s="18">
         <v>48</v>
       </c>
       <c r="B50" s="7">
@@ -1508,12 +1514,12 @@
       <c r="D50" s="8">
         <v>167.8</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="19">
+      <c r="A51" s="18">
         <v>49</v>
       </c>
       <c r="B51" s="7">
@@ -1525,12 +1531,12 @@
       <c r="D51" s="8">
         <v>147.4</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="19">
+      <c r="A52" s="18">
         <v>50</v>
       </c>
       <c r="B52" s="7">
@@ -1542,12 +1548,12 @@
       <c r="D52" s="8">
         <v>145</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="19">
+      <c r="A53" s="18">
         <v>51</v>
       </c>
       <c r="B53" s="7">
@@ -1559,12 +1565,12 @@
       <c r="D53" s="8">
         <v>161.1</v>
       </c>
-      <c r="E53" s="24">
+      <c r="E53" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="19">
+      <c r="A54" s="18">
         <v>52</v>
       </c>
       <c r="B54" s="7">
@@ -1576,12 +1582,12 @@
       <c r="D54" s="8">
         <v>56</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E54" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="19">
+      <c r="A55" s="18">
         <v>53</v>
       </c>
       <c r="B55" s="7">
@@ -1593,12 +1599,12 @@
       <c r="D55" s="8">
         <v>67.5</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="19">
+      <c r="A56" s="18">
         <v>54</v>
       </c>
       <c r="B56" s="7">
@@ -1610,12 +1616,12 @@
       <c r="D56" s="8">
         <v>90</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E56" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="19">
+      <c r="A57" s="18">
         <v>55</v>
       </c>
       <c r="B57" s="7">
@@ -1627,12 +1633,12 @@
       <c r="D57" s="8">
         <v>110</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="19">
+      <c r="A58" s="18">
         <v>56</v>
       </c>
       <c r="B58" s="7">
@@ -1644,7 +1650,7 @@
       <c r="D58" s="8">
         <v>112.5</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E58" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1660,7 +1666,7 @@
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -1675,1448 +1681,1448 @@
       <c r="C1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="15">
         <v>0</v>
       </c>
-      <c r="B2" s="23">
-        <v>0</v>
-      </c>
-      <c r="C2" s="23">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23">
-        <v>0</v>
-      </c>
-      <c r="F2" s="23">
-        <v>0</v>
-      </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="B2" s="22">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+      <c r="F2" s="22">
+        <v>0</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="23">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23">
-        <v>0</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0</v>
-      </c>
-      <c r="F3" s="23">
-        <v>0</v>
-      </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="23">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0</v>
-      </c>
-      <c r="E4" s="23">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
+      <c r="B4" s="22">
+        <v>0</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>3</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>64.98</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <v>68.229000000000013</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>71.640450000000016</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>75.222472500000023</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>78.983596125000034</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>20.5</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>21.525000000000002</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>22.601250000000004</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>23.731312500000005</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>24.917878125000005</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>42.7</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>44.835000000000008</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>47.076750000000011</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>49.430587500000016</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>51.902116875000019</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="22">
         <v>13.6</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>14.28</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>14.994</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>15.7437</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>16.530885000000001</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>7</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="22">
         <v>57.96</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>60.858000000000004</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>63.900900000000007</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>67.095945000000015</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>70.450742250000019</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>8</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="22">
         <v>36.1</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>37.905000000000001</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>39.800250000000005</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>41.790262500000004</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>43.879775625000008</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>9</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="22">
         <v>28.5</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>29.925000000000001</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>31.421250000000001</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>32.992312500000004</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>34.641928125000007</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>10</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>73.599999999999994</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>77.28</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>81.144000000000005</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>85.201200000000014</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>89.461260000000024</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>11</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="22">
         <v>100</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>105</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <v>110.25</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>115.7625</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>121.55062500000001</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>12</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>32.6</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>34.230000000000004</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>35.941500000000005</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>37.738575000000004</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>39.625503750000007</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>13</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>73.2</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>76.86</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="22">
         <v>80.703000000000003</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>84.738150000000005</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <v>88.975057500000005</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>71</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>74.55</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <v>78.277500000000003</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>82.191375000000008</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>86.300943750000016</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <v>15</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>18.7</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <v>19.635000000000002</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <v>20.616750000000003</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>21.647587500000004</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>22.729966875000006</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>47.7</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <v>50.085000000000008</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>52.589250000000014</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>55.218712500000017</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>57.979648125000018</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="21">
+      <c r="A19" s="20">
         <v>17</v>
       </c>
-      <c r="B19" s="23">
-        <v>0</v>
-      </c>
-      <c r="C19" s="23">
-        <v>0</v>
-      </c>
-      <c r="D19" s="23">
-        <v>0</v>
-      </c>
-      <c r="E19" s="23">
-        <v>0</v>
-      </c>
-      <c r="F19" s="23">
-        <v>0</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
+      <c r="B19" s="22">
+        <v>0</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19" s="22">
+        <v>0</v>
+      </c>
+      <c r="E19" s="22">
+        <v>0</v>
+      </c>
+      <c r="F19" s="22">
+        <v>0</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="21">
+      <c r="A20" s="20">
         <v>18</v>
       </c>
-      <c r="B20" s="23">
-        <v>0</v>
-      </c>
-      <c r="C20" s="23">
-        <v>0</v>
-      </c>
-      <c r="D20" s="23">
-        <v>0</v>
-      </c>
-      <c r="E20" s="23">
-        <v>0</v>
-      </c>
-      <c r="F20" s="23">
-        <v>0</v>
-      </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
+      <c r="B20" s="22">
+        <v>0</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0</v>
+      </c>
+      <c r="E20" s="22">
+        <v>0</v>
+      </c>
+      <c r="F20" s="22">
+        <v>0</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="21">
+      <c r="A21" s="20">
         <v>19</v>
       </c>
-      <c r="B21" s="23">
-        <v>0</v>
-      </c>
-      <c r="C21" s="23">
-        <v>0</v>
-      </c>
-      <c r="D21" s="23">
-        <v>0</v>
-      </c>
-      <c r="E21" s="23">
-        <v>0</v>
-      </c>
-      <c r="F21" s="23">
-        <v>0</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
+      <c r="B21" s="22">
+        <v>0</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0</v>
+      </c>
+      <c r="D21" s="22">
+        <v>0</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0</v>
+      </c>
+      <c r="F21" s="22">
+        <v>0</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="21">
+      <c r="A22" s="20">
         <v>20</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>20.58</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <v>21.608999999999998</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="22">
         <v>22.689450000000001</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>23.823922500000002</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>25.015118625000003</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="21">
+      <c r="A23" s="20">
         <v>21</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="22">
         <v>18.75</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <v>19.6875</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="22">
         <v>20.671875</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>21.705468750000001</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>22.790742187500001</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="21">
+      <c r="A24" s="20">
         <v>22</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="22">
         <v>7.62</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="22">
         <v>8.0010000000000012</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="22">
         <v>8.4010500000000015</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>8.8211025000000021</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>9.2621576250000022</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="21">
+      <c r="A25" s="20">
         <v>23</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="22">
         <v>2.93</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="22">
         <v>3.0765000000000002</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="22">
         <v>3.2303250000000006</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>3.3918412500000006</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="22">
         <v>3.5614333125000006</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="21">
+      <c r="A26" s="20">
         <v>24</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="22">
         <v>7.95</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="22">
         <v>8.3475000000000001</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="22">
         <v>8.764875</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <v>9.2031187499999998</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="22">
         <v>9.6632746874999995</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="21">
+      <c r="A27" s="20">
         <v>25</v>
       </c>
-      <c r="B27" s="23">
-        <v>0</v>
-      </c>
-      <c r="C27" s="23">
-        <v>0</v>
-      </c>
-      <c r="D27" s="23">
-        <v>0</v>
-      </c>
-      <c r="E27" s="23">
-        <v>0</v>
-      </c>
-      <c r="F27" s="23">
-        <v>0</v>
-      </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
+      <c r="B27" s="22">
+        <v>0</v>
+      </c>
+      <c r="C27" s="22">
+        <v>0</v>
+      </c>
+      <c r="D27" s="22">
+        <v>0</v>
+      </c>
+      <c r="E27" s="22">
+        <v>0</v>
+      </c>
+      <c r="F27" s="22">
+        <v>0</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="21">
+      <c r="A28" s="20">
         <v>26</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="22">
         <v>3.4</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="22">
         <v>3.57</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="22">
         <v>3.7484999999999999</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="22">
         <v>3.9359250000000001</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="22">
         <v>4.1327212500000003</v>
       </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="21">
+      <c r="A29" s="20">
         <v>27</v>
       </c>
-      <c r="B29" s="23">
-        <v>0</v>
-      </c>
-      <c r="C29" s="23">
-        <v>0</v>
-      </c>
-      <c r="D29" s="23">
-        <v>0</v>
-      </c>
-      <c r="E29" s="23">
-        <v>0</v>
-      </c>
-      <c r="F29" s="23">
-        <v>0</v>
-      </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
+      <c r="B29" s="22">
+        <v>0</v>
+      </c>
+      <c r="C29" s="22">
+        <v>0</v>
+      </c>
+      <c r="D29" s="22">
+        <v>0</v>
+      </c>
+      <c r="E29" s="22">
+        <v>0</v>
+      </c>
+      <c r="F29" s="22">
+        <v>0</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="21">
+      <c r="A30" s="20">
         <v>28</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="22">
         <v>19.23</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="22">
         <v>20.191500000000001</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="22">
         <v>21.201075000000003</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="22">
         <v>22.261128750000005</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="22">
         <v>23.374185187500007</v>
       </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="21">
+      <c r="A31" s="20">
         <v>29</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="22">
         <v>23.45</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="22">
         <v>24.622499999999999</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="22">
         <v>25.853625000000001</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="22">
         <v>27.146306250000002</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="22">
         <v>28.503621562500005</v>
       </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="21">
+      <c r="A32" s="20">
         <v>30</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="22">
         <v>17.510000000000002</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="22">
         <v>18.385500000000004</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="22">
         <v>19.304775000000006</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="22">
         <v>20.270013750000007</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="22">
         <v>21.28351443750001</v>
       </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="21">
+      <c r="A33" s="20">
         <v>31</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="22">
         <v>6.86</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="22">
         <v>7.2030000000000003</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="22">
         <v>7.5631500000000003</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="22">
         <v>7.9413075000000006</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="22">
         <v>8.338372875000001</v>
       </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="21">
+      <c r="A34" s="20">
         <v>32</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="22">
         <v>21.88</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="22">
         <v>22.974</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="22">
         <v>24.122700000000002</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="22">
         <v>25.328835000000002</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="22">
         <v>26.595276750000004</v>
       </c>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="21">
+      <c r="A35" s="20">
         <v>33</v>
       </c>
-      <c r="B35" s="23">
-        <v>0</v>
-      </c>
-      <c r="C35" s="23">
-        <v>0</v>
-      </c>
-      <c r="D35" s="23">
-        <v>0</v>
-      </c>
-      <c r="E35" s="23">
-        <v>0</v>
-      </c>
-      <c r="F35" s="23">
-        <v>0</v>
-      </c>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
+      <c r="B35" s="22">
+        <v>0</v>
+      </c>
+      <c r="C35" s="22">
+        <v>0</v>
+      </c>
+      <c r="D35" s="22">
+        <v>0</v>
+      </c>
+      <c r="E35" s="22">
+        <v>0</v>
+      </c>
+      <c r="F35" s="22">
+        <v>0</v>
+      </c>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="21">
+      <c r="A36" s="20">
         <v>34</v>
       </c>
-      <c r="B36" s="23">
-        <v>0</v>
-      </c>
-      <c r="C36" s="23">
-        <v>0</v>
-      </c>
-      <c r="D36" s="23">
-        <v>0</v>
-      </c>
-      <c r="E36" s="23">
-        <v>0</v>
-      </c>
-      <c r="F36" s="23">
-        <v>0</v>
-      </c>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
+      <c r="B36" s="22">
+        <v>0</v>
+      </c>
+      <c r="C36" s="22">
+        <v>0</v>
+      </c>
+      <c r="D36" s="22">
+        <v>0</v>
+      </c>
+      <c r="E36" s="22">
+        <v>0</v>
+      </c>
+      <c r="F36" s="22">
+        <v>0</v>
+      </c>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="21">
+      <c r="A37" s="20">
         <v>35</v>
       </c>
-      <c r="B37" s="23">
-        <v>0</v>
-      </c>
-      <c r="C37" s="23">
-        <v>0</v>
-      </c>
-      <c r="D37" s="23">
-        <v>0</v>
-      </c>
-      <c r="E37" s="23">
-        <v>0</v>
-      </c>
-      <c r="F37" s="23">
-        <v>0</v>
-      </c>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
+      <c r="B37" s="22">
+        <v>0</v>
+      </c>
+      <c r="C37" s="22">
+        <v>0</v>
+      </c>
+      <c r="D37" s="22">
+        <v>0</v>
+      </c>
+      <c r="E37" s="22">
+        <v>0</v>
+      </c>
+      <c r="F37" s="22">
+        <v>0</v>
+      </c>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="21">
+      <c r="A38" s="20">
         <v>36</v>
       </c>
-      <c r="B38" s="23">
-        <v>0</v>
-      </c>
-      <c r="C38" s="23">
-        <v>0</v>
-      </c>
-      <c r="D38" s="23">
-        <v>0</v>
-      </c>
-      <c r="E38" s="23">
-        <v>0</v>
-      </c>
-      <c r="F38" s="23">
-        <v>0</v>
-      </c>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
+      <c r="B38" s="22">
+        <v>0</v>
+      </c>
+      <c r="C38" s="22">
+        <v>0</v>
+      </c>
+      <c r="D38" s="22">
+        <v>0</v>
+      </c>
+      <c r="E38" s="22">
+        <v>0</v>
+      </c>
+      <c r="F38" s="22">
+        <v>0</v>
+      </c>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="21">
+      <c r="A39" s="20">
         <v>37</v>
       </c>
-      <c r="B39" s="23">
-        <v>0</v>
-      </c>
-      <c r="C39" s="23">
-        <v>0</v>
-      </c>
-      <c r="D39" s="23">
-        <v>0</v>
-      </c>
-      <c r="E39" s="23">
-        <v>0</v>
-      </c>
-      <c r="F39" s="23">
-        <v>0</v>
-      </c>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
+      <c r="B39" s="22">
+        <v>0</v>
+      </c>
+      <c r="C39" s="22">
+        <v>0</v>
+      </c>
+      <c r="D39" s="22">
+        <v>0</v>
+      </c>
+      <c r="E39" s="22">
+        <v>0</v>
+      </c>
+      <c r="F39" s="22">
+        <v>0</v>
+      </c>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="21">
+      <c r="A40" s="20">
         <v>38</v>
       </c>
-      <c r="B40" s="23">
-        <v>0</v>
-      </c>
-      <c r="C40" s="23">
-        <v>0</v>
-      </c>
-      <c r="D40" s="23">
-        <v>0</v>
-      </c>
-      <c r="E40" s="23">
-        <v>0</v>
-      </c>
-      <c r="F40" s="23">
-        <v>0</v>
-      </c>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
+      <c r="B40" s="22">
+        <v>0</v>
+      </c>
+      <c r="C40" s="22">
+        <v>0</v>
+      </c>
+      <c r="D40" s="22">
+        <v>0</v>
+      </c>
+      <c r="E40" s="22">
+        <v>0</v>
+      </c>
+      <c r="F40" s="22">
+        <v>0</v>
+      </c>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="21">
+      <c r="A41" s="20">
         <v>39</v>
       </c>
-      <c r="B41" s="23">
-        <v>0</v>
-      </c>
-      <c r="C41" s="23">
-        <v>0</v>
-      </c>
-      <c r="D41" s="23">
-        <v>0</v>
-      </c>
-      <c r="E41" s="23">
-        <v>0</v>
-      </c>
-      <c r="F41" s="23">
-        <v>0</v>
-      </c>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
+      <c r="B41" s="22">
+        <v>0</v>
+      </c>
+      <c r="C41" s="22">
+        <v>0</v>
+      </c>
+      <c r="D41" s="22">
+        <v>0</v>
+      </c>
+      <c r="E41" s="22">
+        <v>0</v>
+      </c>
+      <c r="F41" s="22">
+        <v>0</v>
+      </c>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="21">
+      <c r="A42" s="20">
         <v>40</v>
       </c>
-      <c r="B42" s="23">
-        <v>0</v>
-      </c>
-      <c r="C42" s="23">
-        <v>0</v>
-      </c>
-      <c r="D42" s="23">
-        <v>0</v>
-      </c>
-      <c r="E42" s="23">
-        <v>0</v>
-      </c>
-      <c r="F42" s="23">
-        <v>0</v>
-      </c>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
+      <c r="B42" s="22">
+        <v>0</v>
+      </c>
+      <c r="C42" s="22">
+        <v>0</v>
+      </c>
+      <c r="D42" s="22">
+        <v>0</v>
+      </c>
+      <c r="E42" s="22">
+        <v>0</v>
+      </c>
+      <c r="F42" s="22">
+        <v>0</v>
+      </c>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="21">
+      <c r="A43" s="20">
         <v>41</v>
       </c>
-      <c r="B43" s="23">
-        <v>0</v>
-      </c>
-      <c r="C43" s="23">
-        <v>0</v>
-      </c>
-      <c r="D43" s="23">
-        <v>0</v>
-      </c>
-      <c r="E43" s="23">
-        <v>0</v>
-      </c>
-      <c r="F43" s="23">
-        <v>0</v>
-      </c>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
+      <c r="B43" s="22">
+        <v>0</v>
+      </c>
+      <c r="C43" s="22">
+        <v>0</v>
+      </c>
+      <c r="D43" s="22">
+        <v>0</v>
+      </c>
+      <c r="E43" s="22">
+        <v>0</v>
+      </c>
+      <c r="F43" s="22">
+        <v>0</v>
+      </c>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="21">
+      <c r="A44" s="20">
         <v>42</v>
       </c>
-      <c r="B44" s="23">
-        <v>0</v>
-      </c>
-      <c r="C44" s="23">
-        <v>0</v>
-      </c>
-      <c r="D44" s="23">
-        <v>0</v>
-      </c>
-      <c r="E44" s="23">
-        <v>0</v>
-      </c>
-      <c r="F44" s="23">
-        <v>0</v>
-      </c>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
+      <c r="B44" s="22">
+        <v>0</v>
+      </c>
+      <c r="C44" s="22">
+        <v>0</v>
+      </c>
+      <c r="D44" s="22">
+        <v>0</v>
+      </c>
+      <c r="E44" s="22">
+        <v>0</v>
+      </c>
+      <c r="F44" s="22">
+        <v>0</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="21">
+      <c r="A45" s="20">
         <v>43</v>
       </c>
-      <c r="B45" s="23">
-        <v>0</v>
-      </c>
-      <c r="C45" s="23">
-        <v>0</v>
-      </c>
-      <c r="D45" s="23">
-        <v>0</v>
-      </c>
-      <c r="E45" s="23">
-        <v>0</v>
-      </c>
-      <c r="F45" s="23">
-        <v>0</v>
-      </c>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
+      <c r="B45" s="22">
+        <v>0</v>
+      </c>
+      <c r="C45" s="22">
+        <v>0</v>
+      </c>
+      <c r="D45" s="22">
+        <v>0</v>
+      </c>
+      <c r="E45" s="22">
+        <v>0</v>
+      </c>
+      <c r="F45" s="22">
+        <v>0</v>
+      </c>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="21">
+      <c r="A46" s="20">
         <v>44</v>
       </c>
-      <c r="B46" s="23">
-        <v>0</v>
-      </c>
-      <c r="C46" s="23">
-        <v>0</v>
-      </c>
-      <c r="D46" s="23">
-        <v>0</v>
-      </c>
-      <c r="E46" s="23">
-        <v>0</v>
-      </c>
-      <c r="F46" s="23">
-        <v>0</v>
-      </c>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
+      <c r="B46" s="22">
+        <v>0</v>
+      </c>
+      <c r="C46" s="22">
+        <v>0</v>
+      </c>
+      <c r="D46" s="22">
+        <v>0</v>
+      </c>
+      <c r="E46" s="22">
+        <v>0</v>
+      </c>
+      <c r="F46" s="22">
+        <v>0</v>
+      </c>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="21">
+      <c r="A47" s="20">
         <v>45</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="22">
         <v>18</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="22">
         <v>18.900000000000002</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="22">
         <v>19.845000000000002</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="22">
         <v>20.837250000000004</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="22">
         <v>21.879112500000005</v>
       </c>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="21">
+      <c r="A48" s="20">
         <v>46</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="22">
         <v>20</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="22">
         <v>21</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="22">
         <v>22.05</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="22">
         <v>23.152500000000003</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48" s="22">
         <v>24.310125000000003</v>
       </c>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="21">
+      <c r="A49" s="20">
         <v>47</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="22">
         <v>14.61</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="22">
         <v>15.3405</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="22">
         <v>16.107525000000003</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="22">
         <v>16.912901250000004</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="22">
         <v>17.758546312500005</v>
       </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="21">
+      <c r="A50" s="20">
         <v>48</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="22">
         <v>20.2</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="22">
         <v>21.21</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="22">
         <v>22.270500000000002</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="22">
         <v>23.384025000000005</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50" s="22">
         <v>24.553226250000005</v>
       </c>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="21">
+      <c r="A51" s="20">
         <v>49</v>
       </c>
-      <c r="B51" s="23">
-        <v>0</v>
-      </c>
-      <c r="C51" s="23">
-        <v>0</v>
-      </c>
-      <c r="D51" s="23">
-        <v>0</v>
-      </c>
-      <c r="E51" s="23">
-        <v>0</v>
-      </c>
-      <c r="F51" s="23">
-        <v>0</v>
-      </c>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
+      <c r="B51" s="22">
+        <v>0</v>
+      </c>
+      <c r="C51" s="22">
+        <v>0</v>
+      </c>
+      <c r="D51" s="22">
+        <v>0</v>
+      </c>
+      <c r="E51" s="22">
+        <v>0</v>
+      </c>
+      <c r="F51" s="22">
+        <v>0</v>
+      </c>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="21">
+      <c r="A52" s="20">
         <v>50</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="22">
         <v>14.2</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="22">
         <v>14.91</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="22">
         <v>15.6555</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="22">
         <v>16.438275000000001</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="22">
         <v>17.260188750000001</v>
       </c>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="21">
+      <c r="A53" s="20">
         <v>51</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="22">
         <v>12</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="22">
         <v>12.600000000000001</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="22">
         <v>13.230000000000002</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="22">
         <v>13.891500000000002</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F53" s="22">
         <v>14.586075000000003</v>
       </c>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="21">
+      <c r="A54" s="20">
         <v>52</v>
       </c>
-      <c r="B54" s="23">
-        <v>0</v>
-      </c>
-      <c r="C54" s="23">
-        <v>0</v>
-      </c>
-      <c r="D54" s="23">
-        <v>0</v>
-      </c>
-      <c r="E54" s="23">
-        <v>0</v>
-      </c>
-      <c r="F54" s="23">
-        <v>0</v>
-      </c>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
+      <c r="B54" s="22">
+        <v>0</v>
+      </c>
+      <c r="C54" s="22">
+        <v>0</v>
+      </c>
+      <c r="D54" s="22">
+        <v>0</v>
+      </c>
+      <c r="E54" s="22">
+        <v>0</v>
+      </c>
+      <c r="F54" s="22">
+        <v>0</v>
+      </c>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="21">
+      <c r="A55" s="20">
         <v>53</v>
       </c>
-      <c r="B55" s="23">
+      <c r="B55" s="22">
         <v>10</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="22">
         <v>10.5</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="22">
         <v>11.025</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="22">
         <v>11.576250000000002</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="22">
         <v>12.155062500000001</v>
       </c>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="21">
+      <c r="A56" s="20">
         <v>54</v>
       </c>
-      <c r="B56" s="23">
+      <c r="B56" s="22">
         <v>5</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="22">
         <v>5.25</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="22">
         <v>5.5125000000000002</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="22">
         <v>5.7881250000000009</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F56" s="22">
         <v>6.0775312500000007</v>
       </c>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="21">
+      <c r="A57" s="20">
         <v>55</v>
       </c>
-      <c r="B57" s="23">
+      <c r="B57" s="22">
         <v>5</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="22">
         <v>5.25</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D57" s="22">
         <v>5.5125000000000002</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="22">
         <v>5.7881250000000009</v>
       </c>
-      <c r="F57" s="23">
+      <c r="F57" s="22">
         <v>6.0775312500000007</v>
       </c>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="21">
+      <c r="A58" s="20">
         <v>56</v>
       </c>
-      <c r="B58" s="23">
+      <c r="B58" s="22">
         <v>5</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="22">
         <v>5.25</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="22">
         <v>5.5125000000000002</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="22">
         <v>5.7881250000000009</v>
       </c>
-      <c r="F58" s="23">
+      <c r="F58" s="22">
         <v>6.0775312500000007</v>
       </c>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="B59" s="20"/>
+      <c r="B59" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3164,9 +3170,9 @@
       </c>
       <c r="H1" s="9"/>
       <c r="J1" s="3"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="14">
@@ -3216,7 +3222,7 @@
       <c r="F3" s="14">
         <v>1</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="23">
         <v>0</v>
       </c>
       <c r="H3" s="14"/>
@@ -3225,11 +3231,11 @@
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
       <c r="B4" s="14">
@@ -3247,7 +3253,7 @@
       <c r="F4" s="14">
         <v>2</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <v>0</v>
       </c>
       <c r="H4" s="14"/>
@@ -3256,11 +3262,11 @@
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>3</v>
       </c>
       <c r="B5" s="14">
@@ -3278,7 +3284,7 @@
       <c r="F5" s="14">
         <v>2</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <v>0</v>
       </c>
       <c r="H5" s="14"/>
@@ -3287,11 +3293,11 @@
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
       <c r="B6" s="14">
@@ -3309,7 +3315,7 @@
       <c r="F6" s="14">
         <v>2</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <v>0</v>
       </c>
       <c r="H6" s="14"/>
@@ -3318,11 +3324,11 @@
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>5</v>
       </c>
       <c r="B7" s="14">
@@ -3340,7 +3346,7 @@
       <c r="F7" s="14">
         <v>2</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <v>0</v>
       </c>
       <c r="H7" s="14"/>
@@ -3349,11 +3355,11 @@
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>6</v>
       </c>
       <c r="B8" s="14">
@@ -3371,7 +3377,7 @@
       <c r="F8" s="14">
         <v>1</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="23">
         <v>0</v>
       </c>
       <c r="H8" s="14"/>
@@ -3380,11 +3386,11 @@
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>7</v>
       </c>
       <c r="B9" s="14">
@@ -3402,7 +3408,7 @@
       <c r="F9" s="14">
         <v>1</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <v>0</v>
       </c>
       <c r="H9" s="14"/>
@@ -3411,11 +3417,11 @@
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>8</v>
       </c>
       <c r="B10" s="14">
@@ -3433,7 +3439,7 @@
       <c r="F10" s="14">
         <v>1</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="23">
         <v>0</v>
       </c>
       <c r="H10" s="14"/>
@@ -3442,11 +3448,11 @@
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>9</v>
       </c>
       <c r="B11" s="14">
@@ -3464,7 +3470,7 @@
       <c r="F11" s="14">
         <v>1</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="23">
         <v>0</v>
       </c>
       <c r="H11" s="14"/>
@@ -3473,11 +3479,11 @@
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>10</v>
       </c>
       <c r="B12" s="14">
@@ -3495,7 +3501,7 @@
       <c r="F12" s="14">
         <v>1</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="23">
         <v>0</v>
       </c>
       <c r="H12" s="14"/>
@@ -3504,11 +3510,11 @@
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>11</v>
       </c>
       <c r="B13" s="14">
@@ -3526,7 +3532,7 @@
       <c r="F13" s="14">
         <v>1</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="23">
         <v>0</v>
       </c>
       <c r="H13" s="14"/>
@@ -3535,11 +3541,11 @@
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>12</v>
       </c>
       <c r="B14" s="14">
@@ -3557,7 +3563,7 @@
       <c r="F14" s="14">
         <v>2</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="23">
         <v>0</v>
       </c>
       <c r="H14" s="14"/>
@@ -3566,11 +3572,11 @@
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>13</v>
       </c>
       <c r="B15" s="14">
@@ -3588,7 +3594,7 @@
       <c r="F15" s="14">
         <v>2</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="23">
         <v>0</v>
       </c>
       <c r="H15" s="14"/>
@@ -3597,11 +3603,11 @@
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <v>14</v>
       </c>
       <c r="B16" s="14">
@@ -3619,7 +3625,7 @@
       <c r="F16" s="14">
         <v>2</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="23">
         <v>0</v>
       </c>
       <c r="H16" s="14"/>
@@ -3628,11 +3634,11 @@
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <v>15</v>
       </c>
       <c r="B17" s="14">
@@ -3650,7 +3656,7 @@
       <c r="F17" s="14">
         <v>2</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="23">
         <v>0</v>
       </c>
       <c r="H17" s="14"/>
@@ -3659,11 +3665,11 @@
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <v>16</v>
       </c>
       <c r="B18" s="14">
@@ -3681,7 +3687,7 @@
       <c r="F18" s="14">
         <v>2</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="23">
         <v>0</v>
       </c>
       <c r="H18" s="14"/>
@@ -3690,11 +3696,11 @@
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="21">
+      <c r="A19" s="20">
         <v>17</v>
       </c>
       <c r="B19" s="14">
@@ -3712,7 +3718,7 @@
       <c r="F19" s="14">
         <v>1</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="23">
         <v>0</v>
       </c>
       <c r="H19" s="14"/>
@@ -3721,11 +3727,11 @@
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="21">
+      <c r="A20" s="20">
         <v>18</v>
       </c>
       <c r="B20" s="14">
@@ -3743,7 +3749,7 @@
       <c r="F20" s="14">
         <v>1</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="23">
         <v>0</v>
       </c>
       <c r="H20" s="14"/>
@@ -3752,11 +3758,11 @@
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="21">
+      <c r="A21" s="20">
         <v>19</v>
       </c>
       <c r="B21" s="14">
@@ -3774,7 +3780,7 @@
       <c r="F21" s="14">
         <v>1</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="23">
         <v>0</v>
       </c>
       <c r="H21" s="14"/>
@@ -3783,11 +3789,11 @@
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="21">
+      <c r="A22" s="20">
         <v>20</v>
       </c>
       <c r="B22" s="14">
@@ -3805,7 +3811,7 @@
       <c r="F22" s="14">
         <v>2</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="23">
         <v>0</v>
       </c>
       <c r="H22" s="14"/>
@@ -3814,11 +3820,11 @@
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="21">
+      <c r="A23" s="20">
         <v>21</v>
       </c>
       <c r="B23" s="14">
@@ -3836,7 +3842,7 @@
       <c r="F23" s="14">
         <v>2</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="23">
         <v>0</v>
       </c>
       <c r="H23" s="14"/>
@@ -3845,11 +3851,11 @@
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="21">
+      <c r="A24" s="20">
         <v>22</v>
       </c>
       <c r="B24" s="14">
@@ -3867,7 +3873,7 @@
       <c r="F24" s="14">
         <v>1</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="23">
         <v>0</v>
       </c>
       <c r="H24" s="14"/>
@@ -3876,11 +3882,11 @@
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="21">
+      <c r="A25" s="20">
         <v>23</v>
       </c>
       <c r="B25" s="14">
@@ -3898,7 +3904,7 @@
       <c r="F25" s="14">
         <v>1</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="23">
         <v>0</v>
       </c>
       <c r="H25" s="14"/>
@@ -3907,11 +3913,11 @@
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="21">
+      <c r="A26" s="20">
         <v>24</v>
       </c>
       <c r="B26" s="14">
@@ -3929,7 +3935,7 @@
       <c r="F26" s="14">
         <v>1</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="23">
         <v>0</v>
       </c>
       <c r="H26" s="14"/>
@@ -3938,11 +3944,11 @@
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="21">
+      <c r="A27" s="20">
         <v>25</v>
       </c>
       <c r="B27" s="14">
@@ -3960,7 +3966,7 @@
       <c r="F27" s="14">
         <v>0</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="23">
         <v>0</v>
       </c>
       <c r="H27" s="14"/>
@@ -3969,11 +3975,11 @@
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="21">
+      <c r="A28" s="20">
         <v>26</v>
       </c>
       <c r="B28" s="14">
@@ -3991,7 +3997,7 @@
       <c r="F28" s="14">
         <v>1</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="23">
         <v>0</v>
       </c>
       <c r="H28" s="14"/>
@@ -4000,11 +4006,11 @@
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="21">
+      <c r="A29" s="20">
         <v>27</v>
       </c>
       <c r="B29" s="14">
@@ -4022,7 +4028,7 @@
       <c r="F29" s="14">
         <v>1</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="23">
         <v>0</v>
       </c>
       <c r="H29" s="14"/>
@@ -4031,11 +4037,11 @@
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="21">
+      <c r="A30" s="20">
         <v>28</v>
       </c>
       <c r="B30" s="14">
@@ -4053,7 +4059,7 @@
       <c r="F30" s="14">
         <v>2</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="23">
         <v>0</v>
       </c>
       <c r="H30" s="14"/>
@@ -4062,11 +4068,11 @@
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="21">
+      <c r="A31" s="20">
         <v>29</v>
       </c>
       <c r="B31" s="14">
@@ -4084,7 +4090,7 @@
       <c r="F31" s="14">
         <v>1</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="23">
         <v>0</v>
       </c>
       <c r="H31" s="14"/>
@@ -4093,11 +4099,11 @@
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
       <c r="O31" s="15"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="21">
+      <c r="A32" s="20">
         <v>30</v>
       </c>
       <c r="B32" s="14">
@@ -4115,7 +4121,7 @@
       <c r="F32" s="14">
         <v>1</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="23">
         <v>0</v>
       </c>
       <c r="H32" s="14"/>
@@ -4124,11 +4130,11 @@
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
       <c r="O32" s="15"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="21">
+      <c r="A33" s="20">
         <v>31</v>
       </c>
       <c r="B33" s="14">
@@ -4146,7 +4152,7 @@
       <c r="F33" s="14">
         <v>1</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="23">
         <v>0</v>
       </c>
       <c r="H33" s="14"/>
@@ -4155,11 +4161,11 @@
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="21">
+      <c r="A34" s="20">
         <v>32</v>
       </c>
       <c r="B34" s="14">
@@ -4177,7 +4183,7 @@
       <c r="F34" s="14">
         <v>1</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="23">
         <v>0</v>
       </c>
       <c r="H34" s="14"/>
@@ -4186,11 +4192,11 @@
       <c r="M34" s="15"/>
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="21">
+      <c r="A35" s="20">
         <v>33</v>
       </c>
       <c r="B35" s="14">
@@ -4208,7 +4214,7 @@
       <c r="F35" s="14">
         <v>0</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="23">
         <v>0</v>
       </c>
       <c r="H35" s="14"/>
@@ -4217,11 +4223,11 @@
       <c r="M35" s="15"/>
       <c r="N35" s="15"/>
       <c r="O35" s="15"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="21">
+      <c r="A36" s="20">
         <v>34</v>
       </c>
       <c r="B36" s="14">
@@ -4239,7 +4245,7 @@
       <c r="F36" s="14">
         <v>1</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="23">
         <v>0</v>
       </c>
       <c r="H36" s="14"/>
@@ -4248,11 +4254,11 @@
       <c r="M36" s="15"/>
       <c r="N36" s="15"/>
       <c r="O36" s="15"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="21">
+      <c r="A37" s="20">
         <v>35</v>
       </c>
       <c r="B37" s="14">
@@ -4270,7 +4276,7 @@
       <c r="F37" s="14">
         <v>1</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="23">
         <v>0</v>
       </c>
       <c r="H37" s="14"/>
@@ -4279,11 +4285,11 @@
       <c r="M37" s="15"/>
       <c r="N37" s="15"/>
       <c r="O37" s="15"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="21">
+      <c r="A38" s="20">
         <v>36</v>
       </c>
       <c r="B38" s="3">
@@ -4301,18 +4307,18 @@
       <c r="F38" s="3">
         <v>0</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="23">
         <v>0</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="4"/>
       <c r="J38" s="3"/>
       <c r="M38" s="17"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="21">
+      <c r="A39" s="20">
         <v>37</v>
       </c>
       <c r="B39" s="14">
@@ -4330,7 +4336,7 @@
       <c r="F39" s="14">
         <v>0</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="23">
         <v>0</v>
       </c>
       <c r="H39" s="14"/>
@@ -4339,11 +4345,11 @@
       <c r="M39" s="15"/>
       <c r="N39" s="15"/>
       <c r="O39" s="15"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="21">
+      <c r="A40" s="20">
         <v>38</v>
       </c>
       <c r="B40" s="14">
@@ -4361,7 +4367,7 @@
       <c r="F40" s="14">
         <v>1</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="23">
         <v>0</v>
       </c>
       <c r="H40" s="14"/>
@@ -4370,11 +4376,11 @@
       <c r="M40" s="15"/>
       <c r="N40" s="15"/>
       <c r="O40" s="15"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="21">
+      <c r="A41" s="20">
         <v>39</v>
       </c>
       <c r="B41" s="14">
@@ -4392,7 +4398,7 @@
       <c r="F41" s="14">
         <v>1</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="23">
         <v>0</v>
       </c>
       <c r="H41" s="14"/>
@@ -4401,11 +4407,11 @@
       <c r="M41" s="15"/>
       <c r="N41" s="15"/>
       <c r="O41" s="15"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="21">
+      <c r="A42" s="20">
         <v>40</v>
       </c>
       <c r="B42" s="14">
@@ -4423,7 +4429,7 @@
       <c r="F42" s="14">
         <v>1</v>
       </c>
-      <c r="G42" s="24">
+      <c r="G42" s="23">
         <v>0</v>
       </c>
       <c r="H42" s="14"/>
@@ -4432,11 +4438,11 @@
       <c r="M42" s="15"/>
       <c r="N42" s="15"/>
       <c r="O42" s="15"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="21">
+      <c r="A43" s="20">
         <v>41</v>
       </c>
       <c r="B43" s="14">
@@ -4454,7 +4460,7 @@
       <c r="F43" s="14">
         <v>1</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="23">
         <v>0</v>
       </c>
       <c r="H43" s="14"/>
@@ -4463,11 +4469,11 @@
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="21">
+      <c r="A44" s="20">
         <v>42</v>
       </c>
       <c r="B44" s="14">
@@ -4485,7 +4491,7 @@
       <c r="F44" s="14">
         <v>0</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G44" s="23">
         <v>0</v>
       </c>
       <c r="H44" s="14"/>
@@ -4494,11 +4500,11 @@
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
       <c r="O44" s="15"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="21">
+      <c r="A45" s="20">
         <v>43</v>
       </c>
       <c r="B45" s="14">
@@ -4525,11 +4531,11 @@
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
       <c r="O45" s="16"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="21">
+      <c r="A46" s="20">
         <v>44</v>
       </c>
       <c r="B46" s="14">
@@ -4547,7 +4553,7 @@
       <c r="F46" s="14">
         <v>0</v>
       </c>
-      <c r="G46" s="24">
+      <c r="G46" s="23">
         <v>1</v>
       </c>
       <c r="H46" s="14"/>
@@ -4556,11 +4562,11 @@
       <c r="M46" s="15"/>
       <c r="N46" s="15"/>
       <c r="O46" s="16"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="21">
+      <c r="A47" s="20">
         <v>45</v>
       </c>
       <c r="B47" s="14">
@@ -4578,7 +4584,7 @@
       <c r="F47" s="14">
         <v>0</v>
       </c>
-      <c r="G47" s="24">
+      <c r="G47" s="23">
         <v>1</v>
       </c>
       <c r="H47" s="14"/>
@@ -4587,11 +4593,11 @@
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
       <c r="O47" s="16"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="21">
+      <c r="A48" s="20">
         <v>46</v>
       </c>
       <c r="B48" s="14">
@@ -4609,7 +4615,7 @@
       <c r="F48" s="14">
         <v>0</v>
       </c>
-      <c r="G48" s="24">
+      <c r="G48" s="23">
         <v>1</v>
       </c>
       <c r="H48" s="14"/>
@@ -4618,11 +4624,11 @@
       <c r="M48" s="15"/>
       <c r="N48" s="15"/>
       <c r="O48" s="16"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="21">
+      <c r="A49" s="20">
         <v>47</v>
       </c>
       <c r="B49" s="14">
@@ -4640,7 +4646,7 @@
       <c r="F49" s="14">
         <v>0</v>
       </c>
-      <c r="G49" s="24">
+      <c r="G49" s="23">
         <v>1</v>
       </c>
       <c r="H49" s="14"/>
@@ -4649,11 +4655,11 @@
       <c r="M49" s="15"/>
       <c r="N49" s="15"/>
       <c r="O49" s="16"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
     </row>
     <row r="50" spans="1:17">
-      <c r="A50" s="21">
+      <c r="A50" s="20">
         <v>48</v>
       </c>
       <c r="B50" s="14">
@@ -4671,7 +4677,7 @@
       <c r="F50" s="14">
         <v>0</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G50" s="23">
         <v>1</v>
       </c>
       <c r="H50" s="14"/>
@@ -4680,11 +4686,11 @@
       <c r="M50" s="15"/>
       <c r="N50" s="15"/>
       <c r="O50" s="16"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="21">
+      <c r="A51" s="20">
         <v>49</v>
       </c>
       <c r="B51" s="14">
@@ -4702,7 +4708,7 @@
       <c r="F51" s="14">
         <v>0</v>
       </c>
-      <c r="G51" s="24">
+      <c r="G51" s="23">
         <v>1</v>
       </c>
       <c r="H51" s="14"/>
@@ -4711,11 +4717,11 @@
       <c r="M51" s="15"/>
       <c r="N51" s="15"/>
       <c r="O51" s="16"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="21">
+      <c r="A52" s="20">
         <v>50</v>
       </c>
       <c r="B52" s="14">
@@ -4733,7 +4739,7 @@
       <c r="F52" s="14">
         <v>0</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G52" s="23">
         <v>1</v>
       </c>
       <c r="H52" s="14"/>
@@ -4742,11 +4748,11 @@
       <c r="M52" s="15"/>
       <c r="N52" s="15"/>
       <c r="O52" s="16"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
     </row>
     <row r="53" spans="1:17">
-      <c r="A53" s="21">
+      <c r="A53" s="20">
         <v>51</v>
       </c>
       <c r="B53" s="14">
@@ -4764,7 +4770,7 @@
       <c r="F53" s="14">
         <v>0</v>
       </c>
-      <c r="G53" s="24">
+      <c r="G53" s="23">
         <v>1</v>
       </c>
       <c r="H53" s="14"/>
@@ -4773,11 +4779,11 @@
       <c r="M53" s="15"/>
       <c r="N53" s="15"/>
       <c r="O53" s="16"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="21">
+      <c r="A54" s="20">
         <v>52</v>
       </c>
       <c r="B54" s="14">
@@ -4795,7 +4801,7 @@
       <c r="F54" s="14">
         <v>0</v>
       </c>
-      <c r="G54" s="24">
+      <c r="G54" s="23">
         <v>1</v>
       </c>
       <c r="H54" s="14"/>
@@ -4804,11 +4810,11 @@
       <c r="M54" s="15"/>
       <c r="N54" s="15"/>
       <c r="O54" s="16"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="21">
+      <c r="A55" s="20">
         <v>53</v>
       </c>
       <c r="B55" s="14">
@@ -4826,7 +4832,7 @@
       <c r="F55" s="14">
         <v>0</v>
       </c>
-      <c r="G55" s="24">
+      <c r="G55" s="23">
         <v>1</v>
       </c>
       <c r="H55" s="14"/>
@@ -4835,11 +4841,11 @@
       <c r="M55" s="15"/>
       <c r="N55" s="15"/>
       <c r="O55" s="16"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="21">
+      <c r="A56" s="20">
         <v>54</v>
       </c>
       <c r="B56" s="14">
@@ -4857,7 +4863,7 @@
       <c r="F56" s="14">
         <v>0</v>
       </c>
-      <c r="G56" s="24">
+      <c r="G56" s="23">
         <v>1</v>
       </c>
       <c r="H56" s="14"/>
@@ -4866,11 +4872,11 @@
       <c r="M56" s="15"/>
       <c r="N56" s="15"/>
       <c r="O56" s="16"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="21">
+      <c r="A57" s="20">
         <v>55</v>
       </c>
       <c r="B57" s="14">
@@ -4888,7 +4894,7 @@
       <c r="F57" s="14">
         <v>0</v>
       </c>
-      <c r="G57" s="24">
+      <c r="G57" s="23">
         <v>1</v>
       </c>
       <c r="H57" s="14"/>
@@ -4897,11 +4903,11 @@
       <c r="M57" s="15"/>
       <c r="N57" s="15"/>
       <c r="O57" s="16"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="21">
+      <c r="A58" s="20">
         <v>56</v>
       </c>
       <c r="B58" s="14">
@@ -4919,7 +4925,7 @@
       <c r="F58" s="14">
         <v>0</v>
       </c>
-      <c r="G58" s="24">
+      <c r="G58" s="23">
         <v>1</v>
       </c>
       <c r="H58" s="14"/>
@@ -4928,11 +4934,11 @@
       <c r="M58" s="15"/>
       <c r="N58" s="15"/>
       <c r="O58" s="16"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
     </row>
     <row r="59" spans="1:17">
-      <c r="A59" s="21">
+      <c r="A59" s="20">
         <v>57</v>
       </c>
       <c r="B59" s="3">
@@ -4950,7 +4956,7 @@
       <c r="F59" s="14">
         <v>0</v>
       </c>
-      <c r="G59" s="24">
+      <c r="G59" s="23">
         <v>1</v>
       </c>
       <c r="H59" s="14"/>
@@ -4959,11 +4965,11 @@
       <c r="M59" s="15"/>
       <c r="N59" s="15"/>
       <c r="O59" s="16"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="21">
+      <c r="A60" s="20">
         <v>58</v>
       </c>
       <c r="B60" s="14">
@@ -4981,7 +4987,7 @@
       <c r="F60" s="14">
         <v>0</v>
       </c>
-      <c r="G60" s="24">
+      <c r="G60" s="23">
         <v>1</v>
       </c>
       <c r="H60" s="14"/>
@@ -4990,11 +4996,11 @@
       <c r="M60" s="15"/>
       <c r="N60" s="15"/>
       <c r="O60" s="16"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="21">
+      <c r="A61" s="20">
         <v>59</v>
       </c>
       <c r="B61" s="14">
@@ -5012,7 +5018,7 @@
       <c r="F61" s="14">
         <v>0</v>
       </c>
-      <c r="G61" s="24">
+      <c r="G61" s="23">
         <v>1</v>
       </c>
       <c r="H61" s="14"/>
@@ -5021,11 +5027,11 @@
       <c r="M61" s="15"/>
       <c r="N61" s="15"/>
       <c r="O61" s="16"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" s="21">
+      <c r="A62" s="20">
         <v>60</v>
       </c>
       <c r="B62" s="14">
@@ -5043,7 +5049,7 @@
       <c r="F62" s="14">
         <v>0</v>
       </c>
-      <c r="G62" s="24">
+      <c r="G62" s="23">
         <v>1</v>
       </c>
       <c r="H62" s="14"/>
@@ -5052,11 +5058,11 @@
       <c r="M62" s="15"/>
       <c r="N62" s="15"/>
       <c r="O62" s="16"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="21">
+      <c r="A63" s="20">
         <v>61</v>
       </c>
       <c r="B63" s="14">
@@ -5074,7 +5080,7 @@
       <c r="F63" s="14">
         <v>0</v>
       </c>
-      <c r="G63" s="24">
+      <c r="G63" s="23">
         <v>1</v>
       </c>
       <c r="H63" s="14"/>
@@ -5083,11 +5089,11 @@
       <c r="M63" s="15"/>
       <c r="N63" s="15"/>
       <c r="O63" s="16"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="21">
+      <c r="A64" s="20">
         <v>62</v>
       </c>
       <c r="B64" s="14">
@@ -5105,7 +5111,7 @@
       <c r="F64" s="14">
         <v>0</v>
       </c>
-      <c r="G64" s="24">
+      <c r="G64" s="23">
         <v>1</v>
       </c>
       <c r="H64" s="14"/>
@@ -5114,11 +5120,11 @@
       <c r="M64" s="15"/>
       <c r="N64" s="15"/>
       <c r="O64" s="16"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
     </row>
     <row r="65" spans="1:17">
-      <c r="A65" s="21">
+      <c r="A65" s="20">
         <v>63</v>
       </c>
       <c r="B65" s="14">
@@ -5136,7 +5142,7 @@
       <c r="F65" s="14">
         <v>0</v>
       </c>
-      <c r="G65" s="24">
+      <c r="G65" s="23">
         <v>1</v>
       </c>
       <c r="H65" s="14"/>
@@ -5145,11 +5151,11 @@
       <c r="M65" s="15"/>
       <c r="N65" s="15"/>
       <c r="O65" s="16"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="21">
+      <c r="A66" s="20">
         <v>64</v>
       </c>
       <c r="B66" s="14">
@@ -5167,7 +5173,7 @@
       <c r="F66" s="14">
         <v>0</v>
       </c>
-      <c r="G66" s="24">
+      <c r="G66" s="23">
         <v>1</v>
       </c>
       <c r="H66" s="14"/>
@@ -5176,11 +5182,11 @@
       <c r="M66" s="15"/>
       <c r="N66" s="15"/>
       <c r="O66" s="16"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
     </row>
     <row r="67" spans="1:17">
-      <c r="A67" s="21">
+      <c r="A67" s="20">
         <v>65</v>
       </c>
       <c r="B67" s="14">
@@ -5198,7 +5204,7 @@
       <c r="F67" s="14">
         <v>0</v>
       </c>
-      <c r="G67" s="24">
+      <c r="G67" s="23">
         <v>1</v>
       </c>
       <c r="H67" s="14"/>
@@ -5207,11 +5213,11 @@
       <c r="M67" s="15"/>
       <c r="N67" s="15"/>
       <c r="O67" s="16"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="21">
+      <c r="A68" s="20">
         <v>66</v>
       </c>
       <c r="B68" s="14">
@@ -5229,7 +5235,7 @@
       <c r="F68" s="14">
         <v>0</v>
       </c>
-      <c r="G68" s="24">
+      <c r="G68" s="23">
         <v>1</v>
       </c>
       <c r="H68" s="14"/>
@@ -5238,11 +5244,11 @@
       <c r="M68" s="15"/>
       <c r="N68" s="15"/>
       <c r="O68" s="16"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="21">
+      <c r="A69" s="20">
         <v>67</v>
       </c>
       <c r="B69" s="14">
@@ -5260,7 +5266,7 @@
       <c r="F69" s="14">
         <v>0</v>
       </c>
-      <c r="G69" s="24">
+      <c r="G69" s="23">
         <v>1</v>
       </c>
       <c r="H69" s="14"/>
@@ -5269,11 +5275,11 @@
       <c r="M69" s="15"/>
       <c r="N69" s="15"/>
       <c r="O69" s="16"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" s="21">
+      <c r="A70" s="20">
         <v>68</v>
       </c>
       <c r="B70" s="14">
@@ -5291,7 +5297,7 @@
       <c r="F70" s="14">
         <v>0</v>
       </c>
-      <c r="G70" s="24">
+      <c r="G70" s="23">
         <v>1</v>
       </c>
       <c r="H70" s="14"/>
@@ -5300,11 +5306,11 @@
       <c r="M70" s="15"/>
       <c r="N70" s="15"/>
       <c r="O70" s="16"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="18"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="21">
+      <c r="A71" s="20">
         <v>69</v>
       </c>
       <c r="B71" s="14">
@@ -5322,7 +5328,7 @@
       <c r="F71" s="14">
         <v>0</v>
       </c>
-      <c r="G71" s="24">
+      <c r="G71" s="23">
         <v>1</v>
       </c>
       <c r="H71" s="14"/>
@@ -5331,11 +5337,11 @@
       <c r="M71" s="15"/>
       <c r="N71" s="15"/>
       <c r="O71" s="16"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="21">
+      <c r="A72" s="20">
         <v>70</v>
       </c>
       <c r="B72" s="14">
@@ -5353,7 +5359,7 @@
       <c r="F72" s="14">
         <v>0</v>
       </c>
-      <c r="G72" s="24">
+      <c r="G72" s="23">
         <v>1</v>
       </c>
       <c r="H72" s="14"/>
@@ -5362,11 +5368,11 @@
       <c r="M72" s="15"/>
       <c r="N72" s="15"/>
       <c r="O72" s="16"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
     </row>
     <row r="73" spans="1:17">
-      <c r="A73" s="21">
+      <c r="A73" s="20">
         <v>71</v>
       </c>
       <c r="B73" s="14">
@@ -5384,7 +5390,7 @@
       <c r="F73" s="14">
         <v>0</v>
       </c>
-      <c r="G73" s="24">
+      <c r="G73" s="23">
         <v>1</v>
       </c>
       <c r="H73" s="14"/>
@@ -5393,11 +5399,11 @@
       <c r="M73" s="15"/>
       <c r="N73" s="15"/>
       <c r="O73" s="16"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
     </row>
     <row r="74" spans="1:17">
-      <c r="A74" s="21">
+      <c r="A74" s="20">
         <v>72</v>
       </c>
       <c r="B74" s="14">
@@ -5415,7 +5421,7 @@
       <c r="F74" s="14">
         <v>0</v>
       </c>
-      <c r="G74" s="24">
+      <c r="G74" s="23">
         <v>1</v>
       </c>
       <c r="H74" s="14"/>
@@ -5424,11 +5430,11 @@
       <c r="M74" s="15"/>
       <c r="N74" s="15"/>
       <c r="O74" s="16"/>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
     </row>
     <row r="75" spans="1:17">
-      <c r="A75" s="21">
+      <c r="A75" s="20">
         <v>73</v>
       </c>
       <c r="B75" s="14">
@@ -5446,7 +5452,7 @@
       <c r="F75" s="14">
         <v>0</v>
       </c>
-      <c r="G75" s="24">
+      <c r="G75" s="23">
         <v>1</v>
       </c>
       <c r="H75" s="14"/>
@@ -5455,11 +5461,11 @@
       <c r="M75" s="15"/>
       <c r="N75" s="15"/>
       <c r="O75" s="16"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
     </row>
     <row r="76" spans="1:17">
-      <c r="A76" s="21">
+      <c r="A76" s="20">
         <v>74</v>
       </c>
       <c r="B76" s="3">
@@ -5477,7 +5483,7 @@
       <c r="F76" s="14">
         <v>0</v>
       </c>
-      <c r="G76" s="24">
+      <c r="G76" s="23">
         <v>1</v>
       </c>
       <c r="H76" s="14"/>
@@ -5486,11 +5492,11 @@
       <c r="M76" s="15"/>
       <c r="N76" s="15"/>
       <c r="O76" s="16"/>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
     </row>
     <row r="77" spans="1:17">
-      <c r="A77" s="21">
+      <c r="A77" s="20">
         <v>75</v>
       </c>
       <c r="B77" s="14">
@@ -5508,7 +5514,7 @@
       <c r="F77" s="14">
         <v>0</v>
       </c>
-      <c r="G77" s="24">
+      <c r="G77" s="23">
         <v>1</v>
       </c>
       <c r="H77" s="14"/>
@@ -5517,11 +5523,11 @@
       <c r="M77" s="15"/>
       <c r="N77" s="15"/>
       <c r="O77" s="16"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
     </row>
     <row r="78" spans="1:17">
-      <c r="A78" s="21">
+      <c r="A78" s="20">
         <v>76</v>
       </c>
       <c r="B78" s="14">
@@ -5539,7 +5545,7 @@
       <c r="F78" s="14">
         <v>0</v>
       </c>
-      <c r="G78" s="24">
+      <c r="G78" s="23">
         <v>1</v>
       </c>
       <c r="H78" s="14"/>
@@ -5548,11 +5554,11 @@
       <c r="M78" s="15"/>
       <c r="N78" s="15"/>
       <c r="O78" s="16"/>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="19"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
     </row>
     <row r="79" spans="1:17">
-      <c r="A79" s="21">
+      <c r="A79" s="20">
         <v>77</v>
       </c>
       <c r="B79" s="14">
@@ -5570,7 +5576,7 @@
       <c r="F79" s="14">
         <v>0</v>
       </c>
-      <c r="G79" s="24">
+      <c r="G79" s="23">
         <v>1</v>
       </c>
       <c r="H79" s="14"/>
@@ -5579,8 +5585,8 @@
       <c r="M79" s="15"/>
       <c r="N79" s="15"/>
       <c r="O79" s="16"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="9"/>
@@ -5607,7 +5613,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -5624,22 +5630,22 @@
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -5652,13 +5658,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5">
-        <v>47</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
@@ -5671,13 +5677,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>48</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
@@ -5690,13 +5696,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="7">
-        <v>49</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -5709,13 +5715,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7">
-        <v>50</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -5728,13 +5734,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7">
-        <v>51</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -5747,13 +5753,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>52</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -5766,13 +5772,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7">
-        <v>53</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -5785,13 +5791,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
-        <v>54</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -5804,13 +5810,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>55</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -5823,13 +5829,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7">
-        <v>56</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -5842,13 +5848,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7">
-        <v>57</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -5885,9 +5891,9 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
@@ -5947,8 +5953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -5971,9 +5977,9 @@
         <v>6</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
@@ -6010,7 +6016,7 @@
       <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -6019,7 +6025,7 @@
       <c r="C4" s="1">
         <v>58.5</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -6028,7 +6034,7 @@
       <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -6046,7 +6052,7 @@
       <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -6055,7 +6061,7 @@
       <c r="C6" s="1">
         <v>18</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>2</v>
       </c>
       <c r="F6" s="15"/>
@@ -6063,7 +6069,7 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -6072,7 +6078,7 @@
       <c r="C7" s="1">
         <v>55</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>2</v>
       </c>
       <c r="F7" s="15"/>
@@ -6080,7 +6086,7 @@
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>6</v>
       </c>
       <c r="B8" s="1">
@@ -6089,7 +6095,7 @@
       <c r="C8" s="1">
         <v>20</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>1</v>
       </c>
       <c r="F8" s="15"/>
@@ -6097,7 +6103,7 @@
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>7</v>
       </c>
       <c r="B9" s="1">
@@ -6106,7 +6112,7 @@
       <c r="C9" s="1">
         <v>20</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>1</v>
       </c>
       <c r="F9" s="15"/>
@@ -6114,7 +6120,7 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>8</v>
       </c>
       <c r="B10" s="1">
@@ -6123,7 +6129,7 @@
       <c r="C10" s="1">
         <v>80</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>1</v>
       </c>
       <c r="F10" s="15"/>
@@ -6131,7 +6137,7 @@
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>9</v>
       </c>
       <c r="B11" s="1">
@@ -6140,7 +6146,7 @@
       <c r="C11" s="1">
         <v>35</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>0</v>
       </c>
       <c r="F11" s="15"/>
@@ -6148,7 +6154,7 @@
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>10</v>
       </c>
       <c r="B12" s="1">
@@ -6157,7 +6163,7 @@
       <c r="C12" s="1">
         <v>30</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>1</v>
       </c>
       <c r="F12" s="15"/>
@@ -6165,7 +6171,7 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>11</v>
       </c>
       <c r="B13" s="1">
@@ -6174,7 +6180,7 @@
       <c r="C13" s="1">
         <v>30</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>1</v>
       </c>
       <c r="F13" s="15"/>
@@ -6182,7 +6188,7 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>12</v>
       </c>
       <c r="B14" s="1">
@@ -6191,7 +6197,7 @@
       <c r="C14" s="1">
         <v>45</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>1</v>
       </c>
       <c r="F14" s="15"/>
@@ -6199,7 +6205,7 @@
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="21">
+      <c r="A15" s="20">
         <v>13</v>
       </c>
       <c r="B15" s="1">
@@ -6208,7 +6214,7 @@
       <c r="C15" s="1">
         <v>25</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <v>0</v>
       </c>
       <c r="F15" s="15"/>
@@ -6216,7 +6222,7 @@
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <v>14</v>
       </c>
       <c r="B16" s="1">
@@ -6225,7 +6231,7 @@
       <c r="C16" s="1">
         <v>45</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <v>1</v>
       </c>
       <c r="F16" s="15"/>
@@ -6233,7 +6239,7 @@
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <v>15</v>
       </c>
       <c r="B17" s="1">
@@ -6242,7 +6248,7 @@
       <c r="C17" s="1">
         <v>25</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <v>0</v>
       </c>
       <c r="F17" s="15"/>
@@ -6250,7 +6256,7 @@
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <v>16</v>
       </c>
       <c r="B18" s="1">
@@ -6259,7 +6265,7 @@
       <c r="C18" s="1">
         <v>30</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <v>1</v>
       </c>
       <c r="F18" s="15"/>
@@ -6277,7 +6283,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -6286,30 +6292,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="10" t="s">
@@ -6327,40 +6333,40 @@
       <c r="E2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7652,13 +7658,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="21"/>
+    <col min="1" max="16384" width="10.83203125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7673,105 +7679,105 @@
       <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="27">
-        <v>0</v>
-      </c>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="26">
+        <v>0</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="26">
         <v>120</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="26">
         <v>0.35799999999999998</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="26">
         <v>0.13</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="26">
         <v>129232</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="27">
-        <v>1</v>
-      </c>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="26">
+        <v>1</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="26">
         <v>30</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="26">
         <v>0.373</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="26">
         <v>0.21</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="26">
         <v>38524</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="26" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <v>90</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <v>0.36499999999999999</v>
       </c>
-      <c r="E5" s="27">
-        <v>0</v>
-      </c>
-      <c r="F5" s="27">
+      <c r="E5" s="26">
+        <v>0</v>
+      </c>
+      <c r="F5" s="26">
         <v>70286</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="28" t="s">
@@ -7781,74 +7787,74 @@
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="27">
-        <v>0</v>
-      </c>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="26">
+        <v>0</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="26">
         <v>100</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="26">
         <v>0.64</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <v>152767</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="27">
-        <v>1</v>
-      </c>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="26">
+        <v>1</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <v>50</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="26">
         <v>0.64</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <v>152767</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="28" t="s">
@@ -7858,74 +7864,74 @@
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="27">
-        <v>0</v>
-      </c>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="26">
+        <v>0</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="26">
         <v>120</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="26">
         <v>83</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="26">
         <v>36934</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="27">
-        <v>1</v>
-      </c>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="26">
+        <v>1</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="26">
         <v>60</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="26">
         <v>83</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="26">
         <v>36934</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="28" t="s">
@@ -7934,86 +7940,86 @@
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="27">
-        <v>0</v>
-      </c>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="26">
+        <v>0</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="26">
         <v>32.799999999999997</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="26">
         <v>119378</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="27">
-        <v>1</v>
-      </c>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="26">
+        <v>1</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="26">
         <v>15.9</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="26">
         <v>105511</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="27">
+      <c r="A21" s="26">
         <v>2</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="26">
         <v>99.7</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="26">
         <v>98733</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Security-Constrained-ACDC-Planning/data/Data-Ninghai.xlsx
+++ b/Security-Constrained-ACDC-Planning/data/Data-Ninghai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liupengxiang/Documents/GitHub/Coding-Paper/Security-Constrained-ACDC-Planning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8962EA6F-BD2E-2444-947E-4C2B119C8980}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04380280-08C0-C342-9A08-6931A6CE1B08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>AC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,7 +289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,6 +369,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -660,7 +666,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -690,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="C2" s="8">
         <v>129.5</v>
@@ -707,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="C3" s="8">
         <v>144.1</v>
@@ -724,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="C4" s="8">
         <v>256.5</v>
@@ -1665,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -2926,19 +2932,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C51" s="22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D51" s="22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E51" s="22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F51" s="22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
@@ -3001,19 +3007,19 @@
         <v>52</v>
       </c>
       <c r="B54" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
@@ -3135,8 +3141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -3166,9 +3172,11 @@
         <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9"/>
       <c r="J1" s="3"/>
       <c r="M1" s="21"/>
       <c r="N1" s="21"/>
@@ -3193,10 +3201,12 @@
       <c r="F2" s="14">
         <v>1</v>
       </c>
-      <c r="G2" s="14">
-        <v>0</v>
-      </c>
-      <c r="H2" s="14"/>
+      <c r="G2" s="3">
+        <v>110</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="M2" s="9"/>
@@ -3222,10 +3232,12 @@
       <c r="F3" s="14">
         <v>1</v>
       </c>
-      <c r="G3" s="23">
-        <v>0</v>
-      </c>
-      <c r="H3" s="14"/>
+      <c r="G3" s="28">
+        <v>110</v>
+      </c>
+      <c r="H3" s="23">
+        <v>0</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="M3" s="15"/>
@@ -3253,10 +3265,12 @@
       <c r="F4" s="14">
         <v>2</v>
       </c>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14"/>
+      <c r="G4" s="28">
+        <v>110</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="M4" s="15"/>
@@ -3284,10 +3298,12 @@
       <c r="F5" s="14">
         <v>2</v>
       </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14"/>
+      <c r="G5" s="28">
+        <v>110</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="M5" s="15"/>
@@ -3315,10 +3331,12 @@
       <c r="F6" s="14">
         <v>2</v>
       </c>
-      <c r="G6" s="23">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14"/>
+      <c r="G6" s="28">
+        <v>110</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="M6" s="15"/>
@@ -3346,10 +3364,12 @@
       <c r="F7" s="14">
         <v>2</v>
       </c>
-      <c r="G7" s="23">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14"/>
+      <c r="G7" s="28">
+        <v>110</v>
+      </c>
+      <c r="H7" s="23">
+        <v>0</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="M7" s="15"/>
@@ -3377,10 +3397,12 @@
       <c r="F8" s="14">
         <v>1</v>
       </c>
-      <c r="G8" s="23">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14"/>
+      <c r="G8" s="28">
+        <v>110</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="M8" s="15"/>
@@ -3408,10 +3430,12 @@
       <c r="F9" s="14">
         <v>1</v>
       </c>
-      <c r="G9" s="23">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14"/>
+      <c r="G9" s="28">
+        <v>110</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="M9" s="15"/>
@@ -3439,10 +3463,12 @@
       <c r="F10" s="14">
         <v>1</v>
       </c>
-      <c r="G10" s="23">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14"/>
+      <c r="G10" s="3">
+        <v>35</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="M10" s="15"/>
@@ -3470,10 +3496,12 @@
       <c r="F11" s="14">
         <v>1</v>
       </c>
-      <c r="G11" s="23">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14"/>
+      <c r="G11" s="28">
+        <v>35</v>
+      </c>
+      <c r="H11" s="23">
+        <v>0</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="M11" s="15"/>
@@ -3501,10 +3529,12 @@
       <c r="F12" s="14">
         <v>1</v>
       </c>
-      <c r="G12" s="23">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14"/>
+      <c r="G12" s="28">
+        <v>35</v>
+      </c>
+      <c r="H12" s="23">
+        <v>0</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="M12" s="15"/>
@@ -3532,10 +3562,12 @@
       <c r="F13" s="14">
         <v>1</v>
       </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14"/>
+      <c r="G13" s="28">
+        <v>35</v>
+      </c>
+      <c r="H13" s="23">
+        <v>0</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="M13" s="15"/>
@@ -3563,10 +3595,12 @@
       <c r="F14" s="14">
         <v>2</v>
       </c>
-      <c r="G14" s="23">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14"/>
+      <c r="G14" s="28">
+        <v>35</v>
+      </c>
+      <c r="H14" s="23">
+        <v>0</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="M14" s="15"/>
@@ -3594,10 +3628,12 @@
       <c r="F15" s="14">
         <v>2</v>
       </c>
-      <c r="G15" s="23">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14"/>
+      <c r="G15" s="3">
+        <v>110</v>
+      </c>
+      <c r="H15" s="23">
+        <v>0</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="M15" s="15"/>
@@ -3625,10 +3661,12 @@
       <c r="F16" s="14">
         <v>2</v>
       </c>
-      <c r="G16" s="23">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14"/>
+      <c r="G16" s="28">
+        <v>110</v>
+      </c>
+      <c r="H16" s="23">
+        <v>0</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="M16" s="15"/>
@@ -3656,10 +3694,12 @@
       <c r="F17" s="14">
         <v>2</v>
       </c>
-      <c r="G17" s="23">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14"/>
+      <c r="G17" s="28">
+        <v>110</v>
+      </c>
+      <c r="H17" s="23">
+        <v>0</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="M17" s="15"/>
@@ -3687,10 +3727,12 @@
       <c r="F18" s="14">
         <v>2</v>
       </c>
-      <c r="G18" s="23">
-        <v>0</v>
-      </c>
-      <c r="H18" s="14"/>
+      <c r="G18" s="28">
+        <v>110</v>
+      </c>
+      <c r="H18" s="23">
+        <v>0</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="M18" s="15"/>
@@ -3718,10 +3760,12 @@
       <c r="F19" s="14">
         <v>1</v>
       </c>
-      <c r="G19" s="23">
-        <v>0</v>
-      </c>
-      <c r="H19" s="14"/>
+      <c r="G19" s="28">
+        <v>110</v>
+      </c>
+      <c r="H19" s="23">
+        <v>0</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="M19" s="15"/>
@@ -3749,10 +3793,12 @@
       <c r="F20" s="14">
         <v>1</v>
       </c>
-      <c r="G20" s="23">
-        <v>0</v>
-      </c>
-      <c r="H20" s="14"/>
+      <c r="G20" s="28">
+        <v>110</v>
+      </c>
+      <c r="H20" s="23">
+        <v>0</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="M20" s="15"/>
@@ -3780,10 +3826,12 @@
       <c r="F21" s="14">
         <v>1</v>
       </c>
-      <c r="G21" s="23">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14"/>
+      <c r="G21" s="3">
+        <v>35</v>
+      </c>
+      <c r="H21" s="23">
+        <v>0</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="M21" s="15"/>
@@ -3811,10 +3859,12 @@
       <c r="F22" s="14">
         <v>2</v>
       </c>
-      <c r="G22" s="23">
-        <v>0</v>
-      </c>
-      <c r="H22" s="14"/>
+      <c r="G22" s="3">
+        <v>110</v>
+      </c>
+      <c r="H22" s="23">
+        <v>0</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="M22" s="15"/>
@@ -3842,10 +3892,12 @@
       <c r="F23" s="14">
         <v>2</v>
       </c>
-      <c r="G23" s="23">
-        <v>0</v>
-      </c>
-      <c r="H23" s="14"/>
+      <c r="G23" s="28">
+        <v>110</v>
+      </c>
+      <c r="H23" s="23">
+        <v>0</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="M23" s="15"/>
@@ -3873,10 +3925,12 @@
       <c r="F24" s="14">
         <v>1</v>
       </c>
-      <c r="G24" s="23">
-        <v>0</v>
-      </c>
-      <c r="H24" s="14"/>
+      <c r="G24" s="28">
+        <v>110</v>
+      </c>
+      <c r="H24" s="23">
+        <v>0</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="M24" s="15"/>
@@ -3904,10 +3958,12 @@
       <c r="F25" s="14">
         <v>1</v>
       </c>
-      <c r="G25" s="23">
-        <v>0</v>
-      </c>
-      <c r="H25" s="14"/>
+      <c r="G25" s="28">
+        <v>110</v>
+      </c>
+      <c r="H25" s="23">
+        <v>0</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="M25" s="15"/>
@@ -3935,10 +3991,12 @@
       <c r="F26" s="14">
         <v>1</v>
       </c>
-      <c r="G26" s="23">
-        <v>0</v>
-      </c>
-      <c r="H26" s="14"/>
+      <c r="G26" s="3">
+        <v>35</v>
+      </c>
+      <c r="H26" s="23">
+        <v>0</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="M26" s="15"/>
@@ -3966,10 +4024,12 @@
       <c r="F27" s="14">
         <v>0</v>
       </c>
-      <c r="G27" s="23">
-        <v>0</v>
-      </c>
-      <c r="H27" s="14"/>
+      <c r="G27" s="3">
+        <v>110</v>
+      </c>
+      <c r="H27" s="23">
+        <v>0</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="M27" s="15"/>
@@ -3997,10 +4057,12 @@
       <c r="F28" s="14">
         <v>1</v>
       </c>
-      <c r="G28" s="23">
-        <v>0</v>
-      </c>
-      <c r="H28" s="14"/>
+      <c r="G28" s="3">
+        <v>35</v>
+      </c>
+      <c r="H28" s="23">
+        <v>0</v>
+      </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="M28" s="15"/>
@@ -4028,10 +4090,12 @@
       <c r="F29" s="14">
         <v>1</v>
       </c>
-      <c r="G29" s="23">
-        <v>0</v>
-      </c>
-      <c r="H29" s="14"/>
+      <c r="G29" s="3">
+        <v>35</v>
+      </c>
+      <c r="H29" s="23">
+        <v>0</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="M29" s="15"/>
@@ -4059,10 +4123,12 @@
       <c r="F30" s="14">
         <v>2</v>
       </c>
-      <c r="G30" s="23">
-        <v>0</v>
-      </c>
-      <c r="H30" s="14"/>
+      <c r="G30" s="3">
+        <v>110</v>
+      </c>
+      <c r="H30" s="23">
+        <v>0</v>
+      </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="M30" s="15"/>
@@ -4090,10 +4156,12 @@
       <c r="F31" s="14">
         <v>1</v>
       </c>
-      <c r="G31" s="23">
-        <v>0</v>
-      </c>
-      <c r="H31" s="14"/>
+      <c r="G31" s="3">
+        <v>35</v>
+      </c>
+      <c r="H31" s="23">
+        <v>0</v>
+      </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="M31" s="15"/>
@@ -4121,10 +4189,12 @@
       <c r="F32" s="14">
         <v>1</v>
       </c>
-      <c r="G32" s="23">
-        <v>0</v>
-      </c>
-      <c r="H32" s="14"/>
+      <c r="G32" s="3">
+        <v>35</v>
+      </c>
+      <c r="H32" s="23">
+        <v>0</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="M32" s="15"/>
@@ -4152,10 +4222,12 @@
       <c r="F33" s="14">
         <v>1</v>
       </c>
-      <c r="G33" s="23">
-        <v>0</v>
-      </c>
-      <c r="H33" s="14"/>
+      <c r="G33" s="3">
+        <v>110</v>
+      </c>
+      <c r="H33" s="23">
+        <v>0</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="M33" s="15"/>
@@ -4183,10 +4255,12 @@
       <c r="F34" s="14">
         <v>1</v>
       </c>
-      <c r="G34" s="23">
-        <v>0</v>
-      </c>
-      <c r="H34" s="14"/>
+      <c r="G34" s="3">
+        <v>35</v>
+      </c>
+      <c r="H34" s="23">
+        <v>0</v>
+      </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="M34" s="15"/>
@@ -4214,10 +4288,12 @@
       <c r="F35" s="14">
         <v>0</v>
       </c>
-      <c r="G35" s="23">
-        <v>0</v>
-      </c>
-      <c r="H35" s="14"/>
+      <c r="G35" s="3">
+        <v>110</v>
+      </c>
+      <c r="H35" s="23">
+        <v>0</v>
+      </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="M35" s="15"/>
@@ -4245,10 +4321,12 @@
       <c r="F36" s="14">
         <v>1</v>
       </c>
-      <c r="G36" s="23">
-        <v>0</v>
-      </c>
-      <c r="H36" s="14"/>
+      <c r="G36" s="3">
+        <v>110</v>
+      </c>
+      <c r="H36" s="23">
+        <v>0</v>
+      </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="M36" s="15"/>
@@ -4276,10 +4354,12 @@
       <c r="F37" s="14">
         <v>1</v>
       </c>
-      <c r="G37" s="23">
-        <v>0</v>
-      </c>
-      <c r="H37" s="14"/>
+      <c r="G37" s="3">
+        <v>35</v>
+      </c>
+      <c r="H37" s="23">
+        <v>0</v>
+      </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="M37" s="15"/>
@@ -4307,10 +4387,12 @@
       <c r="F38" s="3">
         <v>0</v>
       </c>
-      <c r="G38" s="23">
-        <v>0</v>
-      </c>
-      <c r="H38" s="17"/>
+      <c r="G38" s="3">
+        <v>35</v>
+      </c>
+      <c r="H38" s="23">
+        <v>0</v>
+      </c>
       <c r="I38" s="4"/>
       <c r="J38" s="3"/>
       <c r="M38" s="17"/>
@@ -4336,10 +4418,12 @@
       <c r="F39" s="14">
         <v>0</v>
       </c>
-      <c r="G39" s="23">
-        <v>0</v>
-      </c>
-      <c r="H39" s="14"/>
+      <c r="G39" s="3">
+        <v>35</v>
+      </c>
+      <c r="H39" s="23">
+        <v>0</v>
+      </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="M39" s="15"/>
@@ -4367,10 +4451,12 @@
       <c r="F40" s="14">
         <v>1</v>
       </c>
-      <c r="G40" s="23">
-        <v>0</v>
-      </c>
-      <c r="H40" s="14"/>
+      <c r="G40" s="3">
+        <v>35</v>
+      </c>
+      <c r="H40" s="23">
+        <v>0</v>
+      </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="M40" s="15"/>
@@ -4398,10 +4484,12 @@
       <c r="F41" s="14">
         <v>1</v>
       </c>
-      <c r="G41" s="23">
-        <v>0</v>
-      </c>
-      <c r="H41" s="14"/>
+      <c r="G41" s="3">
+        <v>35</v>
+      </c>
+      <c r="H41" s="23">
+        <v>0</v>
+      </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="M41" s="15"/>
@@ -4429,10 +4517,12 @@
       <c r="F42" s="14">
         <v>1</v>
       </c>
-      <c r="G42" s="23">
-        <v>0</v>
-      </c>
-      <c r="H42" s="14"/>
+      <c r="G42" s="3">
+        <v>35</v>
+      </c>
+      <c r="H42" s="23">
+        <v>0</v>
+      </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="M42" s="15"/>
@@ -4460,10 +4550,12 @@
       <c r="F43" s="14">
         <v>1</v>
       </c>
-      <c r="G43" s="23">
-        <v>0</v>
-      </c>
-      <c r="H43" s="14"/>
+      <c r="G43" s="3">
+        <v>35</v>
+      </c>
+      <c r="H43" s="23">
+        <v>0</v>
+      </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="M43" s="15"/>
@@ -4491,10 +4583,12 @@
       <c r="F44" s="14">
         <v>0</v>
       </c>
-      <c r="G44" s="23">
-        <v>0</v>
-      </c>
-      <c r="H44" s="14"/>
+      <c r="G44" s="3">
+        <v>50</v>
+      </c>
+      <c r="H44" s="23">
+        <v>0</v>
+      </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="M44" s="15"/>
@@ -4522,10 +4616,12 @@
       <c r="F45" s="14">
         <v>0</v>
       </c>
-      <c r="G45" s="14">
-        <v>1</v>
-      </c>
-      <c r="H45" s="14"/>
+      <c r="G45" s="28">
+        <v>50</v>
+      </c>
+      <c r="H45" s="14">
+        <v>1</v>
+      </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="M45" s="15"/>
@@ -4553,10 +4649,12 @@
       <c r="F46" s="14">
         <v>0</v>
       </c>
-      <c r="G46" s="23">
-        <v>1</v>
-      </c>
-      <c r="H46" s="14"/>
+      <c r="G46" s="28">
+        <v>50</v>
+      </c>
+      <c r="H46" s="23">
+        <v>1</v>
+      </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="M46" s="15"/>
@@ -4584,10 +4682,12 @@
       <c r="F47" s="14">
         <v>0</v>
       </c>
-      <c r="G47" s="23">
-        <v>1</v>
-      </c>
-      <c r="H47" s="14"/>
+      <c r="G47" s="28">
+        <v>50</v>
+      </c>
+      <c r="H47" s="23">
+        <v>1</v>
+      </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="M47" s="15"/>
@@ -4615,10 +4715,12 @@
       <c r="F48" s="14">
         <v>0</v>
       </c>
-      <c r="G48" s="23">
-        <v>1</v>
-      </c>
-      <c r="H48" s="14"/>
+      <c r="G48" s="28">
+        <v>50</v>
+      </c>
+      <c r="H48" s="23">
+        <v>1</v>
+      </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="M48" s="15"/>
@@ -4646,10 +4748,12 @@
       <c r="F49" s="14">
         <v>0</v>
       </c>
-      <c r="G49" s="23">
-        <v>1</v>
-      </c>
-      <c r="H49" s="14"/>
+      <c r="G49" s="28">
+        <v>50</v>
+      </c>
+      <c r="H49" s="23">
+        <v>1</v>
+      </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="M49" s="15"/>
@@ -4677,10 +4781,12 @@
       <c r="F50" s="14">
         <v>0</v>
       </c>
-      <c r="G50" s="23">
-        <v>1</v>
-      </c>
-      <c r="H50" s="14"/>
+      <c r="G50" s="28">
+        <v>50</v>
+      </c>
+      <c r="H50" s="23">
+        <v>1</v>
+      </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="M50" s="15"/>
@@ -4708,10 +4814,12 @@
       <c r="F51" s="14">
         <v>0</v>
       </c>
-      <c r="G51" s="23">
-        <v>1</v>
-      </c>
-      <c r="H51" s="14"/>
+      <c r="G51" s="28">
+        <v>50</v>
+      </c>
+      <c r="H51" s="23">
+        <v>1</v>
+      </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="M51" s="15"/>
@@ -4739,10 +4847,12 @@
       <c r="F52" s="14">
         <v>0</v>
       </c>
-      <c r="G52" s="23">
-        <v>1</v>
-      </c>
-      <c r="H52" s="14"/>
+      <c r="G52" s="28">
+        <v>50</v>
+      </c>
+      <c r="H52" s="23">
+        <v>1</v>
+      </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="M52" s="15"/>
@@ -4770,10 +4880,12 @@
       <c r="F53" s="14">
         <v>0</v>
       </c>
-      <c r="G53" s="23">
-        <v>1</v>
-      </c>
-      <c r="H53" s="14"/>
+      <c r="G53" s="28">
+        <v>50</v>
+      </c>
+      <c r="H53" s="23">
+        <v>1</v>
+      </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="M53" s="15"/>
@@ -4801,10 +4913,12 @@
       <c r="F54" s="14">
         <v>0</v>
       </c>
-      <c r="G54" s="23">
-        <v>1</v>
-      </c>
-      <c r="H54" s="14"/>
+      <c r="G54" s="28">
+        <v>50</v>
+      </c>
+      <c r="H54" s="23">
+        <v>1</v>
+      </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="M54" s="15"/>
@@ -4832,10 +4946,12 @@
       <c r="F55" s="14">
         <v>0</v>
       </c>
-      <c r="G55" s="23">
-        <v>1</v>
-      </c>
-      <c r="H55" s="14"/>
+      <c r="G55" s="28">
+        <v>50</v>
+      </c>
+      <c r="H55" s="23">
+        <v>1</v>
+      </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="M55" s="15"/>
@@ -4863,10 +4979,12 @@
       <c r="F56" s="14">
         <v>0</v>
       </c>
-      <c r="G56" s="23">
-        <v>1</v>
-      </c>
-      <c r="H56" s="14"/>
+      <c r="G56" s="28">
+        <v>50</v>
+      </c>
+      <c r="H56" s="23">
+        <v>1</v>
+      </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="M56" s="15"/>
@@ -4894,10 +5012,12 @@
       <c r="F57" s="14">
         <v>0</v>
       </c>
-      <c r="G57" s="23">
-        <v>1</v>
-      </c>
-      <c r="H57" s="14"/>
+      <c r="G57" s="28">
+        <v>50</v>
+      </c>
+      <c r="H57" s="23">
+        <v>1</v>
+      </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="M57" s="15"/>
@@ -4925,10 +5045,12 @@
       <c r="F58" s="14">
         <v>0</v>
       </c>
-      <c r="G58" s="23">
-        <v>1</v>
-      </c>
-      <c r="H58" s="14"/>
+      <c r="G58" s="28">
+        <v>50</v>
+      </c>
+      <c r="H58" s="23">
+        <v>1</v>
+      </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="M58" s="15"/>
@@ -4956,10 +5078,12 @@
       <c r="F59" s="14">
         <v>0</v>
       </c>
-      <c r="G59" s="23">
-        <v>1</v>
-      </c>
-      <c r="H59" s="14"/>
+      <c r="G59" s="28">
+        <v>50</v>
+      </c>
+      <c r="H59" s="23">
+        <v>1</v>
+      </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="M59" s="15"/>
@@ -4987,10 +5111,12 @@
       <c r="F60" s="14">
         <v>0</v>
       </c>
-      <c r="G60" s="23">
-        <v>1</v>
-      </c>
-      <c r="H60" s="14"/>
+      <c r="G60" s="28">
+        <v>50</v>
+      </c>
+      <c r="H60" s="23">
+        <v>1</v>
+      </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="M60" s="15"/>
@@ -5018,10 +5144,12 @@
       <c r="F61" s="14">
         <v>0</v>
       </c>
-      <c r="G61" s="23">
-        <v>1</v>
-      </c>
-      <c r="H61" s="14"/>
+      <c r="G61" s="28">
+        <v>50</v>
+      </c>
+      <c r="H61" s="23">
+        <v>1</v>
+      </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="M61" s="15"/>
@@ -5049,10 +5177,12 @@
       <c r="F62" s="14">
         <v>0</v>
       </c>
-      <c r="G62" s="23">
-        <v>1</v>
-      </c>
-      <c r="H62" s="14"/>
+      <c r="G62" s="28">
+        <v>50</v>
+      </c>
+      <c r="H62" s="23">
+        <v>1</v>
+      </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="M62" s="15"/>
@@ -5080,10 +5210,12 @@
       <c r="F63" s="14">
         <v>0</v>
       </c>
-      <c r="G63" s="23">
-        <v>1</v>
-      </c>
-      <c r="H63" s="14"/>
+      <c r="G63" s="28">
+        <v>50</v>
+      </c>
+      <c r="H63" s="23">
+        <v>1</v>
+      </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="M63" s="15"/>
@@ -5111,10 +5243,12 @@
       <c r="F64" s="14">
         <v>0</v>
       </c>
-      <c r="G64" s="23">
-        <v>1</v>
-      </c>
-      <c r="H64" s="14"/>
+      <c r="G64" s="28">
+        <v>50</v>
+      </c>
+      <c r="H64" s="23">
+        <v>1</v>
+      </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="M64" s="15"/>
@@ -5142,10 +5276,12 @@
       <c r="F65" s="14">
         <v>0</v>
       </c>
-      <c r="G65" s="23">
-        <v>1</v>
-      </c>
-      <c r="H65" s="14"/>
+      <c r="G65" s="28">
+        <v>50</v>
+      </c>
+      <c r="H65" s="23">
+        <v>1</v>
+      </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="M65" s="15"/>
@@ -5173,10 +5309,12 @@
       <c r="F66" s="14">
         <v>0</v>
       </c>
-      <c r="G66" s="23">
-        <v>1</v>
-      </c>
-      <c r="H66" s="14"/>
+      <c r="G66" s="28">
+        <v>50</v>
+      </c>
+      <c r="H66" s="23">
+        <v>1</v>
+      </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="M66" s="15"/>
@@ -5204,10 +5342,12 @@
       <c r="F67" s="14">
         <v>0</v>
       </c>
-      <c r="G67" s="23">
-        <v>1</v>
-      </c>
-      <c r="H67" s="14"/>
+      <c r="G67" s="28">
+        <v>50</v>
+      </c>
+      <c r="H67" s="23">
+        <v>1</v>
+      </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="M67" s="15"/>
@@ -5235,10 +5375,12 @@
       <c r="F68" s="14">
         <v>0</v>
       </c>
-      <c r="G68" s="23">
-        <v>1</v>
-      </c>
-      <c r="H68" s="14"/>
+      <c r="G68" s="28">
+        <v>50</v>
+      </c>
+      <c r="H68" s="23">
+        <v>1</v>
+      </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="M68" s="15"/>
@@ -5266,10 +5408,12 @@
       <c r="F69" s="14">
         <v>0</v>
       </c>
-      <c r="G69" s="23">
-        <v>1</v>
-      </c>
-      <c r="H69" s="14"/>
+      <c r="G69" s="28">
+        <v>50</v>
+      </c>
+      <c r="H69" s="23">
+        <v>1</v>
+      </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="M69" s="15"/>
@@ -5297,10 +5441,12 @@
       <c r="F70" s="14">
         <v>0</v>
       </c>
-      <c r="G70" s="23">
-        <v>1</v>
-      </c>
-      <c r="H70" s="14"/>
+      <c r="G70" s="28">
+        <v>50</v>
+      </c>
+      <c r="H70" s="23">
+        <v>1</v>
+      </c>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="M70" s="15"/>
@@ -5328,10 +5474,12 @@
       <c r="F71" s="14">
         <v>0</v>
       </c>
-      <c r="G71" s="23">
-        <v>1</v>
-      </c>
-      <c r="H71" s="14"/>
+      <c r="G71" s="28">
+        <v>50</v>
+      </c>
+      <c r="H71" s="23">
+        <v>1</v>
+      </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="M71" s="15"/>
@@ -5359,10 +5507,12 @@
       <c r="F72" s="14">
         <v>0</v>
       </c>
-      <c r="G72" s="23">
-        <v>1</v>
-      </c>
-      <c r="H72" s="14"/>
+      <c r="G72" s="28">
+        <v>50</v>
+      </c>
+      <c r="H72" s="23">
+        <v>1</v>
+      </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="M72" s="15"/>
@@ -5390,10 +5540,12 @@
       <c r="F73" s="14">
         <v>0</v>
       </c>
-      <c r="G73" s="23">
-        <v>1</v>
-      </c>
-      <c r="H73" s="14"/>
+      <c r="G73" s="28">
+        <v>50</v>
+      </c>
+      <c r="H73" s="23">
+        <v>1</v>
+      </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="M73" s="15"/>
@@ -5421,10 +5573,12 @@
       <c r="F74" s="14">
         <v>0</v>
       </c>
-      <c r="G74" s="23">
-        <v>1</v>
-      </c>
-      <c r="H74" s="14"/>
+      <c r="G74" s="28">
+        <v>50</v>
+      </c>
+      <c r="H74" s="23">
+        <v>1</v>
+      </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="M74" s="15"/>
@@ -5452,10 +5606,12 @@
       <c r="F75" s="14">
         <v>0</v>
       </c>
-      <c r="G75" s="23">
-        <v>1</v>
-      </c>
-      <c r="H75" s="14"/>
+      <c r="G75" s="28">
+        <v>50</v>
+      </c>
+      <c r="H75" s="23">
+        <v>1</v>
+      </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="M75" s="15"/>
@@ -5483,10 +5639,12 @@
       <c r="F76" s="14">
         <v>0</v>
       </c>
-      <c r="G76" s="23">
-        <v>1</v>
-      </c>
-      <c r="H76" s="14"/>
+      <c r="G76" s="28">
+        <v>50</v>
+      </c>
+      <c r="H76" s="23">
+        <v>1</v>
+      </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="M76" s="15"/>
@@ -5514,10 +5672,12 @@
       <c r="F77" s="14">
         <v>0</v>
       </c>
-      <c r="G77" s="23">
-        <v>1</v>
-      </c>
-      <c r="H77" s="14"/>
+      <c r="G77" s="28">
+        <v>50</v>
+      </c>
+      <c r="H77" s="23">
+        <v>1</v>
+      </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="M77" s="15"/>
@@ -5545,10 +5705,12 @@
       <c r="F78" s="14">
         <v>0</v>
       </c>
-      <c r="G78" s="23">
-        <v>1</v>
-      </c>
-      <c r="H78" s="14"/>
+      <c r="G78" s="28">
+        <v>50</v>
+      </c>
+      <c r="H78" s="23">
+        <v>1</v>
+      </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="M78" s="15"/>
@@ -5576,10 +5738,12 @@
       <c r="F79" s="14">
         <v>0</v>
       </c>
-      <c r="G79" s="23">
-        <v>1</v>
-      </c>
-      <c r="H79" s="14"/>
+      <c r="G79" s="28">
+        <v>50</v>
+      </c>
+      <c r="H79" s="23">
+        <v>1</v>
+      </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="M79" s="15"/>
@@ -5613,7 +5777,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -5636,7 +5800,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -5655,7 +5819,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
@@ -5673,8 +5837,8 @@
       <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="7">
-        <v>3</v>
+      <c r="A4" s="27">
+        <v>2</v>
       </c>
       <c r="B4" s="5">
         <v>10</v>
@@ -5692,8 +5856,8 @@
       <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="7">
-        <v>4</v>
+      <c r="A5" s="27">
+        <v>3</v>
       </c>
       <c r="B5" s="5">
         <v>11</v>
@@ -5711,8 +5875,8 @@
       <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="7">
-        <v>5</v>
+      <c r="A6" s="27">
+        <v>4</v>
       </c>
       <c r="B6" s="5">
         <v>13</v>
@@ -5730,8 +5894,8 @@
       <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="7">
-        <v>6</v>
+      <c r="A7" s="27">
+        <v>5</v>
       </c>
       <c r="B7" s="5">
         <v>14</v>
@@ -5749,8 +5913,8 @@
       <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="7">
-        <v>7</v>
+      <c r="A8" s="27">
+        <v>6</v>
       </c>
       <c r="B8" s="5">
         <v>16</v>
@@ -5768,8 +5932,8 @@
       <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="7">
-        <v>8</v>
+      <c r="A9" s="27">
+        <v>7</v>
       </c>
       <c r="B9" s="5">
         <v>18</v>
@@ -5787,8 +5951,8 @@
       <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="7">
-        <v>9</v>
+      <c r="A10" s="27">
+        <v>8</v>
       </c>
       <c r="B10" s="5">
         <v>29</v>
@@ -5806,8 +5970,8 @@
       <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="7">
-        <v>10</v>
+      <c r="A11" s="27">
+        <v>9</v>
       </c>
       <c r="B11" s="5">
         <v>30</v>
@@ -5825,8 +5989,8 @@
       <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="7">
-        <v>11</v>
+      <c r="A12" s="27">
+        <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>31</v>
@@ -5844,8 +6008,8 @@
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="7">
-        <v>12</v>
+      <c r="A13" s="27">
+        <v>11</v>
       </c>
       <c r="B13" s="5">
         <v>32</v>
@@ -5953,8 +6117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -6283,7 +6447,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -6292,30 +6456,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="10" t="s">
@@ -7668,15 +7832,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="26" t="s">
@@ -7780,13 +7944,13 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -7857,13 +8021,13 @@
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
     </row>
@@ -7934,12 +8098,12 @@
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>

--- a/Security-Constrained-ACDC-Planning/data/Data-Ninghai.xlsx
+++ b/Security-Constrained-ACDC-Planning/data/Data-Ninghai.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liupengxiang/Documents/GitHub/Coding-Paper/Security-Constrained-ACDC-Planning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04380280-08C0-C342-9A08-6931A6CE1B08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423D3EC3-D554-4E4C-B6F3-D1A8457F99E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,7 +289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,6 +369,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -665,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -1035,8 +1038,8 @@
       <c r="A22" s="18">
         <v>20</v>
       </c>
-      <c r="B22" s="7">
-        <v>35</v>
+      <c r="B22" s="29">
+        <v>110</v>
       </c>
       <c r="C22" s="8">
         <v>97.9</v>
@@ -1052,8 +1055,8 @@
       <c r="A23" s="18">
         <v>21</v>
       </c>
-      <c r="B23" s="7">
-        <v>35</v>
+      <c r="B23" s="29">
+        <v>110</v>
       </c>
       <c r="C23" s="8">
         <v>191.3</v>
@@ -1069,8 +1072,8 @@
       <c r="A24" s="18">
         <v>22</v>
       </c>
-      <c r="B24" s="7">
-        <v>35</v>
+      <c r="B24" s="29">
+        <v>110</v>
       </c>
       <c r="C24" s="8">
         <v>180.9</v>
@@ -1086,8 +1089,8 @@
       <c r="A25" s="18">
         <v>23</v>
       </c>
-      <c r="B25" s="7">
-        <v>35</v>
+      <c r="B25" s="29">
+        <v>110</v>
       </c>
       <c r="C25" s="8">
         <v>190.6</v>
@@ -1103,8 +1106,8 @@
       <c r="A26" s="18">
         <v>24</v>
       </c>
-      <c r="B26" s="7">
-        <v>35</v>
+      <c r="B26" s="29">
+        <v>110</v>
       </c>
       <c r="C26" s="8">
         <v>37.1</v>
@@ -1120,8 +1123,8 @@
       <c r="A27" s="18">
         <v>25</v>
       </c>
-      <c r="B27" s="7">
-        <v>35</v>
+      <c r="B27" s="29">
+        <v>110</v>
       </c>
       <c r="C27" s="8">
         <v>84.6</v>
@@ -1137,8 +1140,8 @@
       <c r="A28" s="18">
         <v>26</v>
       </c>
-      <c r="B28" s="7">
-        <v>35</v>
+      <c r="B28" s="29">
+        <v>110</v>
       </c>
       <c r="C28" s="8">
         <v>140.9</v>
@@ -1154,8 +1157,8 @@
       <c r="A29" s="18">
         <v>27</v>
       </c>
-      <c r="B29" s="7">
-        <v>35</v>
+      <c r="B29" s="29">
+        <v>110</v>
       </c>
       <c r="C29" s="8">
         <v>55.6</v>
@@ -1171,8 +1174,8 @@
       <c r="A30" s="18">
         <v>28</v>
       </c>
-      <c r="B30" s="7">
-        <v>35</v>
+      <c r="B30" s="29">
+        <v>110</v>
       </c>
       <c r="C30" s="8">
         <v>87.9</v>
@@ -1188,8 +1191,8 @@
       <c r="A31" s="18">
         <v>29</v>
       </c>
-      <c r="B31" s="7">
-        <v>35</v>
+      <c r="B31" s="29">
+        <v>110</v>
       </c>
       <c r="C31" s="8">
         <v>173.1</v>
@@ -1205,8 +1208,8 @@
       <c r="A32" s="18">
         <v>30</v>
       </c>
-      <c r="B32" s="7">
-        <v>35</v>
+      <c r="B32" s="29">
+        <v>110</v>
       </c>
       <c r="C32" s="8">
         <v>264.60000000000002</v>
@@ -1222,8 +1225,8 @@
       <c r="A33" s="18">
         <v>31</v>
       </c>
-      <c r="B33" s="7">
-        <v>35</v>
+      <c r="B33" s="29">
+        <v>110</v>
       </c>
       <c r="C33" s="8">
         <v>293.8</v>
@@ -1239,8 +1242,8 @@
       <c r="A34" s="18">
         <v>32</v>
       </c>
-      <c r="B34" s="7">
-        <v>35</v>
+      <c r="B34" s="29">
+        <v>110</v>
       </c>
       <c r="C34" s="8">
         <v>312.89999999999998</v>
@@ -3141,8 +3144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -6456,30 +6459,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="10" t="s">
@@ -7832,15 +7835,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="26" t="s">
@@ -7944,13 +7947,13 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -8021,13 +8024,13 @@
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
     </row>
@@ -8098,12 +8101,12 @@
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>

--- a/Security-Constrained-ACDC-Planning/data/Data-Ninghai.xlsx
+++ b/Security-Constrained-ACDC-Planning/data/Data-Ninghai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liupengxiang/Documents/GitHub/Coding-Paper/Security-Constrained-ACDC-Planning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423D3EC3-D554-4E4C-B6F3-D1A8457F99E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62404EAE-ADBD-584B-8D6B-B709E77AF58B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -1260,7 +1260,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="C35" s="8">
         <v>343.8</v>
@@ -3144,7 +3144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>

--- a/Security-Constrained-ACDC-Planning/data/Data-Ninghai.xlsx
+++ b/Security-Constrained-ACDC-Planning/data/Data-Ninghai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liupengxiang/Documents/GitHub/Coding-Paper/Security-Constrained-ACDC-Planning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62404EAE-ADBD-584B-8D6B-B709E77AF58B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E936F25-D5A2-AD44-AFA2-DCBA564DB5C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,6 +369,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -668,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -1039,7 +1042,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="29">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="C22" s="8">
         <v>97.9</v>
@@ -1055,8 +1058,8 @@
       <c r="A23" s="18">
         <v>21</v>
       </c>
-      <c r="B23" s="29">
-        <v>110</v>
+      <c r="B23" s="30">
+        <v>35</v>
       </c>
       <c r="C23" s="8">
         <v>191.3</v>
@@ -1072,8 +1075,8 @@
       <c r="A24" s="18">
         <v>22</v>
       </c>
-      <c r="B24" s="29">
-        <v>110</v>
+      <c r="B24" s="30">
+        <v>35</v>
       </c>
       <c r="C24" s="8">
         <v>180.9</v>
@@ -1089,8 +1092,8 @@
       <c r="A25" s="18">
         <v>23</v>
       </c>
-      <c r="B25" s="29">
-        <v>110</v>
+      <c r="B25" s="30">
+        <v>35</v>
       </c>
       <c r="C25" s="8">
         <v>190.6</v>
@@ -1106,8 +1109,8 @@
       <c r="A26" s="18">
         <v>24</v>
       </c>
-      <c r="B26" s="29">
-        <v>110</v>
+      <c r="B26" s="30">
+        <v>35</v>
       </c>
       <c r="C26" s="8">
         <v>37.1</v>
@@ -1123,8 +1126,8 @@
       <c r="A27" s="18">
         <v>25</v>
       </c>
-      <c r="B27" s="29">
-        <v>110</v>
+      <c r="B27" s="30">
+        <v>35</v>
       </c>
       <c r="C27" s="8">
         <v>84.6</v>
@@ -1140,8 +1143,8 @@
       <c r="A28" s="18">
         <v>26</v>
       </c>
-      <c r="B28" s="29">
-        <v>110</v>
+      <c r="B28" s="30">
+        <v>35</v>
       </c>
       <c r="C28" s="8">
         <v>140.9</v>
@@ -1157,8 +1160,8 @@
       <c r="A29" s="18">
         <v>27</v>
       </c>
-      <c r="B29" s="29">
-        <v>110</v>
+      <c r="B29" s="30">
+        <v>35</v>
       </c>
       <c r="C29" s="8">
         <v>55.6</v>
@@ -1174,8 +1177,8 @@
       <c r="A30" s="18">
         <v>28</v>
       </c>
-      <c r="B30" s="29">
-        <v>110</v>
+      <c r="B30" s="30">
+        <v>35</v>
       </c>
       <c r="C30" s="8">
         <v>87.9</v>
@@ -1191,8 +1194,8 @@
       <c r="A31" s="18">
         <v>29</v>
       </c>
-      <c r="B31" s="29">
-        <v>110</v>
+      <c r="B31" s="30">
+        <v>35</v>
       </c>
       <c r="C31" s="8">
         <v>173.1</v>
@@ -1208,8 +1211,8 @@
       <c r="A32" s="18">
         <v>30</v>
       </c>
-      <c r="B32" s="29">
-        <v>110</v>
+      <c r="B32" s="30">
+        <v>35</v>
       </c>
       <c r="C32" s="8">
         <v>264.60000000000002</v>
@@ -1225,8 +1228,8 @@
       <c r="A33" s="18">
         <v>31</v>
       </c>
-      <c r="B33" s="29">
-        <v>110</v>
+      <c r="B33" s="30">
+        <v>35</v>
       </c>
       <c r="C33" s="8">
         <v>293.8</v>
@@ -1242,8 +1245,8 @@
       <c r="A34" s="18">
         <v>32</v>
       </c>
-      <c r="B34" s="29">
-        <v>110</v>
+      <c r="B34" s="30">
+        <v>35</v>
       </c>
       <c r="C34" s="8">
         <v>312.89999999999998</v>
@@ -1259,8 +1262,8 @@
       <c r="A35" s="18">
         <v>33</v>
       </c>
-      <c r="B35" s="7">
-        <v>110</v>
+      <c r="B35" s="30">
+        <v>35</v>
       </c>
       <c r="C35" s="8">
         <v>343.8</v>
@@ -3144,8 +3147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -6459,30 +6462,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30" t="s">
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="10" t="s">
@@ -7835,15 +7838,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="26" t="s">
@@ -7947,13 +7950,13 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -8024,13 +8027,13 @@
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
     </row>
@@ -8101,12 +8104,12 @@
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>

--- a/Security-Constrained-ACDC-Planning/data/Data-Ninghai.xlsx
+++ b/Security-Constrained-ACDC-Planning/data/Data-Ninghai.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10530"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liupengxiang/Documents/GitHub/Coding-Paper/Security-Constrained-ACDC-Planning/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22017\Documents\GitHub\Coding-Paper\Security-Constrained-ACDC-Planning\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E936F25-D5A2-AD44-AFA2-DCBA564DB5C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="10800" windowHeight="13008"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="Day" sheetId="5" r:id="rId7"/>
     <sheet name="Para" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>AC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,11 +223,19 @@
     <t>Opr ($/MWh)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Theta-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voltage-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
@@ -289,7 +296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,6 +376,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -668,19 +678,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="16384" width="10.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -694,10 +704,16 @@
         <v>5</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -711,10 +727,16 @@
         <v>160.19999999999999</v>
       </c>
       <c r="E2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -727,11 +749,17 @@
       <c r="D3" s="8">
         <v>231</v>
       </c>
-      <c r="E3" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="31">
+        <v>1</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0</v>
+      </c>
+      <c r="G3" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -744,11 +772,17 @@
       <c r="D4" s="8">
         <v>140.9</v>
       </c>
-      <c r="E4" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="31">
+        <v>1</v>
+      </c>
+      <c r="F4" s="31">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -761,11 +795,17 @@
       <c r="D5" s="8">
         <v>268.2</v>
       </c>
-      <c r="E5" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="31">
+        <v>1</v>
+      </c>
+      <c r="F5" s="31">
+        <v>0</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -778,11 +818,17 @@
       <c r="D6" s="8">
         <v>250</v>
       </c>
-      <c r="E6" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="31">
+        <v>1</v>
+      </c>
+      <c r="F6" s="31">
+        <v>0</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -795,11 +841,17 @@
       <c r="D7" s="8">
         <v>255</v>
       </c>
-      <c r="E7" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="31">
+        <v>1</v>
+      </c>
+      <c r="F7" s="31">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -812,11 +864,17 @@
       <c r="D8" s="8">
         <v>226.2</v>
       </c>
-      <c r="E8" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="31">
+        <v>1</v>
+      </c>
+      <c r="F8" s="31">
+        <v>0</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -829,11 +887,17 @@
       <c r="D9" s="8">
         <v>208.2</v>
       </c>
-      <c r="E9" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="31">
+        <v>1</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -846,11 +910,17 @@
       <c r="D10" s="8">
         <v>197.1</v>
       </c>
-      <c r="E10" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="31">
+        <v>1</v>
+      </c>
+      <c r="F10" s="31">
+        <v>0</v>
+      </c>
+      <c r="G10" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -863,11 +933,17 @@
       <c r="D11" s="8">
         <v>177.5</v>
       </c>
-      <c r="E11" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="31">
+        <v>1</v>
+      </c>
+      <c r="F11" s="31">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -880,11 +956,17 @@
       <c r="D12" s="8">
         <v>181.8</v>
       </c>
-      <c r="E12" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="31">
+        <v>1</v>
+      </c>
+      <c r="F12" s="31">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -897,11 +979,17 @@
       <c r="D13" s="8">
         <v>167.8</v>
       </c>
-      <c r="E13" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="31">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -914,11 +1002,17 @@
       <c r="D14" s="8">
         <v>140.5</v>
       </c>
-      <c r="E14" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="31">
+        <v>1</v>
+      </c>
+      <c r="F14" s="31">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="18">
         <v>13</v>
       </c>
@@ -931,11 +1025,17 @@
       <c r="D15" s="8">
         <v>147.4</v>
       </c>
-      <c r="E15" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="31">
+        <v>1</v>
+      </c>
+      <c r="F15" s="31">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -948,11 +1048,17 @@
       <c r="D16" s="8">
         <v>145</v>
       </c>
-      <c r="E16" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="31">
+        <v>1</v>
+      </c>
+      <c r="F16" s="31">
+        <v>0</v>
+      </c>
+      <c r="G16" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -965,11 +1071,17 @@
       <c r="D17" s="8">
         <v>147.1</v>
       </c>
-      <c r="E17" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="31">
+        <v>1</v>
+      </c>
+      <c r="F17" s="31">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -982,11 +1094,17 @@
       <c r="D18" s="8">
         <v>161.1</v>
       </c>
-      <c r="E18" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="31">
+        <v>1</v>
+      </c>
+      <c r="F18" s="31">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -999,11 +1117,17 @@
       <c r="D19" s="8">
         <v>71.900000000000006</v>
       </c>
-      <c r="E19" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" s="31">
+        <v>1</v>
+      </c>
+      <c r="F19" s="31">
+        <v>0</v>
+      </c>
+      <c r="G19" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -1016,11 +1140,17 @@
       <c r="D20" s="8">
         <v>56</v>
       </c>
-      <c r="E20" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="31">
+        <v>1</v>
+      </c>
+      <c r="F20" s="31">
+        <v>0</v>
+      </c>
+      <c r="G20" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -1033,11 +1163,17 @@
       <c r="D21" s="8">
         <v>204</v>
       </c>
-      <c r="E21" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="31">
+        <v>1</v>
+      </c>
+      <c r="F21" s="31">
+        <v>0</v>
+      </c>
+      <c r="G21" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -1050,11 +1186,17 @@
       <c r="D22" s="8">
         <v>224.5</v>
       </c>
-      <c r="E22" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="31">
+        <v>1</v>
+      </c>
+      <c r="F22" s="31">
+        <v>0</v>
+      </c>
+      <c r="G22" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="18">
         <v>21</v>
       </c>
@@ -1067,11 +1209,17 @@
       <c r="D23" s="8">
         <v>268.8</v>
       </c>
-      <c r="E23" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" s="31">
+        <v>1</v>
+      </c>
+      <c r="F23" s="31">
+        <v>0</v>
+      </c>
+      <c r="G23" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="18">
         <v>22</v>
       </c>
@@ -1084,11 +1232,17 @@
       <c r="D24" s="8">
         <v>184.8</v>
       </c>
-      <c r="E24" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="31">
+        <v>1</v>
+      </c>
+      <c r="F24" s="31">
+        <v>0</v>
+      </c>
+      <c r="G24" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="18">
         <v>23</v>
       </c>
@@ -1101,11 +1255,17 @@
       <c r="D25" s="8">
         <v>192</v>
       </c>
-      <c r="E25" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" s="31">
+        <v>1</v>
+      </c>
+      <c r="F25" s="31">
+        <v>0</v>
+      </c>
+      <c r="G25" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -1118,11 +1278,17 @@
       <c r="D26" s="8">
         <v>128.19999999999999</v>
       </c>
-      <c r="E26" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26" s="31">
+        <v>1</v>
+      </c>
+      <c r="F26" s="31">
+        <v>0</v>
+      </c>
+      <c r="G26" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="18">
         <v>25</v>
       </c>
@@ -1135,11 +1301,17 @@
       <c r="D27" s="8">
         <v>150.9</v>
       </c>
-      <c r="E27" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="31">
+        <v>1</v>
+      </c>
+      <c r="F27" s="31">
+        <v>0</v>
+      </c>
+      <c r="G27" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="18">
         <v>26</v>
       </c>
@@ -1152,11 +1324,17 @@
       <c r="D28" s="8">
         <v>118</v>
       </c>
-      <c r="E28" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" s="31">
+        <v>1</v>
+      </c>
+      <c r="F28" s="31">
+        <v>0</v>
+      </c>
+      <c r="G28" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="18">
         <v>27</v>
       </c>
@@ -1169,11 +1347,17 @@
       <c r="D29" s="8">
         <v>72</v>
       </c>
-      <c r="E29" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" s="31">
+        <v>1</v>
+      </c>
+      <c r="F29" s="31">
+        <v>0</v>
+      </c>
+      <c r="G29" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="18">
         <v>28</v>
       </c>
@@ -1186,11 +1370,17 @@
       <c r="D30" s="8">
         <v>78.2</v>
       </c>
-      <c r="E30" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30" s="31">
+        <v>1</v>
+      </c>
+      <c r="F30" s="31">
+        <v>0</v>
+      </c>
+      <c r="G30" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="18">
         <v>29</v>
       </c>
@@ -1203,11 +1393,17 @@
       <c r="D31" s="8">
         <v>67.5</v>
       </c>
-      <c r="E31" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="E31" s="31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="18">
         <v>30</v>
       </c>
@@ -1220,11 +1416,17 @@
       <c r="D32" s="8">
         <v>90</v>
       </c>
-      <c r="E32" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="E32" s="31">
+        <v>1</v>
+      </c>
+      <c r="F32" s="31">
+        <v>0</v>
+      </c>
+      <c r="G32" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="18">
         <v>31</v>
       </c>
@@ -1237,11 +1439,17 @@
       <c r="D33" s="8">
         <v>110</v>
       </c>
-      <c r="E33" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="E33" s="31">
+        <v>1</v>
+      </c>
+      <c r="F33" s="31">
+        <v>0</v>
+      </c>
+      <c r="G33" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="18">
         <v>32</v>
       </c>
@@ -1254,11 +1462,17 @@
       <c r="D34" s="8">
         <v>112.5</v>
       </c>
-      <c r="E34" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="E34" s="31">
+        <v>1</v>
+      </c>
+      <c r="F34" s="31">
+        <v>0</v>
+      </c>
+      <c r="G34" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="18">
         <v>33</v>
       </c>
@@ -1271,11 +1485,17 @@
       <c r="D35" s="8">
         <v>73.599999999999994</v>
       </c>
-      <c r="E35" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="E35" s="31">
+        <v>1</v>
+      </c>
+      <c r="F35" s="31">
+        <v>0</v>
+      </c>
+      <c r="G35" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="18">
         <v>34</v>
       </c>
@@ -1288,11 +1508,17 @@
       <c r="D36" s="8">
         <v>115.8</v>
       </c>
-      <c r="E36" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="E36" s="31">
+        <v>1</v>
+      </c>
+      <c r="F36" s="31">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="18">
         <v>35</v>
       </c>
@@ -1305,11 +1531,17 @@
       <c r="D37" s="8">
         <v>95</v>
       </c>
-      <c r="E37" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="E37" s="31">
+        <v>1</v>
+      </c>
+      <c r="F37" s="31">
+        <v>0</v>
+      </c>
+      <c r="G37" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="18">
         <v>36</v>
       </c>
@@ -1322,11 +1554,17 @@
       <c r="D38" s="8">
         <v>49.7</v>
       </c>
-      <c r="E38" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="E38" s="31">
+        <v>1</v>
+      </c>
+      <c r="F38" s="31">
+        <v>0</v>
+      </c>
+      <c r="G38" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="18">
         <v>37</v>
       </c>
@@ -1339,11 +1577,17 @@
       <c r="D39" s="8">
         <v>77.5</v>
       </c>
-      <c r="E39" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="E39" s="31">
+        <v>1</v>
+      </c>
+      <c r="F39" s="31">
+        <v>0</v>
+      </c>
+      <c r="G39" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="18">
         <v>38</v>
       </c>
@@ -1356,11 +1600,17 @@
       <c r="D40" s="8">
         <v>66.8</v>
       </c>
-      <c r="E40" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="E40" s="31">
+        <v>1</v>
+      </c>
+      <c r="F40" s="31">
+        <v>0</v>
+      </c>
+      <c r="G40" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="18">
         <v>39</v>
       </c>
@@ -1373,11 +1623,17 @@
       <c r="D41" s="8">
         <v>80.2</v>
       </c>
-      <c r="E41" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="E41" s="31">
+        <v>1</v>
+      </c>
+      <c r="F41" s="31">
+        <v>0</v>
+      </c>
+      <c r="G41" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="18">
         <v>40</v>
       </c>
@@ -1390,11 +1646,17 @@
       <c r="D42" s="8">
         <v>64.2</v>
       </c>
-      <c r="E42" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="E42" s="31">
+        <v>1</v>
+      </c>
+      <c r="F42" s="31">
+        <v>0</v>
+      </c>
+      <c r="G42" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="18">
         <v>41</v>
       </c>
@@ -1407,11 +1669,17 @@
       <c r="D43" s="8">
         <v>49.6</v>
       </c>
-      <c r="E43" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="E43" s="31">
+        <v>1</v>
+      </c>
+      <c r="F43" s="31">
+        <v>0</v>
+      </c>
+      <c r="G43" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="18">
         <v>42</v>
       </c>
@@ -1424,11 +1692,17 @@
       <c r="D44" s="8">
         <v>71.8</v>
       </c>
-      <c r="E44" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="E44" s="31">
+        <v>1</v>
+      </c>
+      <c r="F44" s="31">
+        <v>0</v>
+      </c>
+      <c r="G44" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="18">
         <v>43</v>
       </c>
@@ -1441,11 +1715,17 @@
       <c r="D45" s="8">
         <v>57.5</v>
       </c>
-      <c r="E45" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="E45" s="31">
+        <v>1</v>
+      </c>
+      <c r="F45" s="31">
+        <v>0</v>
+      </c>
+      <c r="G45" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="18">
         <v>44</v>
       </c>
@@ -1458,11 +1738,17 @@
       <c r="D46" s="8">
         <v>87.5</v>
       </c>
-      <c r="E46" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="E46" s="31">
+        <v>1</v>
+      </c>
+      <c r="F46" s="31">
+        <v>0</v>
+      </c>
+      <c r="G46" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="18">
         <v>45</v>
       </c>
@@ -1475,11 +1761,17 @@
       <c r="D47" s="8">
         <v>160.19999999999999</v>
       </c>
-      <c r="E47" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="E47" s="31">
+        <v>1</v>
+      </c>
+      <c r="F47" s="31">
+        <v>0</v>
+      </c>
+      <c r="G47" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="18">
         <v>46</v>
       </c>
@@ -1492,11 +1784,17 @@
       <c r="D48" s="8">
         <v>140.9</v>
       </c>
-      <c r="E48" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="E48" s="31">
+        <v>1</v>
+      </c>
+      <c r="F48" s="31">
+        <v>0</v>
+      </c>
+      <c r="G48" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="18">
         <v>47</v>
       </c>
@@ -1509,11 +1807,17 @@
       <c r="D49" s="8">
         <v>181.8</v>
       </c>
-      <c r="E49" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="E49" s="31">
+        <v>1</v>
+      </c>
+      <c r="F49" s="31">
+        <v>0</v>
+      </c>
+      <c r="G49" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="18">
         <v>48</v>
       </c>
@@ -1526,11 +1830,17 @@
       <c r="D50" s="8">
         <v>167.8</v>
       </c>
-      <c r="E50" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="E50" s="31">
+        <v>1</v>
+      </c>
+      <c r="F50" s="31">
+        <v>0</v>
+      </c>
+      <c r="G50" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="18">
         <v>49</v>
       </c>
@@ -1543,11 +1853,17 @@
       <c r="D51" s="8">
         <v>147.4</v>
       </c>
-      <c r="E51" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="E51" s="31">
+        <v>1</v>
+      </c>
+      <c r="F51" s="31">
+        <v>0</v>
+      </c>
+      <c r="G51" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="18">
         <v>50</v>
       </c>
@@ -1560,11 +1876,17 @@
       <c r="D52" s="8">
         <v>145</v>
       </c>
-      <c r="E52" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="E52" s="31">
+        <v>1</v>
+      </c>
+      <c r="F52" s="31">
+        <v>0</v>
+      </c>
+      <c r="G52" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="18">
         <v>51</v>
       </c>
@@ -1577,11 +1899,17 @@
       <c r="D53" s="8">
         <v>161.1</v>
       </c>
-      <c r="E53" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="E53" s="31">
+        <v>1</v>
+      </c>
+      <c r="F53" s="31">
+        <v>0</v>
+      </c>
+      <c r="G53" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="18">
         <v>52</v>
       </c>
@@ -1594,11 +1922,17 @@
       <c r="D54" s="8">
         <v>56</v>
       </c>
-      <c r="E54" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="E54" s="31">
+        <v>1</v>
+      </c>
+      <c r="F54" s="31">
+        <v>0</v>
+      </c>
+      <c r="G54" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="18">
         <v>53</v>
       </c>
@@ -1611,11 +1945,17 @@
       <c r="D55" s="8">
         <v>67.5</v>
       </c>
-      <c r="E55" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="E55" s="31">
+        <v>1</v>
+      </c>
+      <c r="F55" s="31">
+        <v>0</v>
+      </c>
+      <c r="G55" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="18">
         <v>54</v>
       </c>
@@ -1628,11 +1968,17 @@
       <c r="D56" s="8">
         <v>90</v>
       </c>
-      <c r="E56" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="E56" s="31">
+        <v>1</v>
+      </c>
+      <c r="F56" s="31">
+        <v>0</v>
+      </c>
+      <c r="G56" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="18">
         <v>55</v>
       </c>
@@ -1645,11 +1991,17 @@
       <c r="D57" s="8">
         <v>110</v>
       </c>
-      <c r="E57" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="E57" s="31">
+        <v>1</v>
+      </c>
+      <c r="F57" s="31">
+        <v>0</v>
+      </c>
+      <c r="G57" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="18">
         <v>56</v>
       </c>
@@ -1662,7 +2014,13 @@
       <c r="D58" s="8">
         <v>112.5</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="31">
+        <v>1</v>
+      </c>
+      <c r="F58" s="31">
+        <v>0</v>
+      </c>
+      <c r="G58" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1674,14 +2032,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="15" t="s">
@@ -3144,18 +3502,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="9" width="10.83203125" style="3"/>
-    <col min="12" max="12" width="10.83203125" style="3"/>
-    <col min="14" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="9" width="10.77734375" style="3"/>
+    <col min="12" max="12" width="10.77734375" style="3"/>
+    <col min="14" max="16384" width="10.77734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -5779,14 +6137,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
@@ -6040,14 +6398,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -6120,17 +6478,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="10.77734375" style="1"/>
+    <col min="5" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6449,43 +6807,43 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="16384" width="10.77734375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="10" t="s">
@@ -7825,28 +8183,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="20"/>
+    <col min="1" max="16384" width="10.77734375" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="26" t="s">
@@ -7950,13 +8308,13 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -8027,13 +8385,13 @@
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
     </row>
@@ -8104,12 +8462,12 @@
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
